--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -7101,13 +7101,17 @@
         <v>280.8</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>281</v>
+      </c>
+      <c r="K192" t="n">
+        <v>281</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
@@ -7136,14 +7140,22 @@
         <v>280.8</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>281</v>
+      </c>
+      <c r="K193" t="n">
+        <v>281</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +7183,22 @@
         <v>281</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>281</v>
+      </c>
+      <c r="K194" t="n">
+        <v>281</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7282,14 +7302,12 @@
         <v>281.8</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>282</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7401,14 +7419,12 @@
         <v>281</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>280</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7442,14 +7458,12 @@
         <v>280.4</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>280</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -7483,14 +7497,12 @@
         <v>279.6</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>280</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7571,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
@@ -7694,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
@@ -7735,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
@@ -7770,14 +7782,12 @@
         <v>282.8</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>285</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -7811,14 +7821,12 @@
         <v>282.6</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>281</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -7852,14 +7860,12 @@
         <v>282.6</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>281</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -7893,14 +7899,12 @@
         <v>282.4</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>282</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -7934,14 +7938,12 @@
         <v>281.8</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>282</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -7975,14 +7977,12 @@
         <v>281.4</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>281</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8016,14 +8016,12 @@
         <v>281.6</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>282</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>291</v>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D2" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" t="n">
-        <v>3624.7182</v>
+        <v>46565.2136</v>
       </c>
       <c r="G2" t="n">
-        <v>291.4</v>
+        <v>288.9166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" t="n">
         <v>292</v>
@@ -477,13 +477,13 @@
         <v>292</v>
       </c>
       <c r="E3" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" t="n">
-        <v>211.904</v>
+        <v>3624.7182</v>
       </c>
       <c r="G3" t="n">
-        <v>291.2</v>
+        <v>289.0333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>292</v>
       </c>
       <c r="F4" t="n">
-        <v>156.36</v>
+        <v>211.904</v>
       </c>
       <c r="G4" t="n">
-        <v>291.4</v>
+        <v>289.1833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>292</v>
       </c>
       <c r="F5" t="n">
-        <v>443</v>
+        <v>156.36</v>
       </c>
       <c r="G5" t="n">
-        <v>291.6</v>
+        <v>289.3666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>292</v>
       </c>
       <c r="F6" t="n">
-        <v>806.0431</v>
+        <v>443</v>
       </c>
       <c r="G6" t="n">
-        <v>292</v>
+        <v>289.4833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>292</v>
       </c>
       <c r="F7" t="n">
-        <v>1967.411</v>
+        <v>806.0431</v>
       </c>
       <c r="G7" t="n">
-        <v>292</v>
+        <v>289.5666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" t="n">
-        <v>1089.4647</v>
+        <v>1967.411</v>
       </c>
       <c r="G8" t="n">
-        <v>292.2</v>
+        <v>289.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C9" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D9" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E9" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>1089.4647</v>
       </c>
       <c r="G9" t="n">
-        <v>292</v>
+        <v>289.8333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F10" t="n">
-        <v>10120.4</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>292</v>
+        <v>289.8833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C11" t="n">
         <v>292</v>
       </c>
       <c r="D11" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E11" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F11" t="n">
-        <v>77900.9679</v>
+        <v>10120.4</v>
       </c>
       <c r="G11" t="n">
-        <v>292</v>
+        <v>289.95</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" t="n">
         <v>292</v>
       </c>
       <c r="D12" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E12" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F12" t="n">
-        <v>103.8325</v>
+        <v>77900.9679</v>
       </c>
       <c r="G12" t="n">
-        <v>292</v>
+        <v>290.0333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C13" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D13" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E13" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F13" t="n">
-        <v>2666.6969</v>
+        <v>103.8325</v>
       </c>
       <c r="G13" t="n">
-        <v>291.2</v>
+        <v>290.1333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>289</v>
       </c>
       <c r="F14" t="n">
-        <v>535</v>
+        <v>2666.6969</v>
       </c>
       <c r="G14" t="n">
-        <v>290.8</v>
+        <v>290.1666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>289</v>
       </c>
       <c r="F15" t="n">
-        <v>251.3268</v>
+        <v>535</v>
       </c>
       <c r="G15" t="n">
-        <v>290.2</v>
+        <v>290.1666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>289</v>
       </c>
       <c r="F16" t="n">
-        <v>803.9476</v>
+        <v>251.3268</v>
       </c>
       <c r="G16" t="n">
-        <v>289.6</v>
+        <v>290.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E17" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F17" t="n">
-        <v>32665.5785</v>
+        <v>803.9476</v>
       </c>
       <c r="G17" t="n">
-        <v>288.8</v>
+        <v>290.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C18" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D18" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E18" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F18" t="n">
-        <v>68.9661</v>
+        <v>32665.5785</v>
       </c>
       <c r="G18" t="n">
-        <v>289.2</v>
+        <v>290.1666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,31 +1028,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C19" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D19" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E19" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F19" t="n">
-        <v>27.3029</v>
+        <v>68.9661</v>
       </c>
       <c r="G19" t="n">
-        <v>290.2</v>
+        <v>290.2166666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>288</v>
+      </c>
+      <c r="K19" t="n">
+        <v>288</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1063,22 +1067,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F20" t="n">
-        <v>2025.138</v>
+        <v>27.3029</v>
       </c>
       <c r="G20" t="n">
-        <v>291.4</v>
+        <v>290.3166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1091,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>288</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1108,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C21" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D21" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E21" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F21" t="n">
-        <v>2164.6844</v>
+        <v>2025.138</v>
       </c>
       <c r="G21" t="n">
-        <v>292.2</v>
+        <v>290.4666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1132,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>288</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>294</v>
+      </c>
+      <c r="C22" t="n">
         <v>293</v>
       </c>
-      <c r="C22" t="n">
-        <v>292</v>
-      </c>
       <c r="D22" t="n">
+        <v>294</v>
+      </c>
+      <c r="E22" t="n">
         <v>293</v>
       </c>
-      <c r="E22" t="n">
-        <v>292</v>
-      </c>
       <c r="F22" t="n">
-        <v>14912.9653</v>
+        <v>2164.6844</v>
       </c>
       <c r="G22" t="n">
-        <v>293</v>
+        <v>290.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1187,19 @@
         <v>293</v>
       </c>
       <c r="C23" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" t="n">
         <v>293</v>
       </c>
       <c r="E23" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" t="n">
-        <v>16684.3174</v>
+        <v>14912.9653</v>
       </c>
       <c r="G23" t="n">
-        <v>293.4</v>
+        <v>290.6833333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1222,19 @@
         <v>293</v>
       </c>
       <c r="C24" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D24" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E24" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F24" t="n">
-        <v>6788.3536</v>
+        <v>16684.3174</v>
       </c>
       <c r="G24" t="n">
-        <v>293.6</v>
+        <v>290.7833333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C25" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D25" t="n">
         <v>298</v>
       </c>
       <c r="E25" t="n">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F25" t="n">
-        <v>400</v>
+        <v>6788.3536</v>
       </c>
       <c r="G25" t="n">
-        <v>294.2</v>
+        <v>290.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1292,19 @@
         <v>298</v>
       </c>
       <c r="C26" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D26" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E26" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F26" t="n">
-        <v>4687.005</v>
+        <v>400</v>
       </c>
       <c r="G26" t="n">
-        <v>295</v>
+        <v>291.0833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1324,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C27" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D27" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E27" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F27" t="n">
-        <v>14841.4312</v>
+        <v>4687.005</v>
       </c>
       <c r="G27" t="n">
-        <v>294.8</v>
+        <v>291.2833333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C28" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D28" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E28" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F28" t="n">
-        <v>7566.0324</v>
+        <v>14841.4312</v>
       </c>
       <c r="G28" t="n">
-        <v>295</v>
+        <v>291.4333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C29" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D29" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E29" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" t="n">
-        <v>19534.2349</v>
+        <v>7566.0324</v>
       </c>
       <c r="G29" t="n">
-        <v>294.4</v>
+        <v>291.6333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1441,10 @@
         <v>292</v>
       </c>
       <c r="F30" t="n">
-        <v>13571.7594</v>
+        <v>19534.2349</v>
       </c>
       <c r="G30" t="n">
-        <v>293.2</v>
+        <v>291.75</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C31" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D31" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E31" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F31" t="n">
-        <v>1181.4237</v>
+        <v>13571.7594</v>
       </c>
       <c r="G31" t="n">
-        <v>292.8</v>
+        <v>291.8333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C32" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D32" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E32" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F32" t="n">
-        <v>34.01360544217687</v>
+        <v>1181.4237</v>
       </c>
       <c r="G32" t="n">
-        <v>293.4</v>
+        <v>291.9833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C33" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D33" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E33" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>34.01360544217687</v>
       </c>
       <c r="G33" t="n">
-        <v>293</v>
+        <v>292.0666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C34" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D34" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E34" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F34" t="n">
-        <v>16405.2201</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>293.8</v>
+        <v>292.15</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1594,16 +1610,16 @@
         <v>296</v>
       </c>
       <c r="D35" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E35" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F35" t="n">
-        <v>7478.7454</v>
+        <v>16405.2201</v>
       </c>
       <c r="G35" t="n">
-        <v>294.6</v>
+        <v>292.2833333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D36" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E36" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F36" t="n">
-        <v>3706.6032</v>
+        <v>7478.7454</v>
       </c>
       <c r="G36" t="n">
-        <v>295</v>
+        <v>292.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C37" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D37" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E37" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F37" t="n">
-        <v>9766.528399999999</v>
+        <v>3706.6032</v>
       </c>
       <c r="G37" t="n">
-        <v>296.2</v>
+        <v>292.5333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1709,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C38" t="n">
         <v>300</v>
@@ -1702,13 +1718,13 @@
         <v>300</v>
       </c>
       <c r="E38" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F38" t="n">
-        <v>3553.2533</v>
+        <v>9766.528399999999</v>
       </c>
       <c r="G38" t="n">
-        <v>297.8</v>
+        <v>292.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1756,10 @@
         <v>300</v>
       </c>
       <c r="F39" t="n">
-        <v>6666.6666</v>
+        <v>3553.2533</v>
       </c>
       <c r="G39" t="n">
-        <v>298.6</v>
+        <v>292.8666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1779,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C40" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D40" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E40" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F40" t="n">
-        <v>3800.075</v>
+        <v>6666.6666</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6</v>
+        <v>293.05</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1817,19 @@
         <v>298</v>
       </c>
       <c r="C41" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D41" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E41" t="n">
         <v>298</v>
       </c>
       <c r="F41" t="n">
-        <v>201.6726</v>
+        <v>3800.075</v>
       </c>
       <c r="G41" t="n">
-        <v>299.8</v>
+        <v>293.25</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C42" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D42" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E42" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F42" t="n">
-        <v>817.1909000000001</v>
+        <v>201.6726</v>
       </c>
       <c r="G42" t="n">
-        <v>300</v>
+        <v>293.3666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C43" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D43" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E43" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F43" t="n">
-        <v>6763.8247</v>
+        <v>817.1909000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>301</v>
+        <v>293.5666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D44" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E44" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F44" t="n">
-        <v>10.9403</v>
+        <v>6763.8247</v>
       </c>
       <c r="G44" t="n">
-        <v>301.6</v>
+        <v>293.8166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1957,19 @@
         <v>303</v>
       </c>
       <c r="C45" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D45" t="n">
         <v>303</v>
       </c>
       <c r="E45" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F45" t="n">
-        <v>880.9017</v>
+        <v>10.9403</v>
       </c>
       <c r="G45" t="n">
-        <v>301.4</v>
+        <v>294</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C46" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D46" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E46" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F46" t="n">
-        <v>2654.3417</v>
+        <v>880.9017</v>
       </c>
       <c r="G46" t="n">
-        <v>302</v>
+        <v>294.1666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C47" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D47" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E47" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F47" t="n">
-        <v>449</v>
+        <v>2654.3417</v>
       </c>
       <c r="G47" t="n">
-        <v>302.4</v>
+        <v>294.3166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2062,19 @@
         <v>303</v>
       </c>
       <c r="C48" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D48" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E48" t="n">
         <v>303</v>
       </c>
       <c r="F48" t="n">
-        <v>10138.2316</v>
+        <v>449</v>
       </c>
       <c r="G48" t="n">
-        <v>302.2</v>
+        <v>294.4666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C49" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D49" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E49" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F49" t="n">
-        <v>38813.8172</v>
+        <v>10138.2316</v>
       </c>
       <c r="G49" t="n">
-        <v>303.2</v>
+        <v>294.65</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C50" t="n">
         <v>308</v>
@@ -2122,13 +2138,13 @@
         <v>308</v>
       </c>
       <c r="E50" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F50" t="n">
-        <v>25319.9686</v>
+        <v>38813.8172</v>
       </c>
       <c r="G50" t="n">
-        <v>304.8</v>
+        <v>294.8666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,28 +2164,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C51" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D51" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E51" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F51" t="n">
-        <v>400</v>
+        <v>25319.9686</v>
       </c>
       <c r="G51" t="n">
-        <v>305</v>
+        <v>295.05</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2183,28 +2199,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C52" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D52" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E52" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F52" t="n">
-        <v>2560.87</v>
+        <v>400</v>
       </c>
       <c r="G52" t="n">
-        <v>303.8</v>
+        <v>295.1666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2218,28 +2234,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C53" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D53" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E53" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F53" t="n">
-        <v>3744.4816</v>
+        <v>2560.87</v>
       </c>
       <c r="G53" t="n">
-        <v>302.2</v>
+        <v>295.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2253,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D54" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E54" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F54" t="n">
-        <v>10215.5183</v>
+        <v>3744.4816</v>
       </c>
       <c r="G54" t="n">
-        <v>300.6</v>
+        <v>295.2166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C55" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D55" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E55" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F55" t="n">
-        <v>14.23</v>
+        <v>10215.5183</v>
       </c>
       <c r="G55" t="n">
-        <v>299.8</v>
+        <v>295.3166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C56" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D56" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E56" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>14.23</v>
       </c>
       <c r="G56" t="n">
-        <v>300</v>
+        <v>295.45</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C57" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D57" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E57" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F57" t="n">
-        <v>2011.3045</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>300.6</v>
+        <v>295.5833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,10 +2409,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>301</v>
+      </c>
+      <c r="C58" t="n">
         <v>300</v>
-      </c>
-      <c r="C58" t="n">
-        <v>301</v>
       </c>
       <c r="D58" t="n">
         <v>301</v>
@@ -2405,10 +2421,10 @@
         <v>300</v>
       </c>
       <c r="F58" t="n">
-        <v>520.4607999999999</v>
+        <v>2011.3045</v>
       </c>
       <c r="G58" t="n">
-        <v>301.6</v>
+        <v>295.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C59" t="n">
         <v>301</v>
@@ -2437,13 +2453,13 @@
         <v>301</v>
       </c>
       <c r="E59" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F59" t="n">
-        <v>243.5495</v>
+        <v>520.4607999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>301.8</v>
+        <v>295.8333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C60" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D60" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E60" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F60" t="n">
-        <v>7.317</v>
+        <v>243.5495</v>
       </c>
       <c r="G60" t="n">
-        <v>301.4</v>
+        <v>296</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C61" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D61" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E61" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F61" t="n">
-        <v>2664.239914935065</v>
+        <v>7.317</v>
       </c>
       <c r="G61" t="n">
-        <v>302.4</v>
+        <v>296.1833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C62" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D62" t="n">
         <v>308</v>
       </c>
       <c r="E62" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F62" t="n">
-        <v>1495.778558441559</v>
+        <v>2664.239914935065</v>
       </c>
       <c r="G62" t="n">
-        <v>303.4</v>
+        <v>296.4833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C63" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D63" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E63" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F63" t="n">
-        <v>1643.5017</v>
+        <v>1495.778558441559</v>
       </c>
       <c r="G63" t="n">
-        <v>303.6</v>
+        <v>296.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C64" t="n">
         <v>302</v>
       </c>
       <c r="D64" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E64" t="n">
         <v>302</v>
       </c>
       <c r="F64" t="n">
-        <v>18852.2284</v>
+        <v>1643.5017</v>
       </c>
       <c r="G64" t="n">
-        <v>303.8</v>
+        <v>296.8666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2666,10 @@
         <v>302</v>
       </c>
       <c r="F65" t="n">
-        <v>376.4051</v>
+        <v>18852.2284</v>
       </c>
       <c r="G65" t="n">
-        <v>303.8</v>
+        <v>297.0333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2701,10 @@
         <v>302</v>
       </c>
       <c r="F66" t="n">
-        <v>1094.5991</v>
+        <v>376.4051</v>
       </c>
       <c r="G66" t="n">
-        <v>302.6</v>
+        <v>297.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2724,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C67" t="n">
         <v>302</v>
@@ -2717,13 +2733,13 @@
         <v>302</v>
       </c>
       <c r="E67" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F67" t="n">
-        <v>57562.2581</v>
+        <v>1094.5991</v>
       </c>
       <c r="G67" t="n">
-        <v>302</v>
+        <v>297.3666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C68" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D68" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E68" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F68" t="n">
-        <v>8622.1229</v>
+        <v>57562.2581</v>
       </c>
       <c r="G68" t="n">
-        <v>301.8</v>
+        <v>297.5333333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C69" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D69" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E69" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F69" t="n">
-        <v>22.2296</v>
+        <v>8622.1229</v>
       </c>
       <c r="G69" t="n">
-        <v>301.2</v>
+        <v>297.6666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2832,19 @@
         <v>299</v>
       </c>
       <c r="C70" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D70" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E70" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F70" t="n">
-        <v>10496.9081</v>
+        <v>22.2296</v>
       </c>
       <c r="G70" t="n">
-        <v>300.2</v>
+        <v>297.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2867,19 @@
         <v>299</v>
       </c>
       <c r="C71" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D71" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E71" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F71" t="n">
-        <v>1096.270433557047</v>
+        <v>10496.9081</v>
       </c>
       <c r="G71" t="n">
-        <v>299.4</v>
+        <v>297.8833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C72" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D72" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E72" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F72" t="n">
-        <v>14</v>
+        <v>1096.270433557047</v>
       </c>
       <c r="G72" t="n">
-        <v>298.2</v>
+        <v>297.9833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2937,19 @@
         <v>296</v>
       </c>
       <c r="C73" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D73" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E73" t="n">
         <v>296</v>
       </c>
       <c r="F73" t="n">
-        <v>2344.3335</v>
+        <v>14</v>
       </c>
       <c r="G73" t="n">
-        <v>297.6</v>
+        <v>298.05</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D74" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E74" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F74" t="n">
-        <v>3342.495</v>
+        <v>2344.3335</v>
       </c>
       <c r="G74" t="n">
-        <v>297.2</v>
+        <v>298.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C75" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D75" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E75" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F75" t="n">
-        <v>717.9697</v>
+        <v>3342.495</v>
       </c>
       <c r="G75" t="n">
-        <v>297.4</v>
+        <v>298.3333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C76" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D76" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E76" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F76" t="n">
-        <v>32700</v>
+        <v>717.9697</v>
       </c>
       <c r="G76" t="n">
-        <v>296.4</v>
+        <v>298.4833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3086,10 @@
         <v>293</v>
       </c>
       <c r="F77" t="n">
-        <v>10177.7679</v>
+        <v>32700</v>
       </c>
       <c r="G77" t="n">
-        <v>295.8</v>
+        <v>298.55</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3112,19 @@
         <v>296</v>
       </c>
       <c r="C78" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D78" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E78" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F78" t="n">
-        <v>5038</v>
+        <v>10177.7679</v>
       </c>
       <c r="G78" t="n">
-        <v>295.4</v>
+        <v>298.6333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3134,16 +3150,16 @@
         <v>296</v>
       </c>
       <c r="D79" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E79" t="n">
         <v>296</v>
       </c>
       <c r="F79" t="n">
-        <v>437.2662</v>
+        <v>5038</v>
       </c>
       <c r="G79" t="n">
-        <v>295.2</v>
+        <v>298.7166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3191,10 @@
         <v>296</v>
       </c>
       <c r="F80" t="n">
-        <v>2749.1751</v>
+        <v>437.2662</v>
       </c>
       <c r="G80" t="n">
-        <v>294.8</v>
+        <v>298.75</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3217,19 @@
         <v>296</v>
       </c>
       <c r="C81" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D81" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E81" t="n">
         <v>296</v>
       </c>
       <c r="F81" t="n">
-        <v>637.6767676767677</v>
+        <v>2749.1751</v>
       </c>
       <c r="G81" t="n">
-        <v>295.6</v>
+        <v>298.7666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3249,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C82" t="n">
         <v>297</v>
@@ -3242,13 +3258,13 @@
         <v>297</v>
       </c>
       <c r="E82" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F82" t="n">
-        <v>6275.5008</v>
+        <v>637.6767676767677</v>
       </c>
       <c r="G82" t="n">
-        <v>296.4</v>
+        <v>298.8333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3296,10 @@
         <v>297</v>
       </c>
       <c r="F83" t="n">
-        <v>4398.264932323233</v>
+        <v>6275.5008</v>
       </c>
       <c r="G83" t="n">
-        <v>296.6</v>
+        <v>298.9166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C84" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D84" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E84" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F84" t="n">
-        <v>5175.2767</v>
+        <v>4398.264932323233</v>
       </c>
       <c r="G84" t="n">
-        <v>296.6</v>
+        <v>298.9833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3366,10 @@
         <v>296</v>
       </c>
       <c r="F85" t="n">
-        <v>13.8779</v>
+        <v>5175.2767</v>
       </c>
       <c r="G85" t="n">
-        <v>296.6</v>
+        <v>299</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3401,10 @@
         <v>296</v>
       </c>
       <c r="F86" t="n">
-        <v>3471.4688</v>
+        <v>13.8779</v>
       </c>
       <c r="G86" t="n">
-        <v>296.4</v>
+        <v>298.9666666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3436,10 @@
         <v>296</v>
       </c>
       <c r="F87" t="n">
-        <v>1802.4933</v>
+        <v>3471.4688</v>
       </c>
       <c r="G87" t="n">
-        <v>296.2</v>
+        <v>298.95</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3471,10 @@
         <v>296</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0001</v>
+        <v>1802.4933</v>
       </c>
       <c r="G88" t="n">
-        <v>296</v>
+        <v>299.0333333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3506,10 @@
         <v>296</v>
       </c>
       <c r="F89" t="n">
-        <v>1351.8701</v>
+        <v>0.0001</v>
       </c>
       <c r="G89" t="n">
-        <v>296</v>
+        <v>299.0666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C90" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D90" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E90" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F90" t="n">
-        <v>1465</v>
+        <v>1351.8701</v>
       </c>
       <c r="G90" t="n">
-        <v>296.4</v>
+        <v>299.1333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C91" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D91" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E91" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F91" t="n">
-        <v>2040</v>
+        <v>1465</v>
       </c>
       <c r="G91" t="n">
-        <v>296.4</v>
+        <v>299.2333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C92" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D92" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E92" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F92" t="n">
-        <v>2372</v>
+        <v>2040</v>
       </c>
       <c r="G92" t="n">
-        <v>296.6</v>
+        <v>299.25</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,7 +3634,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C93" t="n">
         <v>297</v>
@@ -3627,13 +3643,13 @@
         <v>297</v>
       </c>
       <c r="E93" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F93" t="n">
-        <v>3879.0048</v>
+        <v>2372</v>
       </c>
       <c r="G93" t="n">
-        <v>296.8</v>
+        <v>299.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,7 +3669,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C94" t="n">
         <v>297</v>
@@ -3662,13 +3678,13 @@
         <v>297</v>
       </c>
       <c r="E94" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F94" t="n">
-        <v>471.2462</v>
+        <v>3879.0048</v>
       </c>
       <c r="G94" t="n">
-        <v>297</v>
+        <v>299.3833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3707,19 @@
         <v>297</v>
       </c>
       <c r="C95" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D95" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" t="n">
         <v>297</v>
       </c>
       <c r="F95" t="n">
-        <v>7080.0318</v>
+        <v>471.2462</v>
       </c>
       <c r="G95" t="n">
-        <v>297</v>
+        <v>299.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,10 +3739,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>297</v>
+      </c>
+      <c r="C96" t="n">
         <v>298</v>
-      </c>
-      <c r="C96" t="n">
-        <v>297</v>
       </c>
       <c r="D96" t="n">
         <v>298</v>
@@ -3735,10 +3751,10 @@
         <v>297</v>
       </c>
       <c r="F96" t="n">
-        <v>400</v>
+        <v>7080.0318</v>
       </c>
       <c r="G96" t="n">
-        <v>297.2</v>
+        <v>299.4333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C97" t="n">
         <v>297</v>
       </c>
       <c r="D97" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E97" t="n">
         <v>297</v>
       </c>
       <c r="F97" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="G97" t="n">
-        <v>297.2</v>
+        <v>299.4333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C98" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D98" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E98" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F98" t="n">
-        <v>30500</v>
+        <v>560</v>
       </c>
       <c r="G98" t="n">
-        <v>297.8</v>
+        <v>299.3833333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C99" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D99" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E99" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F99" t="n">
-        <v>29.6799</v>
+        <v>30500</v>
       </c>
       <c r="G99" t="n">
-        <v>297.8</v>
+        <v>299.3833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C100" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D100" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E100" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F100" t="n">
-        <v>800</v>
+        <v>29.6799</v>
       </c>
       <c r="G100" t="n">
-        <v>297.4</v>
+        <v>299.3333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C101" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D101" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E101" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F101" t="n">
-        <v>177.9064</v>
+        <v>800</v>
       </c>
       <c r="G101" t="n">
-        <v>297.4</v>
+        <v>299.25</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3961,10 @@
         <v>297</v>
       </c>
       <c r="F102" t="n">
-        <v>209</v>
+        <v>177.9064</v>
       </c>
       <c r="G102" t="n">
-        <v>297.4</v>
+        <v>299.2333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3983,7 +3999,7 @@
         <v>209</v>
       </c>
       <c r="G103" t="n">
-        <v>296.8</v>
+        <v>299.1666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D104" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E104" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F104" t="n">
-        <v>14.9136</v>
+        <v>209</v>
       </c>
       <c r="G104" t="n">
-        <v>297</v>
+        <v>299.0333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4066,10 @@
         <v>298</v>
       </c>
       <c r="F105" t="n">
-        <v>105.0864</v>
+        <v>14.9136</v>
       </c>
       <c r="G105" t="n">
-        <v>297.4</v>
+        <v>298.95</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C106" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D106" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E106" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F106" t="n">
-        <v>112</v>
+        <v>105.0864</v>
       </c>
       <c r="G106" t="n">
-        <v>297.2</v>
+        <v>298.9166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4127,19 @@
         <v>297</v>
       </c>
       <c r="C107" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" t="n">
         <v>297</v>
       </c>
       <c r="E107" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="G107" t="n">
-        <v>297.2</v>
+        <v>298.8333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4171,10 @@
         <v>297</v>
       </c>
       <c r="F108" t="n">
-        <v>1786.4523</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>297.2</v>
+        <v>298.7333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4206,10 @@
         <v>297</v>
       </c>
       <c r="F109" t="n">
-        <v>14.3167</v>
+        <v>1786.4523</v>
       </c>
       <c r="G109" t="n">
-        <v>297</v>
+        <v>298.6166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4241,10 @@
         <v>297</v>
       </c>
       <c r="F110" t="n">
-        <v>745</v>
+        <v>14.3167</v>
       </c>
       <c r="G110" t="n">
-        <v>296.8</v>
+        <v>298.4333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C111" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E111" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F111" t="n">
-        <v>125</v>
+        <v>745</v>
       </c>
       <c r="G111" t="n">
-        <v>297.2</v>
+        <v>298.25</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C112" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E112" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F112" t="n">
-        <v>213.6181</v>
+        <v>125</v>
       </c>
       <c r="G112" t="n">
-        <v>297.6</v>
+        <v>298.1833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4337,19 @@
         <v>299</v>
       </c>
       <c r="C113" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D113" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E113" t="n">
         <v>299</v>
       </c>
       <c r="F113" t="n">
-        <v>1142</v>
+        <v>213.6181</v>
       </c>
       <c r="G113" t="n">
-        <v>298.4</v>
+        <v>298.2166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C114" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D114" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E114" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F114" t="n">
-        <v>187</v>
+        <v>1142</v>
       </c>
       <c r="G114" t="n">
-        <v>299</v>
+        <v>298.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C115" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D115" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E115" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F115" t="n">
-        <v>1413.0815</v>
+        <v>187</v>
       </c>
       <c r="G115" t="n">
-        <v>299.8</v>
+        <v>298.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4451,10 @@
         <v>301</v>
       </c>
       <c r="F116" t="n">
-        <v>629.7778</v>
+        <v>1413.0815</v>
       </c>
       <c r="G116" t="n">
-        <v>300.4</v>
+        <v>298.25</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C117" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D117" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E117" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F117" t="n">
-        <v>14.2338</v>
+        <v>629.7778</v>
       </c>
       <c r="G117" t="n">
-        <v>300.6</v>
+        <v>298.2166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C118" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D118" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E118" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F118" t="n">
-        <v>1735.0727</v>
+        <v>14.2338</v>
       </c>
       <c r="G118" t="n">
-        <v>300</v>
+        <v>298.2166666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C119" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D119" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E119" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F119" t="n">
-        <v>4</v>
+        <v>1735.0727</v>
       </c>
       <c r="G119" t="n">
-        <v>300.2</v>
+        <v>298.1666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4591,10 @@
         <v>301</v>
       </c>
       <c r="F120" t="n">
-        <v>644.3538</v>
+        <v>4</v>
       </c>
       <c r="G120" t="n">
-        <v>300.2</v>
+        <v>298.1666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C121" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D121" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E121" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>644.3538</v>
       </c>
       <c r="G121" t="n">
-        <v>300.6</v>
+        <v>298.15</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4661,10 @@
         <v>303</v>
       </c>
       <c r="F122" t="n">
-        <v>1697.429</v>
+        <v>200</v>
       </c>
       <c r="G122" t="n">
-        <v>301.2</v>
+        <v>298.0666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C123" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D123" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E123" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F123" t="n">
-        <v>2849.0034</v>
+        <v>1697.429</v>
       </c>
       <c r="G123" t="n">
-        <v>301.8</v>
+        <v>298.0333333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C124" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D124" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E124" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F124" t="n">
-        <v>1020.4776</v>
+        <v>2849.0034</v>
       </c>
       <c r="G124" t="n">
-        <v>302</v>
+        <v>298.0166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C125" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D125" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E125" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F125" t="n">
-        <v>571.8502</v>
+        <v>1020.4776</v>
       </c>
       <c r="G125" t="n">
-        <v>302</v>
+        <v>298.0166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C126" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D126" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E126" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F126" t="n">
-        <v>110</v>
+        <v>571.8502</v>
       </c>
       <c r="G126" t="n">
-        <v>301.4</v>
+        <v>298</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4836,10 @@
         <v>300</v>
       </c>
       <c r="F127" t="n">
-        <v>3890</v>
+        <v>110</v>
       </c>
       <c r="G127" t="n">
-        <v>300.8</v>
+        <v>297.9666666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C128" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D128" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E128" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F128" t="n">
-        <v>1900</v>
+        <v>3890</v>
       </c>
       <c r="G128" t="n">
-        <v>300.4</v>
+        <v>297.9333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C129" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D129" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E129" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F129" t="n">
-        <v>4738.3554</v>
+        <v>1900</v>
       </c>
       <c r="G129" t="n">
-        <v>300</v>
+        <v>297.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4919,16 +4935,16 @@
         <v>300</v>
       </c>
       <c r="D130" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E130" t="n">
         <v>300</v>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>4738.3554</v>
       </c>
       <c r="G130" t="n">
-        <v>299.8</v>
+        <v>297.9166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4976,10 @@
         <v>300</v>
       </c>
       <c r="F131" t="n">
-        <v>13.463</v>
+        <v>20</v>
       </c>
       <c r="G131" t="n">
-        <v>299.8</v>
+        <v>297.9666666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C132" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D132" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E132" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F132" t="n">
-        <v>299</v>
+        <v>13.463</v>
       </c>
       <c r="G132" t="n">
-        <v>299.6</v>
+        <v>298</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C133" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D133" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E133" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F133" t="n">
-        <v>15164.9173</v>
+        <v>299</v>
       </c>
       <c r="G133" t="n">
-        <v>299.2</v>
+        <v>298.05</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5081,10 @@
         <v>297</v>
       </c>
       <c r="F134" t="n">
-        <v>252.202</v>
+        <v>15164.9173</v>
       </c>
       <c r="G134" t="n">
-        <v>298.6</v>
+        <v>298.0333333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5116,10 @@
         <v>297</v>
       </c>
       <c r="F135" t="n">
-        <v>105</v>
+        <v>252.202</v>
       </c>
       <c r="G135" t="n">
-        <v>298</v>
+        <v>298.0333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5151,10 @@
         <v>297</v>
       </c>
       <c r="F136" t="n">
-        <v>54.189</v>
+        <v>105</v>
       </c>
       <c r="G136" t="n">
-        <v>297.4</v>
+        <v>298.0166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C137" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D137" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E137" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F137" t="n">
-        <v>298.2473</v>
+        <v>54.189</v>
       </c>
       <c r="G137" t="n">
-        <v>296.8</v>
+        <v>298.0833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E138" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F138" t="n">
-        <v>68.99039999999999</v>
+        <v>298.2473</v>
       </c>
       <c r="G138" t="n">
-        <v>296.4</v>
+        <v>298.1333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F139" t="n">
-        <v>33.67003367003367</v>
+        <v>68.99039999999999</v>
       </c>
       <c r="G139" t="n">
-        <v>296.4</v>
+        <v>298.1166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5291,10 @@
         <v>297</v>
       </c>
       <c r="F140" t="n">
-        <v>9.7845</v>
+        <v>33.67003367003367</v>
       </c>
       <c r="G140" t="n">
-        <v>296.4</v>
+        <v>298.1333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5326,10 @@
         <v>297</v>
       </c>
       <c r="F141" t="n">
-        <v>5.037</v>
+        <v>9.7845</v>
       </c>
       <c r="G141" t="n">
-        <v>296.4</v>
+        <v>298.15</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C142" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D142" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E142" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F142" t="n">
-        <v>170.1885</v>
+        <v>5.037</v>
       </c>
       <c r="G142" t="n">
-        <v>296.2</v>
+        <v>298.15</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5387,19 @@
         <v>295</v>
       </c>
       <c r="C143" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D143" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E143" t="n">
         <v>295</v>
       </c>
       <c r="F143" t="n">
-        <v>101.694</v>
+        <v>170.1885</v>
       </c>
       <c r="G143" t="n">
-        <v>296.4</v>
+        <v>298.1166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,19 +5422,19 @@
         <v>295</v>
       </c>
       <c r="C144" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D144" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E144" t="n">
         <v>295</v>
       </c>
       <c r="F144" t="n">
-        <v>9.975</v>
+        <v>101.694</v>
       </c>
       <c r="G144" t="n">
-        <v>296</v>
+        <v>298.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5466,10 @@
         <v>295</v>
       </c>
       <c r="F145" t="n">
-        <v>9</v>
+        <v>9.975</v>
       </c>
       <c r="G145" t="n">
-        <v>295.6</v>
+        <v>298.0833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C146" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D146" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E146" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F146" t="n">
-        <v>15321.5642</v>
+        <v>9</v>
       </c>
       <c r="G146" t="n">
-        <v>295</v>
+        <v>298.0666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5536,10 @@
         <v>294</v>
       </c>
       <c r="F147" t="n">
-        <v>1850</v>
+        <v>15321.5642</v>
       </c>
       <c r="G147" t="n">
-        <v>294.8</v>
+        <v>298.0333333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5562,19 @@
         <v>294</v>
       </c>
       <c r="C148" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D148" t="n">
         <v>294</v>
       </c>
       <c r="E148" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F148" t="n">
-        <v>12736.7675</v>
+        <v>1850</v>
       </c>
       <c r="G148" t="n">
-        <v>294.2</v>
+        <v>298</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>294</v>
+      </c>
+      <c r="C149" t="n">
         <v>293</v>
       </c>
-      <c r="C149" t="n">
-        <v>292</v>
-      </c>
       <c r="D149" t="n">
+        <v>294</v>
+      </c>
+      <c r="E149" t="n">
         <v>293</v>
       </c>
-      <c r="E149" t="n">
-        <v>292</v>
-      </c>
       <c r="F149" t="n">
-        <v>1502.5797</v>
+        <v>12736.7675</v>
       </c>
       <c r="G149" t="n">
-        <v>293.6</v>
+        <v>297.95</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C150" t="n">
         <v>292</v>
       </c>
       <c r="D150" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E150" t="n">
         <v>292</v>
       </c>
       <c r="F150" t="n">
-        <v>208.721</v>
+        <v>1502.5797</v>
       </c>
       <c r="G150" t="n">
-        <v>293</v>
+        <v>297.8833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C151" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D151" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E151" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="n">
-        <v>877.7659</v>
+        <v>208.721</v>
       </c>
       <c r="G151" t="n">
-        <v>293.2</v>
+        <v>297.7833333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5699,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C152" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D152" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E152" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F152" t="n">
-        <v>7142.8266</v>
+        <v>877.7659</v>
       </c>
       <c r="G152" t="n">
-        <v>293.2</v>
+        <v>297.7666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C153" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D153" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E153" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F153" t="n">
-        <v>787.9294</v>
+        <v>7142.8266</v>
       </c>
       <c r="G153" t="n">
-        <v>293.6</v>
+        <v>297.7166666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5769,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C154" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D154" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E154" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F154" t="n">
-        <v>706.7408</v>
+        <v>787.9294</v>
       </c>
       <c r="G154" t="n">
-        <v>294.4</v>
+        <v>297.6833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5816,10 @@
         <v>296</v>
       </c>
       <c r="F155" t="n">
-        <v>3650</v>
+        <v>706.7408</v>
       </c>
       <c r="G155" t="n">
-        <v>295.2</v>
+        <v>297.6666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5851,10 @@
         <v>296</v>
       </c>
       <c r="F156" t="n">
-        <v>1709.217</v>
+        <v>3650</v>
       </c>
       <c r="G156" t="n">
-        <v>295.4</v>
+        <v>297.6333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5874,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C157" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D157" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E157" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F157" t="n">
-        <v>745</v>
+        <v>1709.217</v>
       </c>
       <c r="G157" t="n">
-        <v>295.6</v>
+        <v>297.6166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5909,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C158" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D158" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E158" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F158" t="n">
-        <v>2667.6423</v>
+        <v>745</v>
       </c>
       <c r="G158" t="n">
-        <v>295.4</v>
+        <v>297.5833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C159" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D159" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E159" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F159" t="n">
-        <v>2922.3385</v>
+        <v>2667.6423</v>
       </c>
       <c r="G159" t="n">
-        <v>294.6</v>
+        <v>297.4833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C160" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D160" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E160" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F160" t="n">
-        <v>337.4123</v>
+        <v>2922.3385</v>
       </c>
       <c r="G160" t="n">
-        <v>293.6</v>
+        <v>297.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6014,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C161" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D161" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E161" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F161" t="n">
-        <v>3005.8395</v>
+        <v>337.4123</v>
       </c>
       <c r="G161" t="n">
-        <v>292.4</v>
+        <v>297.3166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C162" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D162" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E162" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F162" t="n">
-        <v>1072.1985</v>
+        <v>3005.8395</v>
       </c>
       <c r="G162" t="n">
-        <v>291.2</v>
+        <v>297.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6096,10 @@
         <v>289</v>
       </c>
       <c r="F163" t="n">
-        <v>520.626</v>
+        <v>1072.1985</v>
       </c>
       <c r="G163" t="n">
-        <v>290.2</v>
+        <v>297.0666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6131,10 @@
         <v>289</v>
       </c>
       <c r="F164" t="n">
-        <v>7712.8717</v>
+        <v>520.626</v>
       </c>
       <c r="G164" t="n">
-        <v>289.6</v>
+        <v>296.9333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6166,10 @@
         <v>289</v>
       </c>
       <c r="F165" t="n">
-        <v>8236.309999999999</v>
+        <v>7712.8717</v>
       </c>
       <c r="G165" t="n">
-        <v>289.2</v>
+        <v>296.7833333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6201,10 @@
         <v>289</v>
       </c>
       <c r="F166" t="n">
-        <v>755.323</v>
+        <v>8236.309999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>289</v>
+        <v>296.6333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C167" t="n">
         <v>289</v>
       </c>
       <c r="D167" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E167" t="n">
         <v>289</v>
       </c>
       <c r="F167" t="n">
-        <v>4119.7107</v>
+        <v>755.323</v>
       </c>
       <c r="G167" t="n">
-        <v>289</v>
+        <v>296.5166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C168" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D168" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E168" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F168" t="n">
-        <v>597.7602000000001</v>
+        <v>4119.7107</v>
       </c>
       <c r="G168" t="n">
-        <v>289.4</v>
+        <v>296.3833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6306,10 @@
         <v>291</v>
       </c>
       <c r="F169" t="n">
-        <v>209.8899</v>
+        <v>597.7602000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>289.8</v>
+        <v>296.2833333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C170" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D170" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E170" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F170" t="n">
-        <v>25.6369</v>
+        <v>209.8899</v>
       </c>
       <c r="G170" t="n">
-        <v>290</v>
+        <v>296.1833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C171" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D171" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E171" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F171" t="n">
-        <v>8149.436</v>
+        <v>25.6369</v>
       </c>
       <c r="G171" t="n">
-        <v>290</v>
+        <v>296.0666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C172" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D172" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E172" t="n">
         <v>288</v>
       </c>
       <c r="F172" t="n">
-        <v>2172.0737</v>
+        <v>8149.436</v>
       </c>
       <c r="G172" t="n">
-        <v>289.8</v>
+        <v>295.9166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6434,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C173" t="n">
         <v>288</v>
       </c>
       <c r="D173" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E173" t="n">
         <v>288</v>
       </c>
       <c r="F173" t="n">
-        <v>24.3945</v>
+        <v>2172.0737</v>
       </c>
       <c r="G173" t="n">
-        <v>289.2</v>
+        <v>295.7333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C174" t="n">
         <v>288</v>
       </c>
       <c r="D174" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E174" t="n">
         <v>288</v>
       </c>
       <c r="F174" t="n">
-        <v>1604.6883</v>
+        <v>24.3945</v>
       </c>
       <c r="G174" t="n">
-        <v>288.6</v>
+        <v>295.5166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,10 +6516,10 @@
         <v>288</v>
       </c>
       <c r="F175" t="n">
-        <v>10.7615</v>
+        <v>1604.6883</v>
       </c>
       <c r="G175" t="n">
-        <v>288.2</v>
+        <v>295.3166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,10 +6551,10 @@
         <v>288</v>
       </c>
       <c r="F176" t="n">
-        <v>2467.125</v>
+        <v>10.7615</v>
       </c>
       <c r="G176" t="n">
-        <v>288</v>
+        <v>295.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C177" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D177" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E177" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F177" t="n">
-        <v>842.736</v>
+        <v>2467.125</v>
       </c>
       <c r="G177" t="n">
-        <v>287.8</v>
+        <v>294.8833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C178" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D178" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E178" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F178" t="n">
-        <v>9</v>
+        <v>842.736</v>
       </c>
       <c r="G178" t="n">
-        <v>287.4</v>
+        <v>294.6666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,10 +6656,10 @@
         <v>286</v>
       </c>
       <c r="F179" t="n">
-        <v>2387.5847</v>
+        <v>9</v>
       </c>
       <c r="G179" t="n">
-        <v>287</v>
+        <v>294.4666666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6675,10 +6691,10 @@
         <v>286</v>
       </c>
       <c r="F180" t="n">
-        <v>3137.0983</v>
+        <v>2387.5847</v>
       </c>
       <c r="G180" t="n">
-        <v>286.6</v>
+        <v>294.2166666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C181" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D181" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E181" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F181" t="n">
-        <v>170.9999</v>
+        <v>3137.0983</v>
       </c>
       <c r="G181" t="n">
-        <v>286</v>
+        <v>293.9666666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6761,10 @@
         <v>285</v>
       </c>
       <c r="F182" t="n">
-        <v>12226.5914</v>
+        <v>170.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>285.6</v>
+        <v>293.6666666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6784,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C183" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D183" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E183" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F183" t="n">
-        <v>179.5035</v>
+        <v>12226.5914</v>
       </c>
       <c r="G183" t="n">
-        <v>285.2</v>
+        <v>293.3666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C184" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D184" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E184" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F184" t="n">
-        <v>1000</v>
+        <v>179.5035</v>
       </c>
       <c r="G184" t="n">
-        <v>284.6</v>
+        <v>293.0833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6866,10 @@
         <v>283</v>
       </c>
       <c r="F185" t="n">
-        <v>11.2151</v>
+        <v>1000</v>
       </c>
       <c r="G185" t="n">
-        <v>284</v>
+        <v>292.7666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C186" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D186" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E186" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F186" t="n">
-        <v>1452.8866</v>
+        <v>11.2151</v>
       </c>
       <c r="G186" t="n">
-        <v>283.2</v>
+        <v>292.4666666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C187" t="n">
         <v>281</v>
       </c>
       <c r="D187" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E187" t="n">
         <v>281</v>
       </c>
       <c r="F187" t="n">
-        <v>1282.388</v>
+        <v>1452.8866</v>
       </c>
       <c r="G187" t="n">
-        <v>282.4</v>
+        <v>292.15</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,10 +6971,10 @@
         <v>281</v>
       </c>
       <c r="F188" t="n">
-        <v>1000</v>
+        <v>1282.388</v>
       </c>
       <c r="G188" t="n">
-        <v>281.8</v>
+        <v>291.8333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6994,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C189" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D189" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E189" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F189" t="n">
-        <v>846.9215</v>
+        <v>1000</v>
       </c>
       <c r="G189" t="n">
-        <v>281.2</v>
+        <v>291.5333333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7029,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C190" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D190" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E190" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F190" t="n">
-        <v>16.0013</v>
+        <v>846.9215</v>
       </c>
       <c r="G190" t="n">
-        <v>280.8</v>
+        <v>291.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7076,10 @@
         <v>281</v>
       </c>
       <c r="F191" t="n">
-        <v>8233.975</v>
+        <v>16.0013</v>
       </c>
       <c r="G191" t="n">
-        <v>280.8</v>
+        <v>290.8833333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,23 +7111,19 @@
         <v>281</v>
       </c>
       <c r="F192" t="n">
-        <v>14.4645</v>
+        <v>8233.975</v>
       </c>
       <c r="G192" t="n">
-        <v>280.8</v>
+        <v>290.5666666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>281</v>
-      </c>
-      <c r="K192" t="n">
-        <v>281</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
@@ -7134,28 +7146,20 @@
         <v>281</v>
       </c>
       <c r="F193" t="n">
-        <v>10.473</v>
+        <v>14.4645</v>
       </c>
       <c r="G193" t="n">
-        <v>280.8</v>
+        <v>290.2666666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>281</v>
-      </c>
-      <c r="K193" t="n">
-        <v>281</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,28 +7181,20 @@
         <v>281</v>
       </c>
       <c r="F194" t="n">
-        <v>14.4645</v>
+        <v>10.473</v>
       </c>
       <c r="G194" t="n">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>281</v>
-      </c>
-      <c r="K194" t="n">
-        <v>281</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7211,19 +7207,19 @@
         <v>281</v>
       </c>
       <c r="C195" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D195" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E195" t="n">
         <v>281</v>
       </c>
       <c r="F195" t="n">
-        <v>5088.2392</v>
+        <v>14.4645</v>
       </c>
       <c r="G195" t="n">
-        <v>281.2</v>
+        <v>289.7333333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7243,313 +7239,289 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>281</v>
+      </c>
+      <c r="C196" t="n">
         <v>282</v>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
+        <v>282</v>
+      </c>
+      <c r="E196" t="n">
+        <v>281</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5088.2392</v>
+      </c>
+      <c r="G196" t="n">
+        <v>289.4833333333333</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>282</v>
+      </c>
+      <c r="C197" t="n">
         <v>283</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D197" t="n">
         <v>283</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E197" t="n">
         <v>282</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F197" t="n">
         <v>41973.5865</v>
       </c>
-      <c r="G196" t="n">
-        <v>281.6</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
+      <c r="G197" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>282</v>
       </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="C198" t="n">
+        <v>282</v>
+      </c>
+      <c r="D198" t="n">
+        <v>282</v>
+      </c>
+      <c r="E198" t="n">
+        <v>282</v>
+      </c>
+      <c r="F198" t="n">
+        <v>19.5177</v>
+      </c>
+      <c r="G198" t="n">
+        <v>289.0166666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>281</v>
+      </c>
+      <c r="C199" t="n">
+        <v>281</v>
+      </c>
+      <c r="D199" t="n">
+        <v>281</v>
+      </c>
+      <c r="E199" t="n">
+        <v>281</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1794.5676</v>
+      </c>
+      <c r="G199" t="n">
+        <v>288.7833333333334</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>280</v>
+      </c>
+      <c r="C200" t="n">
+        <v>279</v>
+      </c>
+      <c r="D200" t="n">
+        <v>280</v>
+      </c>
+      <c r="E200" t="n">
+        <v>279</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2230</v>
+      </c>
+      <c r="G200" t="n">
+        <v>288.4833333333333</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>280</v>
+      </c>
+      <c r="C201" t="n">
+        <v>280</v>
+      </c>
+      <c r="D201" t="n">
+        <v>280</v>
+      </c>
+      <c r="E201" t="n">
+        <v>280</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1521.1002</v>
+      </c>
+      <c r="G201" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>280</v>
+      </c>
+      <c r="C202" t="n">
+        <v>280</v>
+      </c>
+      <c r="D202" t="n">
+        <v>280</v>
+      </c>
+      <c r="E202" t="n">
+        <v>280</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1562.4997</v>
+      </c>
+      <c r="G202" t="n">
+        <v>287.9166666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>280</v>
+      </c>
+      <c r="K202" t="n">
+        <v>280</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>280</v>
+      </c>
+      <c r="C203" t="n">
+        <v>278</v>
+      </c>
+      <c r="D203" t="n">
+        <v>280</v>
+      </c>
+      <c r="E203" t="n">
+        <v>278</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7101.3637</v>
+      </c>
+      <c r="G203" t="n">
+        <v>287.6333333333333</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>280</v>
+      </c>
+      <c r="K203" t="n">
+        <v>280</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>282</v>
-      </c>
-      <c r="C197" t="n">
-        <v>282</v>
-      </c>
-      <c r="D197" t="n">
-        <v>282</v>
-      </c>
-      <c r="E197" t="n">
-        <v>282</v>
-      </c>
-      <c r="F197" t="n">
-        <v>19.5177</v>
-      </c>
-      <c r="G197" t="n">
-        <v>281.8</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>281</v>
-      </c>
-      <c r="C198" t="n">
-        <v>281</v>
-      </c>
-      <c r="D198" t="n">
-        <v>281</v>
-      </c>
-      <c r="E198" t="n">
-        <v>281</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1794.5676</v>
-      </c>
-      <c r="G198" t="n">
-        <v>281.8</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>280</v>
-      </c>
-      <c r="C199" t="n">
-        <v>279</v>
-      </c>
-      <c r="D199" t="n">
-        <v>280</v>
-      </c>
-      <c r="E199" t="n">
-        <v>279</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2230</v>
-      </c>
-      <c r="G199" t="n">
-        <v>281.4</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>280</v>
-      </c>
-      <c r="C200" t="n">
-        <v>280</v>
-      </c>
-      <c r="D200" t="n">
-        <v>280</v>
-      </c>
-      <c r="E200" t="n">
-        <v>280</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1521.1002</v>
-      </c>
-      <c r="G200" t="n">
-        <v>281</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>280</v>
-      </c>
-      <c r="C201" t="n">
-        <v>280</v>
-      </c>
-      <c r="D201" t="n">
-        <v>280</v>
-      </c>
-      <c r="E201" t="n">
-        <v>280</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1562.4997</v>
-      </c>
-      <c r="G201" t="n">
-        <v>280.4</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>280</v>
-      </c>
-      <c r="C202" t="n">
-        <v>278</v>
-      </c>
-      <c r="D202" t="n">
-        <v>280</v>
-      </c>
-      <c r="E202" t="n">
-        <v>278</v>
-      </c>
-      <c r="F202" t="n">
-        <v>7101.3637</v>
-      </c>
-      <c r="G202" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>278</v>
-      </c>
-      <c r="C203" t="n">
-        <v>278</v>
-      </c>
-      <c r="D203" t="n">
-        <v>278</v>
-      </c>
-      <c r="E203" t="n">
-        <v>277</v>
-      </c>
-      <c r="F203" t="n">
-        <v>272.7709</v>
-      </c>
-      <c r="G203" t="n">
-        <v>279</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>278</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7559,22 +7531,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C204" t="n">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D204" t="n">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E204" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F204" t="n">
-        <v>899.8125</v>
+        <v>272.7709</v>
       </c>
       <c r="G204" t="n">
-        <v>279.6</v>
+        <v>287.3333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>1</v>
@@ -7585,7 +7557,9 @@
       <c r="J204" t="n">
         <v>278</v>
       </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>280</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,7 +7574,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C205" t="n">
         <v>282</v>
@@ -7609,24 +7583,26 @@
         <v>282</v>
       </c>
       <c r="E205" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F205" t="n">
-        <v>25.7949</v>
+        <v>899.8125</v>
       </c>
       <c r="G205" t="n">
+        <v>287.1166666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>278</v>
+      </c>
+      <c r="K205" t="n">
         <v>280</v>
       </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>282</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7653,10 +7629,10 @@
         <v>282</v>
       </c>
       <c r="F206" t="n">
-        <v>74.2051</v>
+        <v>25.7949</v>
       </c>
       <c r="G206" t="n">
-        <v>280.4</v>
+        <v>286.9</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -7667,7 +7643,9 @@
       <c r="J206" t="n">
         <v>282</v>
       </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>280</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,22 +7660,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C207" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D207" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E207" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F207" t="n">
-        <v>25.7949</v>
+        <v>74.2051</v>
       </c>
       <c r="G207" t="n">
-        <v>281.4</v>
+        <v>286.7</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -7708,7 +7686,9 @@
       <c r="J207" t="n">
         <v>282</v>
       </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>280</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7723,22 +7703,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C208" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D208" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E208" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F208" t="n">
-        <v>3019.34</v>
+        <v>25.7949</v>
       </c>
       <c r="G208" t="n">
-        <v>282.6</v>
+        <v>286.5166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
@@ -7747,9 +7727,11 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>283</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+        <v>282</v>
+      </c>
+      <c r="K208" t="n">
+        <v>280</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7764,22 +7746,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C209" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D209" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E209" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F209" t="n">
-        <v>3528.7719</v>
+        <v>3019.34</v>
       </c>
       <c r="G209" t="n">
-        <v>282.8</v>
+        <v>286.3666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7788,7 +7770,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>280</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,31 +7787,35 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C210" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D210" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E210" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F210" t="n">
-        <v>662</v>
+        <v>3528.7719</v>
       </c>
       <c r="G210" t="n">
-        <v>282.6</v>
+        <v>286.2166666666666</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>284</v>
+      </c>
+      <c r="K210" t="n">
+        <v>280</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,28 +7833,32 @@
         <v>281</v>
       </c>
       <c r="C211" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D211" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E211" t="n">
         <v>281</v>
       </c>
       <c r="F211" t="n">
-        <v>8432.3537</v>
+        <v>662</v>
       </c>
       <c r="G211" t="n">
-        <v>282.6</v>
+        <v>286.0333333333334</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>283</v>
+      </c>
+      <c r="K211" t="n">
+        <v>280</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,7 +7873,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C212" t="n">
         <v>282</v>
@@ -7890,22 +7882,26 @@
         <v>282</v>
       </c>
       <c r="E212" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F212" t="n">
-        <v>6301.6112</v>
+        <v>8432.3537</v>
       </c>
       <c r="G212" t="n">
-        <v>282.4</v>
+        <v>285.8166666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>281</v>
+      </c>
+      <c r="K212" t="n">
+        <v>280</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7923,19 +7919,19 @@
         <v>282</v>
       </c>
       <c r="C213" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D213" t="n">
         <v>282</v>
       </c>
       <c r="E213" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F213" t="n">
-        <v>7998.2214</v>
+        <v>6301.6112</v>
       </c>
       <c r="G213" t="n">
-        <v>281.8</v>
+        <v>285.6166666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7944,7 +7940,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>280</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,22 +7957,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C214" t="n">
         <v>281</v>
       </c>
       <c r="D214" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E214" t="n">
         <v>281</v>
       </c>
       <c r="F214" t="n">
-        <v>2277.0024</v>
+        <v>7998.2214</v>
       </c>
       <c r="G214" t="n">
-        <v>281.4</v>
+        <v>285.3833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7983,7 +7981,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>280</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,22 +7998,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C215" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D215" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E215" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F215" t="n">
-        <v>30.1554</v>
+        <v>2277.0024</v>
       </c>
       <c r="G215" t="n">
-        <v>281.6</v>
+        <v>285.1333333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8022,7 +8022,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>280</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8032,6 +8034,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>282</v>
+      </c>
+      <c r="C216" t="n">
+        <v>282</v>
+      </c>
+      <c r="D216" t="n">
+        <v>282</v>
+      </c>
+      <c r="E216" t="n">
+        <v>282</v>
+      </c>
+      <c r="F216" t="n">
+        <v>30.1554</v>
+      </c>
+      <c r="G216" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>281</v>
+      </c>
+      <c r="K216" t="n">
+        <v>280</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:N226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>46565.2136</v>
       </c>
       <c r="G2" t="n">
+        <v>293.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>288.9166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>3624.7182</v>
       </c>
       <c r="G3" t="n">
+        <v>293.6666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>289.0333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>211.904</v>
       </c>
       <c r="G4" t="n">
+        <v>293.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>289.1833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>156.36</v>
       </c>
       <c r="G5" t="n">
+        <v>293.4</v>
+      </c>
+      <c r="H5" t="n">
         <v>289.3666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>443</v>
       </c>
       <c r="G6" t="n">
+        <v>293.0666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>289.4833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>806.0431</v>
       </c>
       <c r="G7" t="n">
+        <v>292.8666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>289.5666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1967.411</v>
       </c>
       <c r="G8" t="n">
+        <v>292.6666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>289.7</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1089.4647</v>
       </c>
       <c r="G9" t="n">
+        <v>292.5333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>289.8333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>292.3333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>289.8833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10120.4</v>
       </c>
       <c r="G11" t="n">
+        <v>292.0666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>289.95</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>77900.9679</v>
       </c>
       <c r="G12" t="n">
+        <v>291.8666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>290.0333333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>103.8325</v>
       </c>
       <c r="G13" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="H13" t="n">
         <v>290.1333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2666.6969</v>
       </c>
       <c r="G14" t="n">
+        <v>291.5333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>290.1666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>535</v>
       </c>
       <c r="G15" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="H15" t="n">
         <v>290.1666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>251.3268</v>
       </c>
       <c r="G16" t="n">
+        <v>291.2666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>290.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>803.9476</v>
       </c>
       <c r="G17" t="n">
+        <v>291.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>290.2</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>32665.5785</v>
       </c>
       <c r="G18" t="n">
+        <v>290.9333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>290.1666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,22 +1099,21 @@
         <v>68.9661</v>
       </c>
       <c r="G19" t="n">
+        <v>290.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>290.2166666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>288</v>
-      </c>
-      <c r="K19" t="n">
-        <v>288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,24 +1137,21 @@
         <v>27.3029</v>
       </c>
       <c r="G20" t="n">
+        <v>291</v>
+      </c>
+      <c r="H20" t="n">
         <v>290.3166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>288</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1123,24 +1175,21 @@
         <v>2025.138</v>
       </c>
       <c r="G21" t="n">
+        <v>291.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>290.4666666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>288</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1213,21 @@
         <v>2164.6844</v>
       </c>
       <c r="G22" t="n">
+        <v>291.2666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>290.6</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1251,21 @@
         <v>14912.9653</v>
       </c>
       <c r="G23" t="n">
+        <v>291.2666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>290.6833333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1289,21 @@
         <v>16684.3174</v>
       </c>
       <c r="G24" t="n">
+        <v>291.2666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>290.7833333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1327,21 @@
         <v>6788.3536</v>
       </c>
       <c r="G25" t="n">
+        <v>291.5333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>290.9</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1365,21 @@
         <v>400</v>
       </c>
       <c r="G26" t="n">
+        <v>291.9333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>291.0833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1403,21 @@
         <v>4687.005</v>
       </c>
       <c r="G27" t="n">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>291.2833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1441,21 @@
         <v>14841.4312</v>
       </c>
       <c r="G28" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>291.4333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1479,21 @@
         <v>7566.0324</v>
       </c>
       <c r="G29" t="n">
+        <v>292.5333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>291.6333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1517,21 @@
         <v>19534.2349</v>
       </c>
       <c r="G30" t="n">
+        <v>292.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>291.75</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1555,21 @@
         <v>13571.7594</v>
       </c>
       <c r="G31" t="n">
+        <v>292.9333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>291.8333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1593,21 @@
         <v>1181.4237</v>
       </c>
       <c r="G32" t="n">
+        <v>293.3333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>291.9833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1631,21 @@
         <v>34.01360544217687</v>
       </c>
       <c r="G33" t="n">
+        <v>293.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>292.0666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1669,21 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
+        <v>293.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>292.15</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1707,21 @@
         <v>16405.2201</v>
       </c>
       <c r="G35" t="n">
+        <v>293.9333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>292.2833333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1745,21 @@
         <v>7478.7454</v>
       </c>
       <c r="G36" t="n">
+        <v>294</v>
+      </c>
+      <c r="H36" t="n">
         <v>292.4</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1783,21 @@
         <v>3706.6032</v>
       </c>
       <c r="G37" t="n">
+        <v>294.2666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>292.5333333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1821,21 @@
         <v>9766.528399999999</v>
       </c>
       <c r="G38" t="n">
+        <v>294.8</v>
+      </c>
+      <c r="H38" t="n">
         <v>292.7</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1859,21 @@
         <v>3553.2533</v>
       </c>
       <c r="G39" t="n">
+        <v>295.2666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>292.8666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1897,21 @@
         <v>6666.6666</v>
       </c>
       <c r="G40" t="n">
+        <v>295.6</v>
+      </c>
+      <c r="H40" t="n">
         <v>293.05</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1935,21 @@
         <v>3800.075</v>
       </c>
       <c r="G41" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="H41" t="n">
         <v>293.25</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +1973,21 @@
         <v>201.6726</v>
       </c>
       <c r="G42" t="n">
+        <v>295.8666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>293.3666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2011,21 @@
         <v>817.1909000000001</v>
       </c>
       <c r="G43" t="n">
+        <v>296.5333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>293.5666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2049,21 @@
         <v>6763.8247</v>
       </c>
       <c r="G44" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>293.8166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2087,21 @@
         <v>10.9403</v>
       </c>
       <c r="G45" t="n">
+        <v>298</v>
+      </c>
+      <c r="H45" t="n">
         <v>294</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2125,21 @@
         <v>880.9017</v>
       </c>
       <c r="G46" t="n">
+        <v>298.5333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>294.1666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2163,21 @@
         <v>2654.3417</v>
       </c>
       <c r="G47" t="n">
+        <v>298.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>294.3166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2201,21 @@
         <v>449</v>
       </c>
       <c r="G48" t="n">
+        <v>299.5333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>294.4666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2239,21 @@
         <v>10138.2316</v>
       </c>
       <c r="G49" t="n">
+        <v>300.3333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>294.65</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2277,21 @@
         <v>38813.8172</v>
       </c>
       <c r="G50" t="n">
+        <v>301.1333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>294.8666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2315,21 @@
         <v>25319.9686</v>
       </c>
       <c r="G51" t="n">
+        <v>301.9333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>295.05</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2353,21 @@
         <v>400</v>
       </c>
       <c r="G52" t="n">
+        <v>302.2666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>295.1666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2391,21 @@
         <v>2560.87</v>
       </c>
       <c r="G53" t="n">
+        <v>302.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>295.2</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2429,21 @@
         <v>3744.4816</v>
       </c>
       <c r="G54" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="H54" t="n">
         <v>295.2166666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2467,21 @@
         <v>10215.5183</v>
       </c>
       <c r="G55" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="H55" t="n">
         <v>295.3166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2505,21 @@
         <v>14.23</v>
       </c>
       <c r="G56" t="n">
+        <v>302</v>
+      </c>
+      <c r="H56" t="n">
         <v>295.45</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2543,21 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>302.3333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>295.5833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2581,21 @@
         <v>2011.3045</v>
       </c>
       <c r="G58" t="n">
+        <v>302.2666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>295.7</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2619,21 @@
         <v>520.4607999999999</v>
       </c>
       <c r="G59" t="n">
+        <v>302</v>
+      </c>
+      <c r="H59" t="n">
         <v>295.8333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2657,21 @@
         <v>243.5495</v>
       </c>
       <c r="G60" t="n">
+        <v>301.8666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>296</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2695,21 @@
         <v>7.317</v>
       </c>
       <c r="G61" t="n">
+        <v>302</v>
+      </c>
+      <c r="H61" t="n">
         <v>296.1833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2733,21 @@
         <v>2664.239914935065</v>
       </c>
       <c r="G62" t="n">
+        <v>302.4666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>296.4833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2771,21 @@
         <v>1495.778558441559</v>
       </c>
       <c r="G63" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="H63" t="n">
         <v>296.7</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +2809,21 @@
         <v>1643.5017</v>
       </c>
       <c r="G64" t="n">
+        <v>302.4666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>296.8666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +2847,21 @@
         <v>18852.2284</v>
       </c>
       <c r="G65" t="n">
+        <v>302.0666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>297.0333333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +2885,21 @@
         <v>376.4051</v>
       </c>
       <c r="G66" t="n">
+        <v>301.6666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>297.2</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +2923,21 @@
         <v>1094.5991</v>
       </c>
       <c r="G67" t="n">
+        <v>301.6666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>297.3666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +2961,21 @@
         <v>57562.2581</v>
       </c>
       <c r="G68" t="n">
+        <v>302</v>
+      </c>
+      <c r="H68" t="n">
         <v>297.5333333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +2999,21 @@
         <v>8622.1229</v>
       </c>
       <c r="G69" t="n">
+        <v>302.3333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>297.6666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3037,21 @@
         <v>22.2296</v>
       </c>
       <c r="G70" t="n">
+        <v>302.2666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>297.8</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3075,21 @@
         <v>10496.9081</v>
       </c>
       <c r="G71" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="H71" t="n">
         <v>297.8833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3113,21 @@
         <v>1096.270433557047</v>
       </c>
       <c r="G72" t="n">
+        <v>301.4666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>297.9833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3151,21 @@
         <v>14</v>
       </c>
       <c r="G73" t="n">
+        <v>301.2</v>
+      </c>
+      <c r="H73" t="n">
         <v>298.05</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3189,21 @@
         <v>2344.3335</v>
       </c>
       <c r="G74" t="n">
+        <v>301</v>
+      </c>
+      <c r="H74" t="n">
         <v>298.2</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3227,21 @@
         <v>3342.495</v>
       </c>
       <c r="G75" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>298.3333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3265,21 @@
         <v>717.9697</v>
       </c>
       <c r="G76" t="n">
+        <v>300.4666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>298.4833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3303,21 @@
         <v>32700</v>
       </c>
       <c r="G77" t="n">
+        <v>299.4666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>298.55</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3341,21 @@
         <v>10177.7679</v>
       </c>
       <c r="G78" t="n">
+        <v>298.6666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>298.6333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3379,21 @@
         <v>5038</v>
       </c>
       <c r="G79" t="n">
+        <v>298.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>298.7166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3417,21 @@
         <v>437.2662</v>
       </c>
       <c r="G80" t="n">
+        <v>297.8666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>298.75</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3455,21 @@
         <v>2749.1751</v>
       </c>
       <c r="G81" t="n">
+        <v>297.4666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>298.7666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3493,21 @@
         <v>637.6767676767677</v>
       </c>
       <c r="G82" t="n">
+        <v>297.1333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>298.8333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3531,21 @@
         <v>6275.5008</v>
       </c>
       <c r="G83" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>298.9166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3569,21 @@
         <v>4398.264932323233</v>
       </c>
       <c r="G84" t="n">
+        <v>296.5333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>298.9833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3607,21 @@
         <v>5175.2767</v>
       </c>
       <c r="G85" t="n">
+        <v>296.3333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>299</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3645,21 @@
         <v>13.8779</v>
       </c>
       <c r="G86" t="n">
+        <v>296.2666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>298.9666666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3683,21 @@
         <v>3471.4688</v>
       </c>
       <c r="G87" t="n">
+        <v>296.1333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>298.95</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3721,21 @@
         <v>1802.4933</v>
       </c>
       <c r="G88" t="n">
+        <v>296.1333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>299.0333333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3759,21 @@
         <v>0.0001</v>
       </c>
       <c r="G89" t="n">
+        <v>296</v>
+      </c>
+      <c r="H89" t="n">
         <v>299.0666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3797,21 @@
         <v>1351.8701</v>
       </c>
       <c r="G90" t="n">
+        <v>295.9333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>299.1333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3835,21 @@
         <v>1465</v>
       </c>
       <c r="G91" t="n">
+        <v>295.9333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>299.2333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +3873,21 @@
         <v>2040</v>
       </c>
       <c r="G92" t="n">
+        <v>296.1333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>299.25</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +3911,21 @@
         <v>2372</v>
       </c>
       <c r="G93" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="H93" t="n">
         <v>299.3</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +3949,21 @@
         <v>3879.0048</v>
       </c>
       <c r="G94" t="n">
+        <v>296.4666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>299.3833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +3987,21 @@
         <v>471.2462</v>
       </c>
       <c r="G95" t="n">
+        <v>296.5333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>299.4</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4025,21 @@
         <v>7080.0318</v>
       </c>
       <c r="G96" t="n">
+        <v>296.6666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>299.4333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4063,21 @@
         <v>400</v>
       </c>
       <c r="G97" t="n">
+        <v>296.6666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>299.4333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4101,21 @@
         <v>560</v>
       </c>
       <c r="G98" t="n">
+        <v>296.6666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>299.3833333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4139,21 @@
         <v>30500</v>
       </c>
       <c r="G99" t="n">
+        <v>296.8666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>299.3833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4177,21 @@
         <v>29.6799</v>
       </c>
       <c r="G100" t="n">
+        <v>296.9333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>299.3333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4215,21 @@
         <v>800</v>
       </c>
       <c r="G101" t="n">
+        <v>296.9333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>299.25</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4253,21 @@
         <v>177.9064</v>
       </c>
       <c r="G102" t="n">
+        <v>297</v>
+      </c>
+      <c r="H102" t="n">
         <v>299.2333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4291,21 @@
         <v>209</v>
       </c>
       <c r="G103" t="n">
+        <v>297.0666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>299.1666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4329,21 @@
         <v>209</v>
       </c>
       <c r="G104" t="n">
+        <v>297.1333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>299.0333333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4367,21 @@
         <v>14.9136</v>
       </c>
       <c r="G105" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>298.95</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4405,21 @@
         <v>105.0864</v>
       </c>
       <c r="G106" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>298.9166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4443,21 @@
         <v>112</v>
       </c>
       <c r="G107" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>298.8333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4481,21 @@
         <v>200</v>
       </c>
       <c r="G108" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>298.7333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4519,21 @@
         <v>1786.4523</v>
       </c>
       <c r="G109" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>298.6166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4557,21 @@
         <v>14.3167</v>
       </c>
       <c r="G110" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>298.4333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4595,21 @@
         <v>745</v>
       </c>
       <c r="G111" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="H111" t="n">
         <v>298.25</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4633,21 @@
         <v>125</v>
       </c>
       <c r="G112" t="n">
+        <v>297.2666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>298.1833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4671,21 @@
         <v>213.6181</v>
       </c>
       <c r="G113" t="n">
+        <v>297.4</v>
+      </c>
+      <c r="H113" t="n">
         <v>298.2166666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4709,21 @@
         <v>1142</v>
       </c>
       <c r="G114" t="n">
+        <v>297.4666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>298.3</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4747,21 @@
         <v>187</v>
       </c>
       <c r="G115" t="n">
+        <v>297.6666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>298.3</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4785,21 @@
         <v>1413.0815</v>
       </c>
       <c r="G116" t="n">
+        <v>298</v>
+      </c>
+      <c r="H116" t="n">
         <v>298.25</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4823,21 @@
         <v>629.7778</v>
       </c>
       <c r="G117" t="n">
+        <v>298.2666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>298.2166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +4861,21 @@
         <v>14.2338</v>
       </c>
       <c r="G118" t="n">
+        <v>298.4666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>298.2166666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +4899,21 @@
         <v>1735.0727</v>
       </c>
       <c r="G119" t="n">
+        <v>298.5333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>298.1666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +4937,21 @@
         <v>4</v>
       </c>
       <c r="G120" t="n">
+        <v>298.7333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>298.1666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +4975,21 @@
         <v>644.3538</v>
       </c>
       <c r="G121" t="n">
+        <v>298.9333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>298.15</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5013,21 @@
         <v>200</v>
       </c>
       <c r="G122" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>298.0666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5051,21 @@
         <v>1697.429</v>
       </c>
       <c r="G123" t="n">
+        <v>299.8</v>
+      </c>
+      <c r="H123" t="n">
         <v>298.0333333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5089,21 @@
         <v>2849.0034</v>
       </c>
       <c r="G124" t="n">
+        <v>300.0666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>298.0166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5127,21 @@
         <v>1020.4776</v>
       </c>
       <c r="G125" t="n">
+        <v>300.4</v>
+      </c>
+      <c r="H125" t="n">
         <v>298.0166666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5165,21 @@
         <v>571.8502</v>
       </c>
       <c r="G126" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>298</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5203,21 @@
         <v>110</v>
       </c>
       <c r="G127" t="n">
+        <v>300.8</v>
+      </c>
+      <c r="H127" t="n">
         <v>297.9666666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5241,21 @@
         <v>3890</v>
       </c>
       <c r="G128" t="n">
+        <v>300.8666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>297.9333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5279,21 @@
         <v>1900</v>
       </c>
       <c r="G129" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>297.9</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5317,21 @@
         <v>4738.3554</v>
       </c>
       <c r="G130" t="n">
+        <v>300.7333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>297.9166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5355,21 @@
         <v>20</v>
       </c>
       <c r="G131" t="n">
+        <v>300.6666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>297.9666666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5393,21 @@
         <v>13.463</v>
       </c>
       <c r="G132" t="n">
+        <v>300.6</v>
+      </c>
+      <c r="H132" t="n">
         <v>298</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5431,21 @@
         <v>299</v>
       </c>
       <c r="G133" t="n">
+        <v>300.5333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>298.05</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5469,21 @@
         <v>15164.9173</v>
       </c>
       <c r="G134" t="n">
+        <v>300.4666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>298.0333333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5507,21 @@
         <v>252.202</v>
       </c>
       <c r="G135" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="H135" t="n">
         <v>298.0333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5545,21 @@
         <v>105</v>
       </c>
       <c r="G136" t="n">
+        <v>299.9333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>298.0166666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5583,21 @@
         <v>54.189</v>
       </c>
       <c r="G137" t="n">
+        <v>299.5333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>298.0833333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5621,21 @@
         <v>298.2473</v>
       </c>
       <c r="G138" t="n">
+        <v>299.0666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>298.1333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5659,21 @@
         <v>68.99039999999999</v>
       </c>
       <c r="G139" t="n">
+        <v>298.6666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>298.1166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5697,21 @@
         <v>33.67003367003367</v>
       </c>
       <c r="G140" t="n">
+        <v>298.3333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>298.1333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5735,21 @@
         <v>9.7845</v>
       </c>
       <c r="G141" t="n">
+        <v>298.0666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>298.15</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5773,21 @@
         <v>5.037</v>
       </c>
       <c r="G142" t="n">
+        <v>297.8666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>298.15</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5811,21 @@
         <v>170.1885</v>
       </c>
       <c r="G143" t="n">
+        <v>297.5333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>298.1166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +5849,21 @@
         <v>101.694</v>
       </c>
       <c r="G144" t="n">
+        <v>297.3333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>298.1</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +5887,21 @@
         <v>9.975</v>
       </c>
       <c r="G145" t="n">
+        <v>297</v>
+      </c>
+      <c r="H145" t="n">
         <v>298.0833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +5925,21 @@
         <v>9</v>
       </c>
       <c r="G146" t="n">
+        <v>296.6666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>298.0666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +5963,21 @@
         <v>15321.5642</v>
       </c>
       <c r="G147" t="n">
+        <v>296.2666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>298.0333333333334</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6001,21 @@
         <v>1850</v>
       </c>
       <c r="G148" t="n">
+        <v>295.9333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>298</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6039,21 @@
         <v>12736.7675</v>
       </c>
       <c r="G149" t="n">
+        <v>295.6666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>297.95</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6077,21 @@
         <v>1502.5797</v>
       </c>
       <c r="G150" t="n">
+        <v>295.3333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>297.8833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6115,21 @@
         <v>208.721</v>
       </c>
       <c r="G151" t="n">
+        <v>295</v>
+      </c>
+      <c r="H151" t="n">
         <v>297.7833333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6153,21 @@
         <v>877.7659</v>
       </c>
       <c r="G152" t="n">
+        <v>294.8666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>297.7666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6191,21 @@
         <v>7142.8266</v>
       </c>
       <c r="G153" t="n">
+        <v>294.7333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>297.7166666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6229,21 @@
         <v>787.9294</v>
       </c>
       <c r="G154" t="n">
+        <v>294.7333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>297.6833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6267,21 @@
         <v>706.7408</v>
       </c>
       <c r="G155" t="n">
+        <v>294.6666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>297.6666666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6305,21 @@
         <v>3650</v>
       </c>
       <c r="G156" t="n">
+        <v>294.6</v>
+      </c>
+      <c r="H156" t="n">
         <v>297.6333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6343,21 @@
         <v>1709.217</v>
       </c>
       <c r="G157" t="n">
+        <v>294.5333333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>297.6166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6381,21 @@
         <v>745</v>
       </c>
       <c r="G158" t="n">
+        <v>294.5333333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>297.5833333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6419,21 @@
         <v>2667.6423</v>
       </c>
       <c r="G159" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="H159" t="n">
         <v>297.4833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6457,21 @@
         <v>2922.3385</v>
       </c>
       <c r="G160" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="H160" t="n">
         <v>297.4</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6495,21 @@
         <v>337.4123</v>
       </c>
       <c r="G161" t="n">
+        <v>293.9333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>297.3166666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +6533,21 @@
         <v>3005.8395</v>
       </c>
       <c r="G162" t="n">
+        <v>293.6666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>297.2</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +6571,21 @@
         <v>1072.1985</v>
       </c>
       <c r="G163" t="n">
+        <v>293.3333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>297.0666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +6609,21 @@
         <v>520.626</v>
       </c>
       <c r="G164" t="n">
+        <v>293.0666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>296.9333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +6647,21 @@
         <v>7712.8717</v>
       </c>
       <c r="G165" t="n">
+        <v>292.8666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>296.7833333333334</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +6685,21 @@
         <v>8236.309999999999</v>
       </c>
       <c r="G166" t="n">
+        <v>292.6666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>296.6333333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +6723,21 @@
         <v>755.323</v>
       </c>
       <c r="G167" t="n">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>296.5166666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +6761,21 @@
         <v>4119.7107</v>
       </c>
       <c r="G168" t="n">
+        <v>291.9333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>296.3833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +6799,21 @@
         <v>597.7602000000001</v>
       </c>
       <c r="G169" t="n">
+        <v>291.6666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>296.2833333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +6837,21 @@
         <v>209.8899</v>
       </c>
       <c r="G170" t="n">
+        <v>291.3333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>296.1833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +6875,21 @@
         <v>25.6369</v>
       </c>
       <c r="G171" t="n">
+        <v>290.9333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>296.0666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +6913,21 @@
         <v>8149.436</v>
       </c>
       <c r="G172" t="n">
+        <v>290.4666666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>295.9166666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +6951,21 @@
         <v>2172.0737</v>
       </c>
       <c r="G173" t="n">
+        <v>290</v>
+      </c>
+      <c r="H173" t="n">
         <v>295.7333333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +6989,21 @@
         <v>24.3945</v>
       </c>
       <c r="G174" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>295.5166666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7027,21 @@
         <v>1604.6883</v>
       </c>
       <c r="G175" t="n">
+        <v>289.3333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>295.3166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7065,21 @@
         <v>10.7615</v>
       </c>
       <c r="G176" t="n">
+        <v>289.1333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>295.1</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7103,21 @@
         <v>2467.125</v>
       </c>
       <c r="G177" t="n">
+        <v>289</v>
+      </c>
+      <c r="H177" t="n">
         <v>294.8833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7141,21 @@
         <v>842.736</v>
       </c>
       <c r="G178" t="n">
+        <v>288.8666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>294.6666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7179,21 @@
         <v>9</v>
       </c>
       <c r="G179" t="n">
+        <v>288.6666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>294.4666666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7217,21 @@
         <v>2387.5847</v>
       </c>
       <c r="G180" t="n">
+        <v>288.4666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>294.2166666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7255,21 @@
         <v>3137.0983</v>
       </c>
       <c r="G181" t="n">
+        <v>288.2666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>293.9666666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7293,21 @@
         <v>170.9999</v>
       </c>
       <c r="G182" t="n">
+        <v>288</v>
+      </c>
+      <c r="H182" t="n">
         <v>293.6666666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7331,21 @@
         <v>12226.5914</v>
       </c>
       <c r="G183" t="n">
+        <v>287.7333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>293.3666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7369,21 @@
         <v>179.5035</v>
       </c>
       <c r="G184" t="n">
+        <v>287.2666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>293.0833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +7407,21 @@
         <v>1000</v>
       </c>
       <c r="G185" t="n">
+        <v>286.7333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>292.7666666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +7445,21 @@
         <v>11.2151</v>
       </c>
       <c r="G186" t="n">
+        <v>286.2666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>292.4666666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +7483,27 @@
         <v>1452.8866</v>
       </c>
       <c r="G187" t="n">
+        <v>285.7333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>292.15</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>283</v>
+      </c>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +7527,27 @@
         <v>1282.388</v>
       </c>
       <c r="G188" t="n">
+        <v>285.2666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>291.8333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>281</v>
+      </c>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +7571,27 @@
         <v>1000</v>
       </c>
       <c r="G189" t="n">
+        <v>284.8</v>
+      </c>
+      <c r="H189" t="n">
         <v>291.5333333333334</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>281</v>
+      </c>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +7615,27 @@
         <v>846.9215</v>
       </c>
       <c r="G190" t="n">
+        <v>284.2666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>291.2</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>281</v>
+      </c>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +7659,27 @@
         <v>16.0013</v>
       </c>
       <c r="G191" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H191" t="n">
         <v>290.8833333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>280</v>
+      </c>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +7703,27 @@
         <v>8233.975</v>
       </c>
       <c r="G192" t="n">
+        <v>283.3333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>290.5666666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>281</v>
+      </c>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +7747,27 @@
         <v>14.4645</v>
       </c>
       <c r="G193" t="n">
+        <v>282.9333333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>290.2666666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>281</v>
+      </c>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +7791,27 @@
         <v>10.473</v>
       </c>
       <c r="G194" t="n">
+        <v>282.6</v>
+      </c>
+      <c r="H194" t="n">
         <v>290</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>281</v>
+      </c>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +7835,27 @@
         <v>14.4645</v>
       </c>
       <c r="G195" t="n">
+        <v>282.2666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>289.7333333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>281</v>
+      </c>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +7879,27 @@
         <v>5088.2392</v>
       </c>
       <c r="G196" t="n">
+        <v>282</v>
+      </c>
+      <c r="H196" t="n">
         <v>289.4833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>281</v>
+      </c>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +7923,27 @@
         <v>41973.5865</v>
       </c>
       <c r="G197" t="n">
+        <v>281.8666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>289.25</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>282</v>
+      </c>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +7967,25 @@
         <v>19.5177</v>
       </c>
       <c r="G198" t="n">
+        <v>281.6666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>289.0166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8009,25 @@
         <v>1794.5676</v>
       </c>
       <c r="G199" t="n">
+        <v>281.4666666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>288.7833333333334</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8051,25 @@
         <v>2230</v>
       </c>
       <c r="G200" t="n">
+        <v>281.2</v>
+      </c>
+      <c r="H200" t="n">
         <v>288.4833333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8093,25 @@
         <v>1521.1002</v>
       </c>
       <c r="G201" t="n">
+        <v>281</v>
+      </c>
+      <c r="H201" t="n">
         <v>288.2</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,22 +8135,25 @@
         <v>1562.4997</v>
       </c>
       <c r="G202" t="n">
+        <v>280.9333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>287.9166666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>280</v>
-      </c>
-      <c r="K202" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,26 +8177,25 @@
         <v>7101.3637</v>
       </c>
       <c r="G203" t="n">
+        <v>280.7333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>287.6333333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>280</v>
-      </c>
-      <c r="K203" t="n">
-        <v>280</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7546,26 +8219,25 @@
         <v>272.7709</v>
       </c>
       <c r="G204" t="n">
+        <v>280.5333333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>287.3333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>278</v>
-      </c>
-      <c r="K204" t="n">
-        <v>280</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7589,26 +8261,27 @@
         <v>899.8125</v>
       </c>
       <c r="G205" t="n">
+        <v>280.6666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>287.1166666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
         <v>278</v>
       </c>
-      <c r="K205" t="n">
-        <v>280</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7632,26 +8305,27 @@
         <v>25.7949</v>
       </c>
       <c r="G206" t="n">
+        <v>280.7333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>286.9</v>
       </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
         <v>282</v>
       </c>
-      <c r="K206" t="n">
-        <v>280</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7675,26 +8349,25 @@
         <v>74.2051</v>
       </c>
       <c r="G207" t="n">
+        <v>280.8</v>
+      </c>
+      <c r="H207" t="n">
         <v>286.7</v>
       </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>282</v>
-      </c>
-      <c r="K207" t="n">
-        <v>280</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7718,26 +8391,25 @@
         <v>25.7949</v>
       </c>
       <c r="G208" t="n">
+        <v>280.9333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>286.5166666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>282</v>
-      </c>
-      <c r="K208" t="n">
-        <v>280</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7761,24 +8433,25 @@
         <v>3019.34</v>
       </c>
       <c r="G209" t="n">
+        <v>281.1333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>286.3666666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>280</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7802,26 +8475,25 @@
         <v>3528.7719</v>
       </c>
       <c r="G210" t="n">
+        <v>281.2666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>286.2166666666666</v>
       </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>284</v>
-      </c>
-      <c r="K210" t="n">
-        <v>280</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7845,26 +8517,25 @@
         <v>662</v>
       </c>
       <c r="G211" t="n">
+        <v>281.2</v>
+      </c>
+      <c r="H211" t="n">
         <v>286.0333333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>283</v>
-      </c>
-      <c r="K211" t="n">
-        <v>280</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,26 +8559,25 @@
         <v>8432.3537</v>
       </c>
       <c r="G212" t="n">
+        <v>281.1333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>285.8166666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>281</v>
-      </c>
-      <c r="K212" t="n">
-        <v>280</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7931,24 +8601,25 @@
         <v>6301.6112</v>
       </c>
       <c r="G213" t="n">
+        <v>281.1333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>285.6166666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>280</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7972,24 +8643,25 @@
         <v>7998.2214</v>
       </c>
       <c r="G214" t="n">
+        <v>281.1333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>285.3833333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>280</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8013,24 +8685,25 @@
         <v>2277.0024</v>
       </c>
       <c r="G215" t="n">
+        <v>281.2666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>285.1333333333333</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>280</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8054,26 +8727,445 @@
         <v>30.1554</v>
       </c>
       <c r="G216" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="H216" t="n">
         <v>284.9</v>
       </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>281</v>
-      </c>
-      <c r="K216" t="n">
-        <v>280</v>
-      </c>
-      <c r="L216" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>283</v>
+      </c>
+      <c r="C217" t="n">
+        <v>283</v>
+      </c>
+      <c r="D217" t="n">
+        <v>283</v>
+      </c>
+      <c r="E217" t="n">
+        <v>283</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3386.8518</v>
+      </c>
+      <c r="G217" t="n">
+        <v>281.6</v>
+      </c>
+      <c r="H217" t="n">
+        <v>284.6833333333333</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>285</v>
+      </c>
+      <c r="C218" t="n">
+        <v>285</v>
+      </c>
+      <c r="D218" t="n">
+        <v>285</v>
+      </c>
+      <c r="E218" t="n">
+        <v>285</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3535</v>
+      </c>
+      <c r="G218" t="n">
+        <v>282.0666666666667</v>
+      </c>
+      <c r="H218" t="n">
+        <v>284.5166666666667</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>288</v>
+      </c>
+      <c r="C219" t="n">
+        <v>288</v>
+      </c>
+      <c r="D219" t="n">
+        <v>288</v>
+      </c>
+      <c r="E219" t="n">
+        <v>288</v>
+      </c>
+      <c r="F219" t="n">
+        <v>348.705</v>
+      </c>
+      <c r="G219" t="n">
+        <v>282.7333333333333</v>
+      </c>
+      <c r="H219" t="n">
+        <v>284.4166666666667</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>288</v>
+      </c>
+      <c r="C220" t="n">
+        <v>287</v>
+      </c>
+      <c r="D220" t="n">
+        <v>288</v>
+      </c>
+      <c r="E220" t="n">
+        <v>287</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3510.2686</v>
+      </c>
+      <c r="G220" t="n">
+        <v>283.0666666666667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>284.3333333333333</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>286</v>
+      </c>
+      <c r="C221" t="n">
+        <v>286</v>
+      </c>
+      <c r="D221" t="n">
+        <v>286</v>
+      </c>
+      <c r="E221" t="n">
+        <v>286</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3496.5035</v>
+      </c>
+      <c r="G221" t="n">
+        <v>283.3333333333333</v>
+      </c>
+      <c r="H221" t="n">
+        <v>284.25</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>286</v>
+      </c>
+      <c r="C222" t="n">
+        <v>286</v>
+      </c>
+      <c r="D222" t="n">
+        <v>286</v>
+      </c>
+      <c r="E222" t="n">
+        <v>286</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1785.925</v>
+      </c>
+      <c r="G222" t="n">
+        <v>283.6</v>
+      </c>
+      <c r="H222" t="n">
+        <v>284.1833333333333</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>286</v>
+      </c>
+      <c r="C223" t="n">
+        <v>286</v>
+      </c>
+      <c r="D223" t="n">
+        <v>286</v>
+      </c>
+      <c r="E223" t="n">
+        <v>286</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15.2094</v>
+      </c>
+      <c r="G223" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="H223" t="n">
+        <v>284.1333333333333</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>285</v>
+      </c>
+      <c r="C224" t="n">
+        <v>285</v>
+      </c>
+      <c r="D224" t="n">
+        <v>285</v>
+      </c>
+      <c r="E224" t="n">
+        <v>285</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1784.3445</v>
+      </c>
+      <c r="G224" t="n">
+        <v>283.8666666666667</v>
+      </c>
+      <c r="H224" t="n">
+        <v>284.0666666666667</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>285</v>
+      </c>
+      <c r="C225" t="n">
+        <v>285</v>
+      </c>
+      <c r="D225" t="n">
+        <v>285</v>
+      </c>
+      <c r="E225" t="n">
+        <v>285</v>
+      </c>
+      <c r="F225" t="n">
+        <v>237.6186</v>
+      </c>
+      <c r="G225" t="n">
+        <v>284</v>
+      </c>
+      <c r="H225" t="n">
+        <v>284</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>285</v>
+      </c>
+      <c r="C226" t="n">
+        <v>285</v>
+      </c>
+      <c r="D226" t="n">
+        <v>285</v>
+      </c>
+      <c r="E226" t="n">
+        <v>285</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1158.2223</v>
+      </c>
+      <c r="G226" t="n">
+        <v>284.2666666666667</v>
+      </c>
+      <c r="H226" t="n">
+        <v>283.9333333333333</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -445,10 +450,10 @@
         <v>289</v>
       </c>
       <c r="F2" t="n">
-        <v>4000</v>
+        <v>535</v>
       </c>
       <c r="G2" t="n">
-        <v>-34987.91329999999</v>
+        <v>290.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C3" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D3" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E3" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F3" t="n">
-        <v>6575.9087</v>
+        <v>251.3268</v>
       </c>
       <c r="G3" t="n">
-        <v>-41563.82199999999</v>
+        <v>290.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C4" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D4" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E4" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F4" t="n">
-        <v>1198.4826</v>
+        <v>803.9476</v>
       </c>
       <c r="G4" t="n">
-        <v>-40365.33939999998</v>
+        <v>289.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" t="n">
-        <v>208.2943</v>
+        <v>32665.5785</v>
       </c>
       <c r="G5" t="n">
-        <v>-40157.04509999998</v>
+        <v>288.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C6" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D6" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E6" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F6" t="n">
-        <v>403.2246</v>
+        <v>68.9661</v>
       </c>
       <c r="G6" t="n">
-        <v>-40157.04509999998</v>
+        <v>289.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D7" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E7" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F7" t="n">
-        <v>5285.089347079038</v>
+        <v>27.3029</v>
       </c>
       <c r="G7" t="n">
-        <v>-34871.95575292094</v>
+        <v>290.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C8" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D8" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E8" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F8" t="n">
-        <v>825</v>
+        <v>2025.138</v>
       </c>
       <c r="G8" t="n">
-        <v>-34871.95575292094</v>
+        <v>291.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C9" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D9" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E9" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F9" t="n">
-        <v>426.8168</v>
+        <v>2164.6844</v>
       </c>
       <c r="G9" t="n">
-        <v>-35298.77255292094</v>
+        <v>292.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C10" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D10" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E10" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F10" t="n">
-        <v>137</v>
+        <v>14912.9653</v>
       </c>
       <c r="G10" t="n">
-        <v>-35298.77255292094</v>
+        <v>293</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C11" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D11" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E11" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F11" t="n">
-        <v>83542.894</v>
+        <v>16684.3174</v>
       </c>
       <c r="G11" t="n">
-        <v>48244.12144707906</v>
+        <v>293.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C12" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D12" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E12" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F12" t="n">
-        <v>4861.7325</v>
+        <v>6788.3536</v>
       </c>
       <c r="G12" t="n">
-        <v>43382.38894707906</v>
+        <v>293.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C13" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D13" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E13" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F13" t="n">
-        <v>11.0373</v>
+        <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>43393.42624707906</v>
+        <v>294.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C14" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D14" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E14" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F14" t="n">
-        <v>4614.420683219178</v>
+        <v>4687.005</v>
       </c>
       <c r="G14" t="n">
-        <v>48007.84693029824</v>
+        <v>295</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C15" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D15" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E15" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F15" t="n">
-        <v>194.8336</v>
+        <v>14841.4312</v>
       </c>
       <c r="G15" t="n">
-        <v>47813.01333029824</v>
+        <v>294.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C16" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D16" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E16" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F16" t="n">
-        <v>835</v>
+        <v>7566.0324</v>
       </c>
       <c r="G16" t="n">
-        <v>48648.01333029824</v>
+        <v>295</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D17" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E17" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F17" t="n">
-        <v>724.5989</v>
+        <v>19534.2349</v>
       </c>
       <c r="G17" t="n">
-        <v>49372.61223029824</v>
+        <v>294.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D18" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" t="n">
-        <v>189.6134</v>
+        <v>13571.7594</v>
       </c>
       <c r="G18" t="n">
-        <v>49182.99883029824</v>
+        <v>293.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1040,10 +1062,10 @@
         <v>295</v>
       </c>
       <c r="F19" t="n">
-        <v>865</v>
+        <v>1181.4237</v>
       </c>
       <c r="G19" t="n">
-        <v>50047.99883029824</v>
+        <v>292.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D20" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E20" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F20" t="n">
-        <v>987</v>
+        <v>34.01360544217687</v>
       </c>
       <c r="G20" t="n">
-        <v>51034.99883029824</v>
+        <v>293.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C21" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D21" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E21" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F21" t="n">
-        <v>393</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>50641.99883029824</v>
+        <v>293</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C22" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D22" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E22" t="n">
         <v>295</v>
       </c>
       <c r="F22" t="n">
-        <v>245.2517</v>
+        <v>16405.2201</v>
       </c>
       <c r="G22" t="n">
-        <v>50641.99883029824</v>
+        <v>293.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D23" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E23" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F23" t="n">
-        <v>136.5249</v>
+        <v>7478.7454</v>
       </c>
       <c r="G23" t="n">
-        <v>50641.99883029824</v>
+        <v>294.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C24" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D24" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E24" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F24" t="n">
-        <v>16.8125</v>
+        <v>3706.6032</v>
       </c>
       <c r="G24" t="n">
-        <v>50625.18633029824</v>
+        <v>295</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C25" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D25" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E25" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F25" t="n">
-        <v>895.1215999999999</v>
+        <v>9766.528399999999</v>
       </c>
       <c r="G25" t="n">
-        <v>51520.30793029824</v>
+        <v>296.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C26" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D26" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E26" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F26" t="n">
-        <v>1069</v>
+        <v>3553.2533</v>
       </c>
       <c r="G26" t="n">
-        <v>50451.30793029824</v>
+        <v>297.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D27" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E27" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F27" t="n">
-        <v>4172.5963</v>
+        <v>6666.6666</v>
       </c>
       <c r="G27" t="n">
-        <v>46278.71163029824</v>
+        <v>298.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C28" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D28" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E28" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>3800.075</v>
       </c>
       <c r="G28" t="n">
-        <v>46278.71163029824</v>
+        <v>299.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C29" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D29" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E29" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F29" t="n">
-        <v>13758.3676</v>
+        <v>201.6726</v>
       </c>
       <c r="G29" t="n">
-        <v>32520.34403029824</v>
+        <v>299.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C30" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D30" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E30" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F30" t="n">
-        <v>5799.3091</v>
+        <v>817.1909000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>32520.34403029824</v>
+        <v>300</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C31" t="n">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D31" t="n">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E31" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F31" t="n">
-        <v>46565.2136</v>
+        <v>6763.8247</v>
       </c>
       <c r="G31" t="n">
-        <v>-14044.86956970176</v>
+        <v>301</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C32" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D32" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E32" t="n">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F32" t="n">
-        <v>3624.7182</v>
+        <v>10.9403</v>
       </c>
       <c r="G32" t="n">
-        <v>-10420.15136970176</v>
+        <v>301.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C33" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D33" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E33" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F33" t="n">
-        <v>211.904</v>
+        <v>880.9017</v>
       </c>
       <c r="G33" t="n">
-        <v>-10420.15136970176</v>
+        <v>301.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C34" t="n">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D34" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E34" t="n">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F34" t="n">
-        <v>156.36</v>
+        <v>2654.3417</v>
       </c>
       <c r="G34" t="n">
-        <v>-10420.15136970176</v>
+        <v>302</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C35" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D35" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E35" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F35" t="n">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G35" t="n">
-        <v>-10420.15136970176</v>
+        <v>302.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C36" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D36" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E36" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F36" t="n">
-        <v>806.0431</v>
+        <v>10138.2316</v>
       </c>
       <c r="G36" t="n">
-        <v>-10420.15136970176</v>
+        <v>302.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C37" t="n">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D37" t="n">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E37" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F37" t="n">
-        <v>1967.411</v>
+        <v>38813.8172</v>
       </c>
       <c r="G37" t="n">
-        <v>-10420.15136970176</v>
+        <v>303.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C38" t="n">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D38" t="n">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E38" t="n">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F38" t="n">
-        <v>1089.4647</v>
+        <v>25319.9686</v>
       </c>
       <c r="G38" t="n">
-        <v>-9330.686669701761</v>
+        <v>304.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C39" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D39" t="n">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E39" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G39" t="n">
-        <v>-9331.686669701761</v>
+        <v>305</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C40" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D40" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E40" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F40" t="n">
-        <v>10120.4</v>
+        <v>2560.87</v>
       </c>
       <c r="G40" t="n">
-        <v>788.7133302982384</v>
+        <v>303.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C41" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D41" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E41" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F41" t="n">
-        <v>77900.9679</v>
+        <v>3744.4816</v>
       </c>
       <c r="G41" t="n">
-        <v>788.7133302982384</v>
+        <v>302.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C42" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D42" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E42" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F42" t="n">
-        <v>103.8325</v>
+        <v>10215.5183</v>
       </c>
       <c r="G42" t="n">
-        <v>788.7133302982384</v>
+        <v>300.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C43" t="n">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D43" t="n">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="E43" t="n">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F43" t="n">
-        <v>2666.6969</v>
+        <v>14.23</v>
       </c>
       <c r="G43" t="n">
-        <v>-1877.983569701762</v>
+        <v>299.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C44" t="n">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="D44" t="n">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E44" t="n">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F44" t="n">
-        <v>535</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-1877.983569701762</v>
+        <v>300</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C45" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D45" t="n">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E45" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F45" t="n">
-        <v>251.3268</v>
+        <v>2011.3045</v>
       </c>
       <c r="G45" t="n">
-        <v>-1877.983569701762</v>
+        <v>300.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C46" t="n">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D46" t="n">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="E46" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F46" t="n">
-        <v>803.9476</v>
+        <v>520.4607999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-1877.983569701762</v>
+        <v>301.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C47" t="n">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D47" t="n">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E47" t="n">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F47" t="n">
-        <v>32665.5785</v>
+        <v>243.5495</v>
       </c>
       <c r="G47" t="n">
-        <v>-34543.56206970176</v>
+        <v>301.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C48" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D48" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E48" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F48" t="n">
-        <v>68.9661</v>
+        <v>7.317</v>
       </c>
       <c r="G48" t="n">
-        <v>-34474.59596970176</v>
+        <v>301.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,155 +2123,143 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C49" t="n">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D49" t="n">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E49" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F49" t="n">
-        <v>27.3029</v>
+        <v>2664.239914935065</v>
       </c>
       <c r="G49" t="n">
-        <v>-34447.29306970176</v>
+        <v>302.4</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>291</v>
-      </c>
-      <c r="K49" t="n">
-        <v>291</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C50" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D50" t="n">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="E50" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F50" t="n">
-        <v>2025.138</v>
+        <v>1495.778558441559</v>
       </c>
       <c r="G50" t="n">
-        <v>-32422.15506970176</v>
+        <v>303.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>291</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C51" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D51" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E51" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F51" t="n">
-        <v>2164.6844</v>
+        <v>1643.5017</v>
       </c>
       <c r="G51" t="n">
-        <v>-34586.83946970176</v>
+        <v>303.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>291</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C52" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D52" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E52" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F52" t="n">
-        <v>14912.9653</v>
+        <v>18852.2284</v>
       </c>
       <c r="G52" t="n">
-        <v>-49499.80476970176</v>
+        <v>303.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2228,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C53" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D53" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E53" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F53" t="n">
-        <v>16684.3174</v>
+        <v>376.4051</v>
       </c>
       <c r="G53" t="n">
-        <v>-32815.48736970176</v>
+        <v>303.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C54" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D54" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E54" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F54" t="n">
-        <v>6788.3536</v>
+        <v>1094.5991</v>
       </c>
       <c r="G54" t="n">
-        <v>-26027.13376970176</v>
+        <v>302.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2298,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C55" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D55" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E55" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F55" t="n">
-        <v>400</v>
+        <v>57562.2581</v>
       </c>
       <c r="G55" t="n">
-        <v>-25627.13376970176</v>
+        <v>302</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2333,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C56" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D56" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E56" t="n">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F56" t="n">
-        <v>4687.005</v>
+        <v>8622.1229</v>
       </c>
       <c r="G56" t="n">
-        <v>-30314.13876970176</v>
+        <v>301.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2368,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C57" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D57" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E57" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F57" t="n">
-        <v>14841.4312</v>
+        <v>22.2296</v>
       </c>
       <c r="G57" t="n">
-        <v>-45155.56996970176</v>
+        <v>301.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2403,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C58" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D58" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E58" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F58" t="n">
-        <v>7566.0324</v>
+        <v>10496.9081</v>
       </c>
       <c r="G58" t="n">
-        <v>-37589.53756970176</v>
+        <v>300.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2438,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C59" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D59" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E59" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F59" t="n">
-        <v>19534.2349</v>
+        <v>1096.270433557047</v>
       </c>
       <c r="G59" t="n">
-        <v>-57123.77246970175</v>
+        <v>299.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2473,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C60" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D60" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E60" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F60" t="n">
-        <v>13571.7594</v>
+        <v>14</v>
       </c>
       <c r="G60" t="n">
-        <v>-57123.77246970175</v>
+        <v>298.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C61" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D61" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E61" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F61" t="n">
-        <v>1181.4237</v>
+        <v>2344.3335</v>
       </c>
       <c r="G61" t="n">
-        <v>-55942.34876970176</v>
+        <v>297.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C62" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D62" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E62" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F62" t="n">
-        <v>34.01360544217687</v>
+        <v>3342.495</v>
       </c>
       <c r="G62" t="n">
-        <v>-55976.36237514393</v>
+        <v>297.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C63" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D63" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E63" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>717.9697</v>
       </c>
       <c r="G63" t="n">
-        <v>-55986.36237514393</v>
+        <v>297.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2622,19 +2673,19 @@
         <v>296</v>
       </c>
       <c r="C64" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D64" t="n">
         <v>296</v>
       </c>
       <c r="E64" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F64" t="n">
-        <v>16405.2201</v>
+        <v>32700</v>
       </c>
       <c r="G64" t="n">
-        <v>-39581.14227514393</v>
+        <v>296.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2657,19 +2709,19 @@
         <v>296</v>
       </c>
       <c r="C65" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D65" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E65" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F65" t="n">
-        <v>7478.7454</v>
+        <v>10177.7679</v>
       </c>
       <c r="G65" t="n">
-        <v>-39581.14227514393</v>
+        <v>295.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C66" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D66" t="n">
         <v>298</v>
       </c>
       <c r="E66" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F66" t="n">
-        <v>3706.6032</v>
+        <v>5038</v>
       </c>
       <c r="G66" t="n">
-        <v>-35874.53907514393</v>
+        <v>295.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C67" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D67" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E67" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F67" t="n">
-        <v>9766.528399999999</v>
+        <v>437.2662</v>
       </c>
       <c r="G67" t="n">
-        <v>-26108.01067514393</v>
+        <v>295.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C68" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D68" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E68" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F68" t="n">
-        <v>3553.2533</v>
+        <v>2749.1751</v>
       </c>
       <c r="G68" t="n">
-        <v>-26108.01067514393</v>
+        <v>294.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C69" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D69" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E69" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F69" t="n">
-        <v>6666.6666</v>
+        <v>637.6767676767677</v>
       </c>
       <c r="G69" t="n">
-        <v>-26108.01067514393</v>
+        <v>295.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D70" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E70" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F70" t="n">
-        <v>3800.075</v>
+        <v>6275.5008</v>
       </c>
       <c r="G70" t="n">
-        <v>-22307.93567514393</v>
+        <v>296.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C71" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D71" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E71" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F71" t="n">
-        <v>201.6726</v>
+        <v>4398.264932323233</v>
       </c>
       <c r="G71" t="n">
-        <v>-22509.60827514394</v>
+        <v>296.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C72" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D72" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E72" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F72" t="n">
-        <v>817.1909000000001</v>
+        <v>5175.2767</v>
       </c>
       <c r="G72" t="n">
-        <v>-21692.41737514393</v>
+        <v>296.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C73" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D73" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E73" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F73" t="n">
-        <v>6763.8247</v>
+        <v>13.8779</v>
       </c>
       <c r="G73" t="n">
-        <v>-14928.59267514393</v>
+        <v>296.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C74" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D74" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E74" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F74" t="n">
-        <v>10.9403</v>
+        <v>3471.4688</v>
       </c>
       <c r="G74" t="n">
-        <v>-14939.53297514393</v>
+        <v>296.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C75" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D75" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E75" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F75" t="n">
-        <v>880.9017</v>
+        <v>1802.4933</v>
       </c>
       <c r="G75" t="n">
-        <v>-15820.43467514393</v>
+        <v>296.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C76" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D76" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E76" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F76" t="n">
-        <v>2654.3417</v>
+        <v>0.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>-13166.09297514393</v>
+        <v>296</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C77" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D77" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E77" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F77" t="n">
-        <v>449</v>
+        <v>1351.8701</v>
       </c>
       <c r="G77" t="n">
-        <v>-12717.09297514393</v>
+        <v>296</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C78" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D78" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E78" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F78" t="n">
-        <v>10138.2316</v>
+        <v>1465</v>
       </c>
       <c r="G78" t="n">
-        <v>-2578.861375143933</v>
+        <v>296.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C79" t="n">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D79" t="n">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E79" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F79" t="n">
-        <v>38813.8172</v>
+        <v>2040</v>
       </c>
       <c r="G79" t="n">
-        <v>36234.95582485606</v>
+        <v>296.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C80" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D80" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E80" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F80" t="n">
-        <v>25319.9686</v>
+        <v>2372</v>
       </c>
       <c r="G80" t="n">
-        <v>36234.95582485606</v>
+        <v>296.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C81" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D81" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E81" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F81" t="n">
-        <v>400</v>
+        <v>3879.0048</v>
       </c>
       <c r="G81" t="n">
-        <v>35834.95582485606</v>
+        <v>296.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C82" t="n">
         <v>297</v>
       </c>
       <c r="D82" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E82" t="n">
         <v>297</v>
       </c>
       <c r="F82" t="n">
-        <v>2560.87</v>
+        <v>471.2462</v>
       </c>
       <c r="G82" t="n">
-        <v>33274.08582485606</v>
+        <v>297</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C83" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D83" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E83" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F83" t="n">
-        <v>3744.4816</v>
+        <v>7080.0318</v>
       </c>
       <c r="G83" t="n">
-        <v>29529.60422485606</v>
+        <v>297</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3313,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C84" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D84" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E84" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F84" t="n">
-        <v>10215.5183</v>
+        <v>400</v>
       </c>
       <c r="G84" t="n">
-        <v>39745.12252485607</v>
+        <v>297.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C85" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D85" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E85" t="n">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F85" t="n">
-        <v>14.23</v>
+        <v>560</v>
       </c>
       <c r="G85" t="n">
-        <v>39759.35252485607</v>
+        <v>297.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3383,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C86" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D86" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E86" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>30500</v>
       </c>
       <c r="G86" t="n">
-        <v>39749.35252485607</v>
+        <v>297.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C87" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D87" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E87" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F87" t="n">
-        <v>2011.3045</v>
+        <v>29.6799</v>
       </c>
       <c r="G87" t="n">
-        <v>37738.04802485607</v>
+        <v>297.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C88" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D88" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E88" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F88" t="n">
-        <v>520.4607999999999</v>
+        <v>800</v>
       </c>
       <c r="G88" t="n">
-        <v>38258.50882485607</v>
+        <v>297.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C89" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D89" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E89" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F89" t="n">
-        <v>243.5495</v>
+        <v>177.9064</v>
       </c>
       <c r="G89" t="n">
-        <v>38258.50882485607</v>
+        <v>297.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3523,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C90" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D90" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E90" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F90" t="n">
-        <v>7.317</v>
+        <v>209</v>
       </c>
       <c r="G90" t="n">
-        <v>38265.82582485607</v>
+        <v>297.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3558,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C91" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D91" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E91" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F91" t="n">
-        <v>2664.239914935065</v>
+        <v>209</v>
       </c>
       <c r="G91" t="n">
-        <v>40930.06573979114</v>
+        <v>296.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,34 +3671,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C92" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D92" t="n">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E92" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F92" t="n">
-        <v>1495.778558441559</v>
+        <v>14.9136</v>
       </c>
       <c r="G92" t="n">
-        <v>39434.28718134958</v>
+        <v>297</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3628,34 +3707,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C93" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D93" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E93" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F93" t="n">
-        <v>1643.5017</v>
+        <v>105.0864</v>
       </c>
       <c r="G93" t="n">
-        <v>37790.78548134958</v>
+        <v>297.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3663,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C94" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D94" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E94" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F94" t="n">
-        <v>18852.2284</v>
+        <v>112</v>
       </c>
       <c r="G94" t="n">
-        <v>37790.78548134958</v>
+        <v>297.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C95" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D95" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E95" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F95" t="n">
-        <v>376.4051</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>37790.78548134958</v>
+        <v>297.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,34 +3815,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C96" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D96" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E96" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F96" t="n">
-        <v>1094.5991</v>
+        <v>1786.4523</v>
       </c>
       <c r="G96" t="n">
-        <v>37790.78548134958</v>
+        <v>297.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3768,34 +3851,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C97" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D97" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E97" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F97" t="n">
-        <v>57562.2581</v>
+        <v>14.3167</v>
       </c>
       <c r="G97" t="n">
-        <v>37790.78548134958</v>
+        <v>297</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3803,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C98" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D98" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E98" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F98" t="n">
-        <v>8622.1229</v>
+        <v>745</v>
       </c>
       <c r="G98" t="n">
-        <v>29168.66258134958</v>
+        <v>296.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C99" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D99" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E99" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F99" t="n">
-        <v>22.2296</v>
+        <v>125</v>
       </c>
       <c r="G99" t="n">
-        <v>29146.43298134958</v>
+        <v>297.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3882,19 +3969,19 @@
         <v>299</v>
       </c>
       <c r="C100" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D100" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E100" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F100" t="n">
-        <v>10496.9081</v>
+        <v>213.6181</v>
       </c>
       <c r="G100" t="n">
-        <v>18649.52488134958</v>
+        <v>297.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3917,19 +4005,19 @@
         <v>299</v>
       </c>
       <c r="C101" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D101" t="n">
+        <v>301</v>
+      </c>
+      <c r="E101" t="n">
         <v>299</v>
       </c>
-      <c r="E101" t="n">
-        <v>298</v>
-      </c>
       <c r="F101" t="n">
-        <v>1096.270433557047</v>
+        <v>1142</v>
       </c>
       <c r="G101" t="n">
-        <v>19745.79531490662</v>
+        <v>298.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C102" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D102" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E102" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F102" t="n">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="G102" t="n">
-        <v>19731.79531490662</v>
+        <v>299</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C103" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D103" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E103" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F103" t="n">
-        <v>2344.3335</v>
+        <v>1413.0815</v>
       </c>
       <c r="G103" t="n">
-        <v>22076.12881490662</v>
+        <v>299.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C104" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D104" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E104" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F104" t="n">
-        <v>3342.495</v>
+        <v>629.7778</v>
       </c>
       <c r="G104" t="n">
-        <v>18733.63381490663</v>
+        <v>300.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C105" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E105" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F105" t="n">
-        <v>717.9697</v>
+        <v>14.2338</v>
       </c>
       <c r="G105" t="n">
-        <v>19451.60351490663</v>
+        <v>300.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4083,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C106" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D106" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E106" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F106" t="n">
-        <v>32700</v>
+        <v>1735.0727</v>
       </c>
       <c r="G106" t="n">
-        <v>-13248.39648509337</v>
+        <v>300</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4118,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C107" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D107" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E107" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F107" t="n">
-        <v>10177.7679</v>
+        <v>4</v>
       </c>
       <c r="G107" t="n">
-        <v>-13248.39648509337</v>
+        <v>300.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4153,34 +4247,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C108" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D108" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E108" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F108" t="n">
-        <v>5038</v>
+        <v>644.3538</v>
       </c>
       <c r="G108" t="n">
-        <v>-8210.396485093373</v>
+        <v>300.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4188,34 +4283,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C109" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D109" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E109" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F109" t="n">
-        <v>437.2662</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
-        <v>-8210.396485093373</v>
+        <v>300.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4223,34 +4319,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C110" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D110" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E110" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F110" t="n">
-        <v>2749.1751</v>
+        <v>1697.429</v>
       </c>
       <c r="G110" t="n">
-        <v>-8210.396485093373</v>
+        <v>301.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4258,34 +4355,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C111" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D111" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E111" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F111" t="n">
-        <v>637.6767676767677</v>
+        <v>2849.0034</v>
       </c>
       <c r="G111" t="n">
-        <v>-7572.719717416606</v>
+        <v>301.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4293,34 +4391,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C112" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D112" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E112" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F112" t="n">
-        <v>6275.5008</v>
+        <v>1020.4776</v>
       </c>
       <c r="G112" t="n">
-        <v>-7572.719717416606</v>
+        <v>302</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4328,34 +4427,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C113" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D113" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E113" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F113" t="n">
-        <v>4398.264932323233</v>
+        <v>571.8502</v>
       </c>
       <c r="G113" t="n">
-        <v>-7572.719717416606</v>
+        <v>302</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4363,34 +4463,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C114" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D114" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E114" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F114" t="n">
-        <v>5175.2767</v>
+        <v>110</v>
       </c>
       <c r="G114" t="n">
-        <v>-12747.99641741661</v>
+        <v>301.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4398,34 +4499,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C115" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D115" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E115" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F115" t="n">
-        <v>13.8779</v>
+        <v>3890</v>
       </c>
       <c r="G115" t="n">
-        <v>-12747.99641741661</v>
+        <v>300.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4433,34 +4535,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C116" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D116" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E116" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F116" t="n">
-        <v>3471.4688</v>
+        <v>1900</v>
       </c>
       <c r="G116" t="n">
-        <v>-12747.99641741661</v>
+        <v>300.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4468,34 +4571,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C117" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D117" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E117" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F117" t="n">
-        <v>1802.4933</v>
+        <v>4738.3554</v>
       </c>
       <c r="G117" t="n">
-        <v>-12747.99641741661</v>
+        <v>300</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4503,34 +4607,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C118" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D118" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E118" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0001</v>
+        <v>20</v>
       </c>
       <c r="G118" t="n">
-        <v>-12747.99641741661</v>
+        <v>299.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4538,34 +4643,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C119" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D119" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E119" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F119" t="n">
-        <v>1351.8701</v>
+        <v>13.463</v>
       </c>
       <c r="G119" t="n">
-        <v>-12747.99641741661</v>
+        <v>299.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4573,34 +4679,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C120" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D120" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E120" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F120" t="n">
-        <v>1465</v>
+        <v>299</v>
       </c>
       <c r="G120" t="n">
-        <v>-11282.99641741661</v>
+        <v>299.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4608,34 +4715,35 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C121" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D121" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E121" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F121" t="n">
-        <v>2040</v>
+        <v>15164.9173</v>
       </c>
       <c r="G121" t="n">
-        <v>-13322.99641741661</v>
+        <v>299.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4643,6 +4751,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4661,16 +4770,16 @@
         <v>297</v>
       </c>
       <c r="F122" t="n">
-        <v>2372</v>
+        <v>252.202</v>
       </c>
       <c r="G122" t="n">
-        <v>-10950.99641741661</v>
+        <v>298.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4678,13 +4787,14 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C123" t="n">
         <v>297</v>
@@ -4693,19 +4803,19 @@
         <v>297</v>
       </c>
       <c r="E123" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F123" t="n">
-        <v>3879.0048</v>
+        <v>105</v>
       </c>
       <c r="G123" t="n">
-        <v>-10950.99641741661</v>
+        <v>298</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4713,6 +4823,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4731,16 +4842,16 @@
         <v>297</v>
       </c>
       <c r="F124" t="n">
-        <v>471.2462</v>
+        <v>54.189</v>
       </c>
       <c r="G124" t="n">
-        <v>-10950.99641741661</v>
+        <v>297.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4748,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C125" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D125" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E125" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F125" t="n">
-        <v>7080.0318</v>
+        <v>298.2473</v>
       </c>
       <c r="G125" t="n">
-        <v>-3870.964617416606</v>
+        <v>296.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4783,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C126" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D126" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E126" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F126" t="n">
-        <v>400</v>
+        <v>68.99039999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-4270.964617416606</v>
+        <v>296.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4818,6 +4931,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4836,10 +4950,10 @@
         <v>297</v>
       </c>
       <c r="F127" t="n">
-        <v>560</v>
+        <v>33.67003367003367</v>
       </c>
       <c r="G127" t="n">
-        <v>-4270.964617416606</v>
+        <v>296.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4853,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C128" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D128" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E128" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F128" t="n">
-        <v>30500</v>
+        <v>9.7845</v>
       </c>
       <c r="G128" t="n">
-        <v>26229.0353825834</v>
+        <v>296.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4888,6 +5003,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4906,10 +5022,10 @@
         <v>297</v>
       </c>
       <c r="F129" t="n">
-        <v>29.6799</v>
+        <v>5.037</v>
       </c>
       <c r="G129" t="n">
-        <v>26199.3554825834</v>
+        <v>296.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4923,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C130" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D130" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E130" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F130" t="n">
-        <v>800</v>
+        <v>170.1885</v>
       </c>
       <c r="G130" t="n">
-        <v>25399.3554825834</v>
+        <v>296.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4958,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C131" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D131" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E131" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F131" t="n">
-        <v>177.9064</v>
+        <v>101.694</v>
       </c>
       <c r="G131" t="n">
-        <v>25577.2618825834</v>
+        <v>296.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4993,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C132" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D132" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E132" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F132" t="n">
-        <v>209</v>
+        <v>9.975</v>
       </c>
       <c r="G132" t="n">
-        <v>25577.2618825834</v>
+        <v>296</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5028,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C133" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D133" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E133" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F133" t="n">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="G133" t="n">
-        <v>25577.2618825834</v>
+        <v>295.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5063,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C134" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D134" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E134" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F134" t="n">
-        <v>14.9136</v>
+        <v>15321.5642</v>
       </c>
       <c r="G134" t="n">
-        <v>25592.1754825834</v>
+        <v>295</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5098,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C135" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D135" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E135" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F135" t="n">
-        <v>105.0864</v>
+        <v>1850</v>
       </c>
       <c r="G135" t="n">
-        <v>25592.1754825834</v>
+        <v>294.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5133,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C136" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D136" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E136" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F136" t="n">
-        <v>112</v>
+        <v>12736.7675</v>
       </c>
       <c r="G136" t="n">
-        <v>25480.1754825834</v>
+        <v>294.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5168,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C137" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D137" t="n">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E137" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>1502.5797</v>
       </c>
       <c r="G137" t="n">
-        <v>25680.1754825834</v>
+        <v>293.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5203,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C138" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D138" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E138" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F138" t="n">
-        <v>1786.4523</v>
+        <v>208.721</v>
       </c>
       <c r="G138" t="n">
-        <v>25680.1754825834</v>
+        <v>293</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5238,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E139" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F139" t="n">
-        <v>14.3167</v>
+        <v>877.7659</v>
       </c>
       <c r="G139" t="n">
-        <v>25680.1754825834</v>
+        <v>293.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5273,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C140" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D140" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E140" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F140" t="n">
-        <v>745</v>
+        <v>7142.8266</v>
       </c>
       <c r="G140" t="n">
-        <v>25680.1754825834</v>
+        <v>293.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5308,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C141" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D141" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E141" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F141" t="n">
-        <v>125</v>
+        <v>787.9294</v>
       </c>
       <c r="G141" t="n">
-        <v>25805.1754825834</v>
+        <v>293.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5343,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C142" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D142" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E142" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F142" t="n">
-        <v>213.6181</v>
+        <v>706.7408</v>
       </c>
       <c r="G142" t="n">
-        <v>26018.7935825834</v>
+        <v>294.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5378,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C143" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D143" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E143" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F143" t="n">
-        <v>1142</v>
+        <v>3650</v>
       </c>
       <c r="G143" t="n">
-        <v>27160.7935825834</v>
+        <v>295.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5413,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C144" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D144" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E144" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F144" t="n">
-        <v>187</v>
+        <v>1709.217</v>
       </c>
       <c r="G144" t="n">
-        <v>26973.7935825834</v>
+        <v>295.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5448,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C145" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D145" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E145" t="n">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F145" t="n">
-        <v>1413.0815</v>
+        <v>745</v>
       </c>
       <c r="G145" t="n">
-        <v>28386.8750825834</v>
+        <v>295.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5483,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C146" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D146" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E146" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F146" t="n">
-        <v>629.7778</v>
+        <v>2667.6423</v>
       </c>
       <c r="G146" t="n">
-        <v>28386.8750825834</v>
+        <v>295.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5518,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C147" t="n">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D147" t="n">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E147" t="n">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F147" t="n">
-        <v>14.2338</v>
+        <v>2922.3385</v>
       </c>
       <c r="G147" t="n">
-        <v>28372.64128258339</v>
+        <v>294.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5553,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C148" t="n">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D148" t="n">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E148" t="n">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F148" t="n">
-        <v>1735.0727</v>
+        <v>337.4123</v>
       </c>
       <c r="G148" t="n">
-        <v>26637.56858258339</v>
+        <v>293.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5588,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C149" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D149" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E149" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F149" t="n">
-        <v>4</v>
+        <v>3005.8395</v>
       </c>
       <c r="G149" t="n">
-        <v>26641.56858258339</v>
+        <v>292.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5623,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C150" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D150" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E150" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F150" t="n">
-        <v>644.3538</v>
+        <v>1072.1985</v>
       </c>
       <c r="G150" t="n">
-        <v>26641.56858258339</v>
+        <v>291.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5658,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C151" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D151" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E151" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>520.626</v>
       </c>
       <c r="G151" t="n">
-        <v>26841.56858258339</v>
+        <v>290.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5693,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C152" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D152" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E152" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F152" t="n">
-        <v>1697.429</v>
+        <v>7712.8717</v>
       </c>
       <c r="G152" t="n">
-        <v>26841.56858258339</v>
+        <v>289.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5728,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C153" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D153" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E153" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F153" t="n">
-        <v>2849.0034</v>
+        <v>8236.309999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>23992.56518258339</v>
+        <v>289.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5763,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C154" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D154" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E154" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F154" t="n">
-        <v>1020.4776</v>
+        <v>755.323</v>
       </c>
       <c r="G154" t="n">
-        <v>25013.04278258339</v>
+        <v>289</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5798,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C155" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D155" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E155" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F155" t="n">
-        <v>571.8502</v>
+        <v>4119.7107</v>
       </c>
       <c r="G155" t="n">
-        <v>24441.19258258339</v>
+        <v>289</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5833,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C156" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D156" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E156" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F156" t="n">
-        <v>110</v>
+        <v>597.7602000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>24331.19258258339</v>
+        <v>289.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5868,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C157" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D157" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E157" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F157" t="n">
-        <v>3890</v>
+        <v>209.8899</v>
       </c>
       <c r="G157" t="n">
-        <v>24331.19258258339</v>
+        <v>289.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5903,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C158" t="n">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D158" t="n">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E158" t="n">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F158" t="n">
-        <v>1900</v>
+        <v>25.6369</v>
       </c>
       <c r="G158" t="n">
-        <v>22431.19258258339</v>
+        <v>290</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5938,28 +6083,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C159" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D159" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E159" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F159" t="n">
-        <v>4738.3554</v>
+        <v>8149.436</v>
       </c>
       <c r="G159" t="n">
-        <v>27169.54798258339</v>
+        <v>290</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5973,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C160" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D160" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E160" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>2172.0737</v>
       </c>
       <c r="G160" t="n">
-        <v>27169.54798258339</v>
+        <v>289.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6008,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C161" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D161" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E161" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F161" t="n">
-        <v>13.463</v>
+        <v>24.3945</v>
       </c>
       <c r="G161" t="n">
-        <v>27169.54798258339</v>
+        <v>289.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6043,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C162" t="n">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D162" t="n">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E162" t="n">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F162" t="n">
-        <v>299</v>
+        <v>1604.6883</v>
       </c>
       <c r="G162" t="n">
-        <v>26870.54798258339</v>
+        <v>288.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6078,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C163" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D163" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E163" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F163" t="n">
-        <v>15164.9173</v>
+        <v>10.7615</v>
       </c>
       <c r="G163" t="n">
-        <v>11705.63068258339</v>
+        <v>288.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6113,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C164" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D164" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E164" t="n">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F164" t="n">
-        <v>252.202</v>
+        <v>2467.125</v>
       </c>
       <c r="G164" t="n">
-        <v>11705.63068258339</v>
+        <v>288</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6148,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C165" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D165" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E165" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F165" t="n">
-        <v>105</v>
+        <v>842.736</v>
       </c>
       <c r="G165" t="n">
-        <v>11705.63068258339</v>
+        <v>287.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6183,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C166" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D166" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E166" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F166" t="n">
-        <v>54.189</v>
+        <v>9</v>
       </c>
       <c r="G166" t="n">
-        <v>11705.63068258339</v>
+        <v>287.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6218,28 +6371,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C167" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D167" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E167" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F167" t="n">
-        <v>298.2473</v>
+        <v>2387.5847</v>
       </c>
       <c r="G167" t="n">
-        <v>11407.38338258339</v>
+        <v>287</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6253,28 +6407,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C168" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D168" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E168" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F168" t="n">
-        <v>68.99039999999999</v>
+        <v>3137.0983</v>
       </c>
       <c r="G168" t="n">
-        <v>11338.39298258339</v>
+        <v>286.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6288,28 +6443,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C169" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D169" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E169" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F169" t="n">
-        <v>33.67003367003367</v>
+        <v>170.9999</v>
       </c>
       <c r="G169" t="n">
-        <v>11372.06301625342</v>
+        <v>286</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6323,28 +6479,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C170" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D170" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E170" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F170" t="n">
-        <v>9.7845</v>
+        <v>12226.5914</v>
       </c>
       <c r="G170" t="n">
-        <v>11372.06301625342</v>
+        <v>285.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6358,28 +6515,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C171" t="n">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D171" t="n">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E171" t="n">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F171" t="n">
-        <v>5.037</v>
+        <v>179.5035</v>
       </c>
       <c r="G171" t="n">
-        <v>11372.06301625342</v>
+        <v>285.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6393,28 +6551,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C172" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D172" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E172" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F172" t="n">
-        <v>170.1885</v>
+        <v>1000</v>
       </c>
       <c r="G172" t="n">
-        <v>11201.87451625342</v>
+        <v>284.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6428,28 +6587,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C173" t="n">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D173" t="n">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E173" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F173" t="n">
-        <v>101.694</v>
+        <v>11.2151</v>
       </c>
       <c r="G173" t="n">
-        <v>11303.56851625342</v>
+        <v>284</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6463,28 +6623,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C174" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D174" t="n">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E174" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F174" t="n">
-        <v>9.975</v>
+        <v>1452.8866</v>
       </c>
       <c r="G174" t="n">
-        <v>11293.59351625342</v>
+        <v>283.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6498,28 +6659,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C175" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D175" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E175" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F175" t="n">
-        <v>9</v>
+        <v>1282.388</v>
       </c>
       <c r="G175" t="n">
-        <v>11293.59351625342</v>
+        <v>282.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6533,763 +6695,941 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C176" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D176" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E176" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F176" t="n">
-        <v>15321.5642</v>
+        <v>1000</v>
       </c>
       <c r="G176" t="n">
-        <v>-4027.970683746578</v>
+        <v>281.8</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>281</v>
+      </c>
+      <c r="K176" t="n">
+        <v>281</v>
+      </c>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C177" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D177" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E177" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F177" t="n">
-        <v>1850</v>
+        <v>846.9215</v>
       </c>
       <c r="G177" t="n">
-        <v>-4027.970683746578</v>
+        <v>281.2</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>281</v>
+      </c>
+      <c r="K177" t="n">
+        <v>281</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C178" t="n">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D178" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E178" t="n">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F178" t="n">
-        <v>12736.7675</v>
+        <v>16.0013</v>
       </c>
       <c r="G178" t="n">
-        <v>-16764.73818374658</v>
+        <v>280.8</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>280</v>
+      </c>
+      <c r="K178" t="n">
+        <v>281</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C179" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D179" t="n">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E179" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F179" t="n">
-        <v>1502.5797</v>
+        <v>8233.975</v>
       </c>
       <c r="G179" t="n">
-        <v>-18267.31788374658</v>
+        <v>280.8</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>281</v>
+      </c>
+      <c r="K179" t="n">
+        <v>281</v>
+      </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C180" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D180" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E180" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F180" t="n">
-        <v>208.721</v>
+        <v>14.4645</v>
       </c>
       <c r="G180" t="n">
-        <v>-18267.31788374658</v>
+        <v>280.8</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>281</v>
+      </c>
+      <c r="K180" t="n">
+        <v>281</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C181" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D181" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E181" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F181" t="n">
-        <v>877.7659</v>
+        <v>10.473</v>
       </c>
       <c r="G181" t="n">
-        <v>-17389.55198374658</v>
+        <v>280.8</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>281</v>
+      </c>
+      <c r="K181" t="n">
+        <v>281</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C182" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D182" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E182" t="n">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F182" t="n">
-        <v>7142.8266</v>
+        <v>14.4645</v>
       </c>
       <c r="G182" t="n">
-        <v>-24532.37858374658</v>
+        <v>281</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>281</v>
+      </c>
+      <c r="K182" t="n">
+        <v>281</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C183" t="n">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D183" t="n">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E183" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F183" t="n">
-        <v>787.9294</v>
+        <v>5088.2392</v>
       </c>
       <c r="G183" t="n">
-        <v>-23744.44918374658</v>
+        <v>281.2</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>281</v>
+      </c>
+      <c r="K183" t="n">
+        <v>281</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C184" t="n">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D184" t="n">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E184" t="n">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F184" t="n">
-        <v>706.7408</v>
+        <v>41973.5865</v>
       </c>
       <c r="G184" t="n">
-        <v>-23037.70838374658</v>
+        <v>281.6</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>282</v>
+      </c>
+      <c r="K184" t="n">
+        <v>281</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C185" t="n">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D185" t="n">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E185" t="n">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F185" t="n">
-        <v>3650</v>
+        <v>19.5177</v>
       </c>
       <c r="G185" t="n">
-        <v>-23037.70838374658</v>
+        <v>281.8</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>283</v>
+      </c>
+      <c r="K185" t="n">
+        <v>281</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C186" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D186" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E186" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F186" t="n">
-        <v>1709.217</v>
+        <v>1794.5676</v>
       </c>
       <c r="G186" t="n">
-        <v>-23037.70838374658</v>
+        <v>281.8</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>282</v>
+      </c>
+      <c r="K186" t="n">
+        <v>281</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C187" t="n">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D187" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E187" t="n">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F187" t="n">
-        <v>745</v>
+        <v>2230</v>
       </c>
       <c r="G187" t="n">
-        <v>-23782.70838374658</v>
+        <v>281.4</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>281</v>
+      </c>
+      <c r="K187" t="n">
+        <v>281</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C188" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D188" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E188" t="n">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F188" t="n">
-        <v>2667.6423</v>
+        <v>1521.1002</v>
       </c>
       <c r="G188" t="n">
-        <v>-26450.35068374658</v>
+        <v>281</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>279</v>
+      </c>
+      <c r="K188" t="n">
+        <v>281</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C189" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D189" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E189" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F189" t="n">
-        <v>2922.3385</v>
+        <v>1562.4997</v>
       </c>
       <c r="G189" t="n">
-        <v>-29372.68918374658</v>
+        <v>280.4</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>280</v>
+      </c>
+      <c r="K189" t="n">
+        <v>281</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C190" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D190" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E190" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F190" t="n">
-        <v>337.4123</v>
+        <v>7101.3637</v>
       </c>
       <c r="G190" t="n">
-        <v>-29710.10148374658</v>
+        <v>279.6</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>280</v>
+      </c>
+      <c r="K190" t="n">
+        <v>281</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C191" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D191" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E191" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F191" t="n">
-        <v>3005.8395</v>
+        <v>272.7709</v>
       </c>
       <c r="G191" t="n">
-        <v>-32715.94098374658</v>
+        <v>279</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>278</v>
+      </c>
+      <c r="K191" t="n">
+        <v>281</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C192" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D192" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E192" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F192" t="n">
-        <v>1072.1985</v>
+        <v>899.8125</v>
       </c>
       <c r="G192" t="n">
-        <v>-33788.13948374658</v>
+        <v>279.6</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>278</v>
+      </c>
+      <c r="K192" t="n">
+        <v>281</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C193" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D193" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E193" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F193" t="n">
-        <v>520.626</v>
+        <v>25.7949</v>
       </c>
       <c r="G193" t="n">
-        <v>-33788.13948374658</v>
+        <v>280</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>282</v>
+      </c>
+      <c r="K193" t="n">
+        <v>281</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C194" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D194" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E194" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F194" t="n">
-        <v>7712.8717</v>
+        <v>74.2051</v>
       </c>
       <c r="G194" t="n">
-        <v>-33788.13948374658</v>
+        <v>280.4</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>282</v>
+      </c>
+      <c r="K194" t="n">
+        <v>281</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C195" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D195" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E195" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F195" t="n">
-        <v>8236.309999999999</v>
+        <v>25.7949</v>
       </c>
       <c r="G195" t="n">
-        <v>-33788.13948374658</v>
+        <v>281.4</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>282</v>
+      </c>
+      <c r="K195" t="n">
+        <v>281</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C196" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D196" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E196" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F196" t="n">
-        <v>755.323</v>
+        <v>3019.34</v>
       </c>
       <c r="G196" t="n">
-        <v>-33788.13948374658</v>
+        <v>282.6</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>283</v>
+      </c>
+      <c r="K196" t="n">
+        <v>281</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C197" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D197" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E197" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F197" t="n">
-        <v>4119.7107</v>
+        <v>3528.7719</v>
       </c>
       <c r="G197" t="n">
-        <v>-33788.13948374658</v>
+        <v>282.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7298,33 +7638,40 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>281</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C198" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D198" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E198" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F198" t="n">
-        <v>597.7602000000001</v>
+        <v>662</v>
       </c>
       <c r="G198" t="n">
-        <v>-33190.37928374658</v>
+        <v>282.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7333,33 +7680,40 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>281</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C199" t="n">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D199" t="n">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E199" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F199" t="n">
-        <v>209.8899</v>
+        <v>8432.3537</v>
       </c>
       <c r="G199" t="n">
-        <v>-33190.37928374658</v>
+        <v>282.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7368,33 +7722,40 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>281</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C200" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D200" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E200" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F200" t="n">
-        <v>25.6369</v>
+        <v>6301.6112</v>
       </c>
       <c r="G200" t="n">
-        <v>-33216.01618374658</v>
+        <v>282.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7403,33 +7764,40 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>281</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C201" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D201" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E201" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F201" t="n">
-        <v>8149.436</v>
+        <v>7998.2214</v>
       </c>
       <c r="G201" t="n">
-        <v>-41365.45218374658</v>
+        <v>281.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7438,33 +7806,40 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>281</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C202" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D202" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E202" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F202" t="n">
-        <v>2172.0737</v>
+        <v>2277.0024</v>
       </c>
       <c r="G202" t="n">
-        <v>-43537.52588374658</v>
+        <v>281.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7473,33 +7848,40 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>281</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C203" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D203" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E203" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F203" t="n">
-        <v>24.3945</v>
+        <v>30.1554</v>
       </c>
       <c r="G203" t="n">
-        <v>-43537.52588374658</v>
+        <v>281.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7508,33 +7890,40 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>281</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C204" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D204" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E204" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F204" t="n">
-        <v>1604.6883</v>
+        <v>3386.8518</v>
       </c>
       <c r="G204" t="n">
-        <v>-43537.52588374658</v>
+        <v>281.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7543,33 +7932,40 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>281</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C205" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D205" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E205" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F205" t="n">
-        <v>10.7615</v>
+        <v>3535</v>
       </c>
       <c r="G205" t="n">
-        <v>-43537.52588374658</v>
+        <v>282.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7578,11 +7974,18 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>281</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7601,10 +8004,10 @@
         <v>288</v>
       </c>
       <c r="F206" t="n">
-        <v>2467.125</v>
+        <v>348.705</v>
       </c>
       <c r="G206" t="n">
-        <v>-43537.52588374658</v>
+        <v>283.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7613,50 +8016,60 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>281</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C207" t="n">
         <v>287</v>
       </c>
       <c r="D207" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E207" t="n">
         <v>287</v>
       </c>
       <c r="F207" t="n">
-        <v>842.736</v>
+        <v>3510.2686</v>
       </c>
       <c r="G207" t="n">
-        <v>-44380.26188374658</v>
+        <v>285</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>288</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>288</v>
-      </c>
-      <c r="L207" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7675,31 +8088,30 @@
         <v>286</v>
       </c>
       <c r="F208" t="n">
-        <v>9</v>
+        <v>3496.5035</v>
       </c>
       <c r="G208" t="n">
-        <v>-44389.26188374658</v>
+        <v>285.8</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>287</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7718,31 +8130,30 @@
         <v>286</v>
       </c>
       <c r="F209" t="n">
-        <v>2387.5847</v>
+        <v>1785.925</v>
       </c>
       <c r="G209" t="n">
-        <v>-44389.26188374658</v>
+        <v>286.4</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>286</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7761,27 +8172,30 @@
         <v>286</v>
       </c>
       <c r="F210" t="n">
-        <v>3137.0983</v>
+        <v>15.2094</v>
       </c>
       <c r="G210" t="n">
-        <v>-44389.26188374658</v>
+        <v>286.6</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>286</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>286</v>
-      </c>
-      <c r="L210" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7800,31 +8214,30 @@
         <v>285</v>
       </c>
       <c r="F211" t="n">
-        <v>170.9999</v>
+        <v>1784.3445</v>
       </c>
       <c r="G211" t="n">
-        <v>-44560.26178374658</v>
+        <v>286</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>286</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
+      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7843,1718 +8256,72 @@
         <v>285</v>
       </c>
       <c r="F212" t="n">
-        <v>12226.5914</v>
+        <v>237.6186</v>
       </c>
       <c r="G212" t="n">
-        <v>-44560.26178374658</v>
+        <v>285.6</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>285</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
+      <c r="N212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C213" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D213" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E213" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F213" t="n">
-        <v>179.5035</v>
+        <v>1158.2223</v>
       </c>
       <c r="G213" t="n">
-        <v>-44739.76528374658</v>
+        <v>285.4</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>285</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>285</v>
-      </c>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>283</v>
-      </c>
-      <c r="C214" t="n">
-        <v>283</v>
-      </c>
-      <c r="D214" t="n">
-        <v>283</v>
-      </c>
-      <c r="E214" t="n">
-        <v>283</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-45739.76528374658</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>285</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>283</v>
-      </c>
-      <c r="C215" t="n">
-        <v>283</v>
-      </c>
-      <c r="D215" t="n">
-        <v>283</v>
-      </c>
-      <c r="E215" t="n">
-        <v>283</v>
-      </c>
-      <c r="F215" t="n">
-        <v>11.2151</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-45739.76528374658</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>285</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>282</v>
-      </c>
-      <c r="C216" t="n">
-        <v>281</v>
-      </c>
-      <c r="D216" t="n">
-        <v>282</v>
-      </c>
-      <c r="E216" t="n">
-        <v>281</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1452.8866</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-47192.65188374658</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>281</v>
-      </c>
-      <c r="C217" t="n">
-        <v>281</v>
-      </c>
-      <c r="D217" t="n">
-        <v>281</v>
-      </c>
-      <c r="E217" t="n">
-        <v>281</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1282.388</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-47192.65188374658</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>281</v>
-      </c>
-      <c r="K217" t="n">
-        <v>281</v>
-      </c>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>281</v>
-      </c>
-      <c r="C218" t="n">
-        <v>281</v>
-      </c>
-      <c r="D218" t="n">
-        <v>281</v>
-      </c>
-      <c r="E218" t="n">
-        <v>281</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-47192.65188374658</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>281</v>
-      </c>
-      <c r="K218" t="n">
-        <v>281</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>280</v>
-      </c>
-      <c r="C219" t="n">
-        <v>280</v>
-      </c>
-      <c r="D219" t="n">
-        <v>280</v>
-      </c>
-      <c r="E219" t="n">
-        <v>280</v>
-      </c>
-      <c r="F219" t="n">
-        <v>846.9215</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-48039.57338374657</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>281</v>
-      </c>
-      <c r="K219" t="n">
-        <v>281</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>281</v>
-      </c>
-      <c r="C220" t="n">
-        <v>281</v>
-      </c>
-      <c r="D220" t="n">
-        <v>281</v>
-      </c>
-      <c r="E220" t="n">
-        <v>281</v>
-      </c>
-      <c r="F220" t="n">
-        <v>16.0013</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>280</v>
-      </c>
-      <c r="K220" t="n">
-        <v>280</v>
-      </c>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>281</v>
-      </c>
-      <c r="C221" t="n">
-        <v>281</v>
-      </c>
-      <c r="D221" t="n">
-        <v>281</v>
-      </c>
-      <c r="E221" t="n">
-        <v>281</v>
-      </c>
-      <c r="F221" t="n">
-        <v>8233.975</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>281</v>
-      </c>
-      <c r="K221" t="n">
-        <v>280</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>281</v>
-      </c>
-      <c r="C222" t="n">
-        <v>281</v>
-      </c>
-      <c r="D222" t="n">
-        <v>281</v>
-      </c>
-      <c r="E222" t="n">
-        <v>281</v>
-      </c>
-      <c r="F222" t="n">
-        <v>14.4645</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>281</v>
-      </c>
-      <c r="K222" t="n">
-        <v>280</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>281</v>
-      </c>
-      <c r="C223" t="n">
-        <v>281</v>
-      </c>
-      <c r="D223" t="n">
-        <v>281</v>
-      </c>
-      <c r="E223" t="n">
-        <v>281</v>
-      </c>
-      <c r="F223" t="n">
-        <v>10.473</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>281</v>
-      </c>
-      <c r="C224" t="n">
-        <v>281</v>
-      </c>
-      <c r="D224" t="n">
-        <v>281</v>
-      </c>
-      <c r="E224" t="n">
-        <v>281</v>
-      </c>
-      <c r="F224" t="n">
-        <v>14.4645</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>281</v>
-      </c>
-      <c r="C225" t="n">
-        <v>282</v>
-      </c>
-      <c r="D225" t="n">
-        <v>282</v>
-      </c>
-      <c r="E225" t="n">
-        <v>281</v>
-      </c>
-      <c r="F225" t="n">
-        <v>5088.2392</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-42935.33288374657</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>281</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>282</v>
-      </c>
-      <c r="C226" t="n">
-        <v>283</v>
-      </c>
-      <c r="D226" t="n">
-        <v>283</v>
-      </c>
-      <c r="E226" t="n">
-        <v>282</v>
-      </c>
-      <c r="F226" t="n">
-        <v>41973.5865</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-961.7463837465693</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>282</v>
-      </c>
-      <c r="C227" t="n">
-        <v>282</v>
-      </c>
-      <c r="D227" t="n">
-        <v>282</v>
-      </c>
-      <c r="E227" t="n">
-        <v>282</v>
-      </c>
-      <c r="F227" t="n">
-        <v>19.5177</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-981.2640837465693</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>281</v>
-      </c>
-      <c r="C228" t="n">
-        <v>281</v>
-      </c>
-      <c r="D228" t="n">
-        <v>281</v>
-      </c>
-      <c r="E228" t="n">
-        <v>281</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1794.5676</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-2775.83168374657</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>280</v>
-      </c>
-      <c r="C229" t="n">
-        <v>279</v>
-      </c>
-      <c r="D229" t="n">
-        <v>280</v>
-      </c>
-      <c r="E229" t="n">
-        <v>279</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2230</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-5005.83168374657</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>280</v>
-      </c>
-      <c r="C230" t="n">
-        <v>280</v>
-      </c>
-      <c r="D230" t="n">
-        <v>280</v>
-      </c>
-      <c r="E230" t="n">
-        <v>280</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1521.1002</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-3484.73148374657</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>280</v>
-      </c>
-      <c r="C231" t="n">
-        <v>280</v>
-      </c>
-      <c r="D231" t="n">
-        <v>280</v>
-      </c>
-      <c r="E231" t="n">
-        <v>280</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1562.4997</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-3484.73148374657</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>280</v>
-      </c>
-      <c r="C232" t="n">
-        <v>278</v>
-      </c>
-      <c r="D232" t="n">
-        <v>280</v>
-      </c>
-      <c r="E232" t="n">
-        <v>278</v>
-      </c>
-      <c r="F232" t="n">
-        <v>7101.3637</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-10586.09518374657</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>278</v>
-      </c>
-      <c r="C233" t="n">
-        <v>278</v>
-      </c>
-      <c r="D233" t="n">
-        <v>278</v>
-      </c>
-      <c r="E233" t="n">
-        <v>277</v>
-      </c>
-      <c r="F233" t="n">
-        <v>272.7709</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-10586.09518374657</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>280</v>
-      </c>
-      <c r="C234" t="n">
-        <v>282</v>
-      </c>
-      <c r="D234" t="n">
-        <v>282</v>
-      </c>
-      <c r="E234" t="n">
-        <v>280</v>
-      </c>
-      <c r="F234" t="n">
-        <v>899.8125</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-9686.282683746569</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>282</v>
-      </c>
-      <c r="C235" t="n">
-        <v>282</v>
-      </c>
-      <c r="D235" t="n">
-        <v>282</v>
-      </c>
-      <c r="E235" t="n">
-        <v>282</v>
-      </c>
-      <c r="F235" t="n">
-        <v>25.7949</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-9686.282683746569</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>282</v>
-      </c>
-      <c r="C236" t="n">
-        <v>282</v>
-      </c>
-      <c r="D236" t="n">
-        <v>282</v>
-      </c>
-      <c r="E236" t="n">
-        <v>282</v>
-      </c>
-      <c r="F236" t="n">
-        <v>74.2051</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-9686.282683746569</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>283</v>
-      </c>
-      <c r="C237" t="n">
-        <v>283</v>
-      </c>
-      <c r="D237" t="n">
-        <v>283</v>
-      </c>
-      <c r="E237" t="n">
-        <v>283</v>
-      </c>
-      <c r="F237" t="n">
-        <v>25.7949</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-9660.487783746568</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>284</v>
-      </c>
-      <c r="C238" t="n">
-        <v>284</v>
-      </c>
-      <c r="D238" t="n">
-        <v>284</v>
-      </c>
-      <c r="E238" t="n">
-        <v>284</v>
-      </c>
-      <c r="F238" t="n">
-        <v>3019.34</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-6641.147783746568</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>285</v>
-      </c>
-      <c r="C239" t="n">
-        <v>283</v>
-      </c>
-      <c r="D239" t="n">
-        <v>285</v>
-      </c>
-      <c r="E239" t="n">
-        <v>283</v>
-      </c>
-      <c r="F239" t="n">
-        <v>3528.7719</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-10169.91968374657</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>281</v>
-      </c>
-      <c r="C240" t="n">
-        <v>281</v>
-      </c>
-      <c r="D240" t="n">
-        <v>281</v>
-      </c>
-      <c r="E240" t="n">
-        <v>281</v>
-      </c>
-      <c r="F240" t="n">
-        <v>662</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-10831.91968374657</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>281</v>
-      </c>
-      <c r="C241" t="n">
-        <v>282</v>
-      </c>
-      <c r="D241" t="n">
-        <v>282</v>
-      </c>
-      <c r="E241" t="n">
-        <v>281</v>
-      </c>
-      <c r="F241" t="n">
-        <v>8432.3537</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-2399.565983746568</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>282</v>
-      </c>
-      <c r="C242" t="n">
-        <v>282</v>
-      </c>
-      <c r="D242" t="n">
-        <v>282</v>
-      </c>
-      <c r="E242" t="n">
-        <v>282</v>
-      </c>
-      <c r="F242" t="n">
-        <v>6301.6112</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-2399.565983746568</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>282</v>
-      </c>
-      <c r="C243" t="n">
-        <v>281</v>
-      </c>
-      <c r="D243" t="n">
-        <v>282</v>
-      </c>
-      <c r="E243" t="n">
-        <v>281</v>
-      </c>
-      <c r="F243" t="n">
-        <v>7998.2214</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-10397.78738374657</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>281</v>
-      </c>
-      <c r="C244" t="n">
-        <v>281</v>
-      </c>
-      <c r="D244" t="n">
-        <v>281</v>
-      </c>
-      <c r="E244" t="n">
-        <v>281</v>
-      </c>
-      <c r="F244" t="n">
-        <v>2277.0024</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-10397.78738374657</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>282</v>
-      </c>
-      <c r="C245" t="n">
-        <v>282</v>
-      </c>
-      <c r="D245" t="n">
-        <v>282</v>
-      </c>
-      <c r="E245" t="n">
-        <v>282</v>
-      </c>
-      <c r="F245" t="n">
-        <v>30.1554</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-10367.63198374657</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>283</v>
-      </c>
-      <c r="C246" t="n">
-        <v>283</v>
-      </c>
-      <c r="D246" t="n">
-        <v>283</v>
-      </c>
-      <c r="E246" t="n">
-        <v>283</v>
-      </c>
-      <c r="F246" t="n">
-        <v>3386.8518</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-6980.780183746569</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>285</v>
-      </c>
-      <c r="C247" t="n">
-        <v>285</v>
-      </c>
-      <c r="D247" t="n">
-        <v>285</v>
-      </c>
-      <c r="E247" t="n">
-        <v>285</v>
-      </c>
-      <c r="F247" t="n">
-        <v>3535</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-3445.780183746569</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>288</v>
-      </c>
-      <c r="C248" t="n">
-        <v>288</v>
-      </c>
-      <c r="D248" t="n">
-        <v>288</v>
-      </c>
-      <c r="E248" t="n">
-        <v>288</v>
-      </c>
-      <c r="F248" t="n">
-        <v>348.705</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-3097.075183746569</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>288</v>
-      </c>
-      <c r="C249" t="n">
-        <v>287</v>
-      </c>
-      <c r="D249" t="n">
-        <v>288</v>
-      </c>
-      <c r="E249" t="n">
-        <v>287</v>
-      </c>
-      <c r="F249" t="n">
-        <v>3510.2686</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-6607.343783746568</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>286</v>
-      </c>
-      <c r="C250" t="n">
-        <v>286</v>
-      </c>
-      <c r="D250" t="n">
-        <v>286</v>
-      </c>
-      <c r="E250" t="n">
-        <v>286</v>
-      </c>
-      <c r="F250" t="n">
-        <v>3496.5035</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-10103.84728374657</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>286</v>
-      </c>
-      <c r="C251" t="n">
-        <v>286</v>
-      </c>
-      <c r="D251" t="n">
-        <v>286</v>
-      </c>
-      <c r="E251" t="n">
-        <v>286</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1785.925</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-10103.84728374657</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>286</v>
-      </c>
-      <c r="C252" t="n">
-        <v>286</v>
-      </c>
-      <c r="D252" t="n">
-        <v>286</v>
-      </c>
-      <c r="E252" t="n">
-        <v>286</v>
-      </c>
-      <c r="F252" t="n">
-        <v>15.2094</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-10103.84728374657</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>285</v>
-      </c>
-      <c r="C253" t="n">
-        <v>285</v>
-      </c>
-      <c r="D253" t="n">
-        <v>285</v>
-      </c>
-      <c r="E253" t="n">
-        <v>285</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1784.3445</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-11888.19178374657</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>285</v>
-      </c>
-      <c r="C254" t="n">
-        <v>285</v>
-      </c>
-      <c r="D254" t="n">
-        <v>285</v>
-      </c>
-      <c r="E254" t="n">
-        <v>285</v>
-      </c>
-      <c r="F254" t="n">
-        <v>237.6186</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-11888.19178374657</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>285</v>
-      </c>
-      <c r="C255" t="n">
-        <v>285</v>
-      </c>
-      <c r="D255" t="n">
-        <v>285</v>
-      </c>
-      <c r="E255" t="n">
-        <v>285</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1158.2223</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-11888.19178374657</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-33554.9852</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-33764.54029999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>283</v>
@@ -521,7 +521,7 @@
         <v>-32084.54029999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>281</v>
@@ -562,7 +562,7 @@
         <v>-24380.45029999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>285</v>
@@ -603,11 +603,9 @@
         <v>-25289.54029999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>283</v>
       </c>
@@ -644,7 +642,7 @@
         <v>-23437.54029999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>284</v>
@@ -685,9 +683,11 @@
         <v>-21067.54029999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>285</v>
+      </c>
       <c r="J8" t="n">
         <v>283</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>46278.71163029824</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
@@ -2604,11 +2604,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.030335689045937</v>
+        <v>1</v>
       </c>
       <c r="M57" t="inlineStr"/>
     </row>
@@ -2638,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>283</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2671,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>283</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2704,8 +2716,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>283</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2737,8 +2755,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>283</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2770,8 +2794,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>283</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2803,8 +2833,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>283</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2836,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>283</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2869,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>283</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2902,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>283</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2935,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>283</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2968,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>283</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3001,8 +3067,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>283</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3034,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>283</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3067,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>283</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3100,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>283</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3130,11 +3220,17 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>283</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3166,8 +3262,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>283</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3199,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>283</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3232,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>283</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3265,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>283</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3298,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>283</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3331,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>283</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3364,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>283</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>283</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3430,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>283</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3463,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>283</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3496,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>283</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3688,17 @@
         <v>-30314.13876970176</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>283</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3562,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>283</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3595,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>283</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3628,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>283</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3661,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>283</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3694,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>283</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3727,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>283</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3760,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>283</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3793,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>283</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3826,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>283</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3859,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>283</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3892,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>283</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3925,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>283</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3958,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>283</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3991,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>283</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4024,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>283</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4057,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>283</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4090,8 +4354,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>283</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4120,11 +4390,17 @@
         <v>-14939.53297514393</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>283</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4156,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>283</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4189,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>283</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4222,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>283</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4255,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>283</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4288,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>283</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4321,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>283</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4354,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>283</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4384,11 +4702,17 @@
         <v>33274.08582485606</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>283</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4420,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>283</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4453,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>283</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4486,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>283</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>283</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>283</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4585,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>283</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4618,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>283</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4648,15 +5014,23 @@
         <v>38265.82582485607</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>283</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>1.062137809187279</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.01423487544484</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4846,7 +5220,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4879,7 +5253,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4912,7 +5286,7 @@
         <v>29168.66258134958</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4945,7 +5319,7 @@
         <v>29146.43298134958</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4978,7 +5352,7 @@
         <v>18649.52488134958</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5011,7 +5385,7 @@
         <v>19745.79531490662</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5044,7 +5418,7 @@
         <v>19731.79531490662</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5077,7 +5451,7 @@
         <v>22076.12881490662</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5110,7 +5484,7 @@
         <v>18733.63381490663</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5143,7 +5517,7 @@
         <v>19451.60351490663</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5176,7 +5550,7 @@
         <v>-13248.39648509337</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5209,7 +5583,7 @@
         <v>-13248.39648509337</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5242,7 +5616,7 @@
         <v>-8210.396485093373</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5275,7 +5649,7 @@
         <v>-8210.396485093373</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5308,7 +5682,7 @@
         <v>-8210.396485093373</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5341,7 +5715,7 @@
         <v>-7572.719717416606</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5374,7 +5748,7 @@
         <v>-7572.719717416606</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5407,7 +5781,7 @@
         <v>-7572.719717416606</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5440,7 +5814,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5473,7 +5847,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5506,7 +5880,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5539,7 +5913,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5572,7 +5946,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5605,7 +5979,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5638,7 +6012,7 @@
         <v>-11282.99641741661</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5671,7 +6045,7 @@
         <v>-13322.99641741661</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5704,7 +6078,7 @@
         <v>-10950.99641741661</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5737,7 +6111,7 @@
         <v>-10950.99641741661</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5770,7 +6144,7 @@
         <v>-10950.99641741661</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5803,7 +6177,7 @@
         <v>-3870.964617416606</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5836,7 +6210,7 @@
         <v>-4270.964617416606</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5869,7 +6243,7 @@
         <v>-4270.964617416606</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5902,7 +6276,7 @@
         <v>26229.0353825834</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5935,7 +6309,7 @@
         <v>26199.3554825834</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5968,7 +6342,7 @@
         <v>25399.3554825834</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6001,7 +6375,7 @@
         <v>25577.2618825834</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6034,7 +6408,7 @@
         <v>25577.2618825834</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6133,7 +6507,7 @@
         <v>25592.1754825834</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6166,7 +6540,7 @@
         <v>25480.1754825834</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6199,7 +6573,7 @@
         <v>25680.1754825834</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6232,7 +6606,7 @@
         <v>25680.1754825834</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6265,7 +6639,7 @@
         <v>25680.1754825834</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6298,7 +6672,7 @@
         <v>25680.1754825834</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6331,7 +6705,7 @@
         <v>25805.1754825834</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6364,7 +6738,7 @@
         <v>26018.7935825834</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6397,7 +6771,7 @@
         <v>27160.7935825834</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6562,7 +6936,7 @@
         <v>26637.56858258339</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6595,7 +6969,7 @@
         <v>26641.56858258339</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6628,7 +7002,7 @@
         <v>26641.56858258339</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6661,7 +7035,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6727,7 +7101,7 @@
         <v>23992.56518258339</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6760,7 +7134,7 @@
         <v>25013.04278258339</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6793,7 +7167,7 @@
         <v>24441.19258258339</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6826,7 +7200,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6859,7 +7233,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6892,7 +7266,7 @@
         <v>22431.19258258339</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6925,7 +7299,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6958,7 +7332,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6991,7 +7365,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7024,7 +7398,7 @@
         <v>26870.54798258339</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7057,7 +7431,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7090,7 +7464,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7123,7 +7497,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7156,7 +7530,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7189,7 +7563,7 @@
         <v>11407.38338258339</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7222,7 +7596,7 @@
         <v>11338.39298258339</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7255,7 +7629,7 @@
         <v>11372.06301625342</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7288,7 +7662,7 @@
         <v>11372.06301625342</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7321,7 +7695,7 @@
         <v>11372.06301625342</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7354,7 +7728,7 @@
         <v>11201.87451625342</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7387,7 +7761,7 @@
         <v>11303.56851625342</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7420,7 +7794,7 @@
         <v>11293.59351625342</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7453,7 +7827,7 @@
         <v>11293.59351625342</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7486,7 +7860,7 @@
         <v>-4027.970683746578</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7519,7 +7893,7 @@
         <v>-4027.970683746578</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7552,7 +7926,7 @@
         <v>-16764.73818374658</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7585,7 +7959,7 @@
         <v>-18267.31788374658</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7618,7 +7992,7 @@
         <v>-18267.31788374658</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7651,7 +8025,7 @@
         <v>-17389.55198374658</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7684,7 +8058,7 @@
         <v>-24532.37858374658</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7717,7 +8091,7 @@
         <v>-23744.44918374658</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7750,7 +8124,7 @@
         <v>-23037.70838374658</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7783,7 +8157,7 @@
         <v>-23037.70838374658</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7816,7 +8190,7 @@
         <v>-23037.70838374658</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7849,7 +8223,7 @@
         <v>-23782.70838374658</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7882,7 +8256,7 @@
         <v>-26450.35068374658</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7915,7 +8289,7 @@
         <v>-29372.68918374658</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7948,7 +8322,7 @@
         <v>-29710.10148374658</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7981,7 +8355,7 @@
         <v>-32715.94098374658</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8014,7 +8388,7 @@
         <v>-33788.13948374658</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8047,7 +8421,7 @@
         <v>-33788.13948374658</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8080,7 +8454,7 @@
         <v>-33788.13948374658</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8113,7 +8487,7 @@
         <v>-33788.13948374658</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8146,7 +8520,7 @@
         <v>-33788.13948374658</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8179,7 +8553,7 @@
         <v>-33788.13948374658</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8212,7 +8586,7 @@
         <v>-33190.37928374658</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8245,7 +8619,7 @@
         <v>-33190.37928374658</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8278,7 +8652,7 @@
         <v>-33216.01618374658</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8311,7 +8685,7 @@
         <v>-41365.45218374658</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8344,7 +8718,7 @@
         <v>-43537.52588374658</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8377,7 +8751,7 @@
         <v>-43537.52588374658</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8410,7 +8784,7 @@
         <v>-43537.52588374658</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8443,7 +8817,7 @@
         <v>-43537.52588374658</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8476,7 +8850,7 @@
         <v>-43537.52588374658</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8509,7 +8883,7 @@
         <v>-44380.26188374658</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8542,7 +8916,7 @@
         <v>-44389.26188374658</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8575,7 +8949,7 @@
         <v>-44389.26188374658</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8608,7 +8982,7 @@
         <v>-44389.26188374658</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8641,7 +9015,7 @@
         <v>-44560.26178374658</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8674,7 +9048,7 @@
         <v>-44560.26178374658</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8707,7 +9081,7 @@
         <v>-44739.76528374658</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8740,7 +9114,7 @@
         <v>-45739.76528374658</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8773,7 +9147,7 @@
         <v>-45739.76528374658</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8806,7 +9180,7 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8839,7 +9213,7 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8874,8 +9248,12 @@
       <c r="H247" t="n">
         <v>1</v>
       </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>281</v>
+      </c>
+      <c r="J247" t="n">
+        <v>281</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8907,9 +9285,17 @@
       <c r="H248" t="n">
         <v>1</v>
       </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>281</v>
+      </c>
+      <c r="J248" t="n">
+        <v>281</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +9324,19 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>280</v>
+      </c>
+      <c r="J249" t="n">
+        <v>281</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8971,10 +9365,14 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>281</v>
+      </c>
+      <c r="J250" t="n">
+        <v>281</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -9004,7 +9402,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>281</v>
@@ -9012,7 +9410,11 @@
       <c r="J251" t="n">
         <v>281</v>
       </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9041,9 +9443,11 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>281</v>
+      </c>
       <c r="J252" t="n">
         <v>281</v>
       </c>
@@ -9080,7 +9484,7 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>281</v>
@@ -9088,11 +9492,7 @@
       <c r="J253" t="n">
         <v>281</v>
       </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9121,7 +9521,7 @@
         <v>-42935.33288374657</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>281</v>
@@ -9162,9 +9562,11 @@
         <v>-961.7463837465693</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>282</v>
+      </c>
       <c r="J255" t="n">
         <v>281</v>
       </c>
@@ -9201,9 +9603,11 @@
         <v>-981.2640837465693</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>283</v>
+      </c>
       <c r="J256" t="n">
         <v>281</v>
       </c>
@@ -9396,9 +9800,11 @@
         <v>-10586.09518374657</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>280</v>
+      </c>
       <c r="J261" t="n">
         <v>281</v>
       </c>
@@ -9435,9 +9841,11 @@
         <v>-10586.09518374657</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>278</v>
+      </c>
       <c r="J262" t="n">
         <v>281</v>
       </c>
@@ -9474,7 +9882,7 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>278</v>
@@ -9515,9 +9923,11 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>282</v>
+      </c>
       <c r="J264" t="n">
         <v>281</v>
       </c>
@@ -9554,9 +9964,11 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>282</v>
+      </c>
       <c r="J265" t="n">
         <v>281</v>
       </c>
@@ -9593,7 +10005,7 @@
         <v>-9660.487783746568</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>282</v>
@@ -9634,7 +10046,7 @@
         <v>-6641.147783746568</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>283</v>
@@ -9753,11 +10165,9 @@
         <v>-2399.565983746568</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>281</v>
       </c>
@@ -9833,11 +10243,9 @@
         <v>-10397.78738374657</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>281</v>
       </c>
@@ -9874,11 +10282,9 @@
         <v>-10397.78738374657</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>281</v>
       </c>
@@ -9915,11 +10321,9 @@
         <v>-10367.63198374657</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>281</v>
       </c>
@@ -10112,7 +10516,7 @@
         <v>-10103.84728374657</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
@@ -10190,7 +10594,7 @@
         <v>-10103.84728374657</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
@@ -10229,7 +10633,7 @@
         <v>-11888.19178374657</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
@@ -10268,7 +10672,7 @@
         <v>-11888.19178374657</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
@@ -10307,7 +10711,7 @@
         <v>-11888.19178374657</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
@@ -10324,6 +10728,6 @@
       <c r="M284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-33764.54029999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>283</v>
-      </c>
-      <c r="J3" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-32084.54029999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>281</v>
-      </c>
-      <c r="J4" t="n">
-        <v>283</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-24380.45029999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>285</v>
-      </c>
-      <c r="J5" t="n">
-        <v>283</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>283</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,19 +616,11 @@
         <v>-23437.54029999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>284</v>
-      </c>
-      <c r="J7" t="n">
-        <v>283</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,19 +649,11 @@
         <v>-21067.54029999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>285</v>
-      </c>
-      <c r="J8" t="n">
-        <v>283</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -724,17 +682,11 @@
         <v>-21067.54029999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>283</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,17 +715,11 @@
         <v>-21093.80519999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>283</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -805,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>283</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -844,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>283</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -883,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>283</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -922,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>283</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -961,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>283</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>283</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1039,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>283</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>283</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1117,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>283</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>283</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1195,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>283</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>283</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1273,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>283</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1312,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>283</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1351,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>283</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1390,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>283</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1429,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>283</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1468,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>283</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1507,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>283</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1546,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>283</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1585,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>283</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>283</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1663,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>283</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1702,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>283</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1741,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>283</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1780,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>283</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1819,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>283</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1858,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>283</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1897,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>283</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1936,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>283</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1975,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>283</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2014,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>283</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2053,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>283</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2089,17 +1837,11 @@
         <v>47813.01333029824</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>283</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2128,17 +1870,11 @@
         <v>48648.01333029824</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>283</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>283</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2206,17 +1936,11 @@
         <v>49182.99883029824</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>283</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2245,17 +1969,11 @@
         <v>50047.99883029824</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>283</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2284,17 +2002,11 @@
         <v>51034.99883029824</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>283</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2323,17 +2035,11 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>283</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2362,17 +2068,11 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>283</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2401,17 +2101,11 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>283</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2440,17 +2134,11 @@
         <v>50625.18633029824</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>283</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2479,17 +2167,11 @@
         <v>51520.30793029824</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>283</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2518,17 +2200,11 @@
         <v>50451.30793029824</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>283</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2560,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>283</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2596,17 +2266,11 @@
         <v>46278.71163029824</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>283</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2635,17 +2299,11 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>283</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2674,17 +2332,11 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>283</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2713,17 +2365,11 @@
         <v>-14044.86956970176</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>283</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2755,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>283</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2794,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>283</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2830,17 +2464,11 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>283</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2869,17 +2497,11 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>283</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2908,17 +2530,11 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>283</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2947,17 +2563,11 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>283</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2986,17 +2596,11 @@
         <v>-9330.686669701761</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>283</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3025,17 +2629,11 @@
         <v>-9331.686669701761</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>283</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3064,17 +2662,11 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>283</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3103,17 +2695,11 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>283</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3142,17 +2728,11 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>283</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3181,17 +2761,11 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>283</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3220,17 +2794,11 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>283</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>283</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>283</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3340,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>283</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3379,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>283</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3415,17 +2959,11 @@
         <v>-34447.29306970176</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>283</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3454,17 +2992,11 @@
         <v>-32422.15506970176</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>283</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3025,11 @@
         <v>-34586.83946970176</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>283</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3535,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>283</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3574,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>283</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3613,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>283</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3652,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>283</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3688,17 +3190,11 @@
         <v>-30314.13876970176</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>283</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3730,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>283</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3769,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>283</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3808,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>283</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3847,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>283</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3886,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>283</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3925,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>283</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3964,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>283</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4003,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>283</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4042,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>283</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4081,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>283</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4120,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>283</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4159,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>283</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4198,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>283</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4237,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>283</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4276,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>283</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4315,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>283</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4354,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>283</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4393,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>283</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4432,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>283</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4471,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>283</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4510,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>283</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4549,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>283</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4588,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>283</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4627,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>283</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4666,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>283</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4705,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>283</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4744,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>283</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4783,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>283</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4822,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>283</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4861,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>283</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4900,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>283</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4939,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>283</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4978,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>283</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5014,23 +4312,15 @@
         <v>38265.82582485607</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>283</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.062137809187279</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1.01423487544484</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5220,7 +4510,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5253,7 +4543,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5286,7 +4576,7 @@
         <v>29168.66258134958</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5319,7 +4609,7 @@
         <v>29146.43298134958</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5352,7 +4642,7 @@
         <v>18649.52488134958</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5385,7 +4675,7 @@
         <v>19745.79531490662</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5418,7 +4708,7 @@
         <v>19731.79531490662</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5451,7 +4741,7 @@
         <v>22076.12881490662</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5484,7 +4774,7 @@
         <v>18733.63381490663</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5517,7 +4807,7 @@
         <v>19451.60351490663</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5550,7 +4840,7 @@
         <v>-13248.39648509337</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5583,7 +4873,7 @@
         <v>-13248.39648509337</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5616,7 +4906,7 @@
         <v>-8210.396485093373</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5649,7 +4939,7 @@
         <v>-8210.396485093373</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5682,7 +4972,7 @@
         <v>-8210.396485093373</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5715,7 +5005,7 @@
         <v>-7572.719717416606</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5748,7 +5038,7 @@
         <v>-7572.719717416606</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5781,7 +5071,7 @@
         <v>-7572.719717416606</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5814,7 +5104,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5847,7 +5137,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5880,7 +5170,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5913,7 +5203,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5946,7 +5236,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5979,7 +5269,7 @@
         <v>-12747.99641741661</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6012,7 +5302,7 @@
         <v>-11282.99641741661</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6045,7 +5335,7 @@
         <v>-13322.99641741661</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6078,7 +5368,7 @@
         <v>-10950.99641741661</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6111,7 +5401,7 @@
         <v>-10950.99641741661</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6144,7 +5434,7 @@
         <v>-10950.99641741661</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6177,7 +5467,7 @@
         <v>-3870.964617416606</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6210,7 +5500,7 @@
         <v>-4270.964617416606</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6243,7 +5533,7 @@
         <v>-4270.964617416606</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6276,7 +5566,7 @@
         <v>26229.0353825834</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6309,7 +5599,7 @@
         <v>26199.3554825834</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6342,7 +5632,7 @@
         <v>25399.3554825834</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6408,7 +5698,7 @@
         <v>25577.2618825834</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6573,7 +5863,7 @@
         <v>25680.1754825834</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6606,7 +5896,7 @@
         <v>25680.1754825834</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6672,7 +5962,7 @@
         <v>25680.1754825834</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6705,7 +5995,7 @@
         <v>25805.1754825834</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6738,7 +6028,7 @@
         <v>26018.7935825834</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6936,7 +6226,7 @@
         <v>26637.56858258339</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7002,7 +6292,7 @@
         <v>26641.56858258339</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7035,7 +6325,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7134,7 +6424,7 @@
         <v>25013.04278258339</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7167,7 +6457,7 @@
         <v>24441.19258258339</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7200,7 +6490,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7233,7 +6523,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7266,7 +6556,7 @@
         <v>22431.19258258339</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7299,7 +6589,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7332,7 +6622,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7365,7 +6655,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7398,7 +6688,7 @@
         <v>26870.54798258339</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7431,7 +6721,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7464,7 +6754,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7497,7 +6787,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7530,7 +6820,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7563,7 +6853,7 @@
         <v>11407.38338258339</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7596,7 +6886,7 @@
         <v>11338.39298258339</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7629,7 +6919,7 @@
         <v>11372.06301625342</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7662,7 +6952,7 @@
         <v>11372.06301625342</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7695,7 +6985,7 @@
         <v>11372.06301625342</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7728,7 +7018,7 @@
         <v>11201.87451625342</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7761,7 +7051,7 @@
         <v>11303.56851625342</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7794,7 +7084,7 @@
         <v>11293.59351625342</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7827,7 +7117,7 @@
         <v>11293.59351625342</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7860,7 +7150,7 @@
         <v>-4027.970683746578</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7893,7 +7183,7 @@
         <v>-4027.970683746578</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7926,7 +7216,7 @@
         <v>-16764.73818374658</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7959,7 +7249,7 @@
         <v>-18267.31788374658</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7992,7 +7282,7 @@
         <v>-18267.31788374658</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8025,7 +7315,7 @@
         <v>-17389.55198374658</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8058,7 +7348,7 @@
         <v>-24532.37858374658</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8091,7 +7381,7 @@
         <v>-23744.44918374658</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8124,7 +7414,7 @@
         <v>-23037.70838374658</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8157,7 +7447,7 @@
         <v>-23037.70838374658</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8190,7 +7480,7 @@
         <v>-23037.70838374658</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8223,7 +7513,7 @@
         <v>-23782.70838374658</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8256,7 +7546,7 @@
         <v>-26450.35068374658</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8289,7 +7579,7 @@
         <v>-29372.68918374658</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8322,7 +7612,7 @@
         <v>-29710.10148374658</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8355,7 +7645,7 @@
         <v>-32715.94098374658</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8388,7 +7678,7 @@
         <v>-33788.13948374658</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9246,14 +8536,10 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>281</v>
-      </c>
-      <c r="J247" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -9283,216 +8569,188 @@
         <v>-48039.57338374657</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
         <v>281</v>
       </c>
-      <c r="J248" t="n">
+      <c r="C249" t="n">
         <v>281</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="D249" t="n">
+        <v>281</v>
+      </c>
+      <c r="E249" t="n">
+        <v>281</v>
+      </c>
+      <c r="F249" t="n">
+        <v>16.0013</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-48023.57208374657</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>281</v>
+      </c>
+      <c r="C250" t="n">
+        <v>281</v>
+      </c>
+      <c r="D250" t="n">
+        <v>281</v>
+      </c>
+      <c r="E250" t="n">
+        <v>281</v>
+      </c>
+      <c r="F250" t="n">
+        <v>8233.975</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-48023.57208374657</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>281</v>
+      </c>
+      <c r="C251" t="n">
+        <v>281</v>
+      </c>
+      <c r="D251" t="n">
+        <v>281</v>
+      </c>
+      <c r="E251" t="n">
+        <v>281</v>
+      </c>
+      <c r="F251" t="n">
+        <v>14.4645</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-48023.57208374657</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>281</v>
+      </c>
+      <c r="C252" t="n">
+        <v>281</v>
+      </c>
+      <c r="D252" t="n">
+        <v>281</v>
+      </c>
+      <c r="E252" t="n">
+        <v>281</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10.473</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-48023.57208374657</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>281</v>
+      </c>
+      <c r="J252" t="n">
+        <v>281</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>281</v>
+      </c>
+      <c r="C253" t="n">
+        <v>281</v>
+      </c>
+      <c r="D253" t="n">
+        <v>281</v>
+      </c>
+      <c r="E253" t="n">
+        <v>281</v>
+      </c>
+      <c r="F253" t="n">
+        <v>14.4645</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-48023.57208374657</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>281</v>
+      </c>
+      <c r="J253" t="n">
+        <v>281</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>281</v>
-      </c>
-      <c r="C249" t="n">
-        <v>281</v>
-      </c>
-      <c r="D249" t="n">
-        <v>281</v>
-      </c>
-      <c r="E249" t="n">
-        <v>281</v>
-      </c>
-      <c r="F249" t="n">
-        <v>16.0013</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>280</v>
-      </c>
-      <c r="J249" t="n">
-        <v>281</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>281</v>
-      </c>
-      <c r="C250" t="n">
-        <v>281</v>
-      </c>
-      <c r="D250" t="n">
-        <v>281</v>
-      </c>
-      <c r="E250" t="n">
-        <v>281</v>
-      </c>
-      <c r="F250" t="n">
-        <v>8233.975</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>281</v>
-      </c>
-      <c r="J250" t="n">
-        <v>281</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>281</v>
-      </c>
-      <c r="C251" t="n">
-        <v>281</v>
-      </c>
-      <c r="D251" t="n">
-        <v>281</v>
-      </c>
-      <c r="E251" t="n">
-        <v>281</v>
-      </c>
-      <c r="F251" t="n">
-        <v>14.4645</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>281</v>
-      </c>
-      <c r="J251" t="n">
-        <v>281</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>281</v>
-      </c>
-      <c r="C252" t="n">
-        <v>281</v>
-      </c>
-      <c r="D252" t="n">
-        <v>281</v>
-      </c>
-      <c r="E252" t="n">
-        <v>281</v>
-      </c>
-      <c r="F252" t="n">
-        <v>10.473</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>281</v>
-      </c>
-      <c r="J252" t="n">
-        <v>281</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>281</v>
-      </c>
-      <c r="C253" t="n">
-        <v>281</v>
-      </c>
-      <c r="D253" t="n">
-        <v>281</v>
-      </c>
-      <c r="E253" t="n">
-        <v>281</v>
-      </c>
-      <c r="F253" t="n">
-        <v>14.4645</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>281</v>
-      </c>
-      <c r="J253" t="n">
-        <v>281</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9603,11 +8861,9 @@
         <v>-981.2640837465693</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
         <v>281</v>
       </c>
@@ -9923,11 +9179,9 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
         <v>281</v>
       </c>
@@ -9964,11 +9218,9 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>281</v>
       </c>
@@ -10005,11 +9257,9 @@
         <v>-9660.487783746568</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
         <v>281</v>
       </c>
@@ -10046,11 +9296,9 @@
         <v>-6641.147783746568</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>281</v>
       </c>
@@ -10728,6 +9976,6 @@
       <c r="M284" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -616,7 +616,7 @@
         <v>-23437.54029999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-21067.54029999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-21093.80519999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>47813.01333029824</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>48648.01333029824</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>49182.99883029824</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>50047.99883029824</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>51034.99883029824</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>50641.99883029824</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>50625.18633029824</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>51520.30793029824</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>50451.30793029824</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>46278.71163029824</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>32520.34403029824</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-14044.86956970176</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-10420.15136970176</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-9330.686669701761</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-9331.686669701761</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>788.7133302982384</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1877.983569701762</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-34447.29306970176</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-32422.15506970176</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-34586.83946970176</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-30314.13876970176</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>39434.28718134958</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>37790.78548134958</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>29168.66258134958</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>29146.43298134958</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>26841.56858258339</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>23992.56518258339</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>25013.04278258339</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>24441.19258258339</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>24331.19258258339</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>27169.54798258339</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>26870.54798258339</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>11705.63068258339</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8470,11 +8470,17 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>283</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8509,17 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>281</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8548,17 @@
         <v>-47192.65188374658</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>281</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8587,17 @@
         <v>-48039.57338374657</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>281</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8626,17 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>280</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8665,17 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>281</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8704,17 @@
         <v>-48023.57208374657</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>281</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8706,10 +8748,12 @@
       <c r="I252" t="n">
         <v>281</v>
       </c>
-      <c r="J252" t="n">
-        <v>281</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8743,12 +8787,10 @@
       <c r="I253" t="n">
         <v>281</v>
       </c>
-      <c r="J253" t="n">
-        <v>281</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8784,12 +8826,10 @@
       <c r="I254" t="n">
         <v>281</v>
       </c>
-      <c r="J254" t="n">
-        <v>281</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8825,9 +8865,7 @@
       <c r="I255" t="n">
         <v>282</v>
       </c>
-      <c r="J255" t="n">
-        <v>281</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8861,12 +8899,12 @@
         <v>-981.2640837465693</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>283</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8903,9 +8941,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>281</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,12 +8975,12 @@
         <v>-5005.83168374657</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
         <v>281</v>
       </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8978,12 +9014,12 @@
         <v>-3484.73148374657</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>279</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,12 +9053,12 @@
         <v>-3484.73148374657</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>280</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9061,9 +9097,7 @@
       <c r="I261" t="n">
         <v>280</v>
       </c>
-      <c r="J261" t="n">
-        <v>281</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9102,9 +9136,7 @@
       <c r="I262" t="n">
         <v>278</v>
       </c>
-      <c r="J262" t="n">
-        <v>281</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9143,9 +9175,7 @@
       <c r="I263" t="n">
         <v>278</v>
       </c>
-      <c r="J263" t="n">
-        <v>281</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9179,12 +9209,12 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>282</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9218,12 +9248,12 @@
         <v>-9686.282683746569</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>282</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,12 +9287,12 @@
         <v>-9660.487783746568</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>282</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9299,9 +9329,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>281</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9338,9 +9366,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>281</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9377,9 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>281</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9413,12 +9437,12 @@
         <v>-2399.565983746568</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
         <v>281</v>
       </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9452,12 +9476,12 @@
         <v>-2399.565983746568</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>282</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9494,9 +9518,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>281</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,9 +9555,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>281</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9572,9 +9592,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>281</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,9 +9629,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>281</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,9 +9666,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>281</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9689,9 +9703,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>281</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9728,9 +9740,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>281</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9767,9 +9777,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>281</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9806,9 +9814,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>281</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9845,9 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>281</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,9 +9888,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>281</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,9 +9925,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>281</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9962,9 +9962,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>281</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest BAT.xlsx
+++ b/BackTest/2019-10-26 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M284"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>404.4911</v>
       </c>
       <c r="G2" t="n">
-        <v>-33554.9852</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>209.5551</v>
       </c>
       <c r="G3" t="n">
-        <v>-33764.54029999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1680</v>
       </c>
       <c r="G4" t="n">
-        <v>-32084.54029999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>7704.09</v>
       </c>
       <c r="G5" t="n">
-        <v>-24380.45029999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>909.09</v>
       </c>
       <c r="G6" t="n">
-        <v>-25289.54029999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1852</v>
       </c>
       <c r="G7" t="n">
-        <v>-23437.54029999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2370</v>
       </c>
       <c r="G8" t="n">
-        <v>-21067.54029999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>904.625</v>
       </c>
       <c r="G9" t="n">
-        <v>-21067.54029999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>26.2649</v>
       </c>
       <c r="G10" t="n">
-        <v>-21093.80519999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>485.2402</v>
       </c>
       <c r="G11" t="n">
-        <v>-21579.04539999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>775</v>
       </c>
       <c r="G12" t="n">
-        <v>-20804.04539999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2974.4584</v>
       </c>
       <c r="G13" t="n">
-        <v>-17829.58699999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1257.2276</v>
       </c>
       <c r="G14" t="n">
-        <v>-19086.81459999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>387</v>
       </c>
       <c r="G15" t="n">
-        <v>-18699.81459999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>799</v>
       </c>
       <c r="G16" t="n">
-        <v>-17900.81459999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>787</v>
       </c>
       <c r="G17" t="n">
-        <v>-18687.81459999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>590</v>
       </c>
       <c r="G18" t="n">
-        <v>-18687.81459999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1611.8621</v>
       </c>
       <c r="G19" t="n">
-        <v>-20299.67669999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7337.4135</v>
       </c>
       <c r="G20" t="n">
-        <v>-27637.09019999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10.8461</v>
       </c>
       <c r="G21" t="n">
-        <v>-27626.24409999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>11.5626</v>
       </c>
       <c r="G22" t="n">
-        <v>-27626.24409999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>11.5626</v>
       </c>
       <c r="G23" t="n">
-        <v>-27614.68149999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2011.3729</v>
       </c>
       <c r="G24" t="n">
-        <v>-29626.05439999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2000</v>
       </c>
       <c r="G25" t="n">
-        <v>-31626.05439999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>7577.2548</v>
       </c>
       <c r="G26" t="n">
-        <v>-39203.30919999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3009.5318</v>
       </c>
       <c r="G27" t="n">
-        <v>-39203.30919999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>11.3729</v>
       </c>
       <c r="G28" t="n">
-        <v>-39191.93629999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2204.023</v>
       </c>
       <c r="G29" t="n">
-        <v>-36987.91329999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>-38987.91329999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4000</v>
       </c>
       <c r="G31" t="n">
-        <v>-34987.91329999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>6575.9087</v>
       </c>
       <c r="G32" t="n">
-        <v>-41563.82199999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1198.4826</v>
       </c>
       <c r="G33" t="n">
-        <v>-40365.33939999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>208.2943</v>
       </c>
       <c r="G34" t="n">
-        <v>-40157.04509999998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>403.2246</v>
       </c>
       <c r="G35" t="n">
-        <v>-40157.04509999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>5285.089347079038</v>
       </c>
       <c r="G36" t="n">
-        <v>-34871.95575292094</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>825</v>
       </c>
       <c r="G37" t="n">
-        <v>-34871.95575292094</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>426.8168</v>
       </c>
       <c r="G38" t="n">
-        <v>-35298.77255292094</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>137</v>
       </c>
       <c r="G39" t="n">
-        <v>-35298.77255292094</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>83542.894</v>
       </c>
       <c r="G40" t="n">
-        <v>48244.12144707906</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4861.7325</v>
       </c>
       <c r="G41" t="n">
-        <v>43382.38894707906</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>11.0373</v>
       </c>
       <c r="G42" t="n">
-        <v>43393.42624707906</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4614.420683219178</v>
       </c>
       <c r="G43" t="n">
-        <v>48007.84693029824</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>194.8336</v>
       </c>
       <c r="G44" t="n">
-        <v>47813.01333029824</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>835</v>
       </c>
       <c r="G45" t="n">
-        <v>48648.01333029824</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>724.5989</v>
       </c>
       <c r="G46" t="n">
-        <v>49372.61223029824</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>189.6134</v>
       </c>
       <c r="G47" t="n">
-        <v>49182.99883029824</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>865</v>
       </c>
       <c r="G48" t="n">
-        <v>50047.99883029824</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>987</v>
       </c>
       <c r="G49" t="n">
-        <v>51034.99883029824</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>393</v>
       </c>
       <c r="G50" t="n">
-        <v>50641.99883029824</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>245.2517</v>
       </c>
       <c r="G51" t="n">
-        <v>50641.99883029824</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>136.5249</v>
       </c>
       <c r="G52" t="n">
-        <v>50641.99883029824</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>16.8125</v>
       </c>
       <c r="G53" t="n">
-        <v>50625.18633029824</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>895.1215999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>51520.30793029824</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1069</v>
       </c>
       <c r="G55" t="n">
-        <v>50451.30793029824</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>4172.5963</v>
       </c>
       <c r="G56" t="n">
-        <v>46278.71163029824</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>46278.71163029824</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>13758.3676</v>
       </c>
       <c r="G58" t="n">
-        <v>32520.34403029824</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>5799.3091</v>
       </c>
       <c r="G59" t="n">
-        <v>32520.34403029824</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>46565.2136</v>
       </c>
       <c r="G60" t="n">
-        <v>-14044.86956970176</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3624.7182</v>
       </c>
       <c r="G61" t="n">
-        <v>-10420.15136970176</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>211.904</v>
       </c>
       <c r="G62" t="n">
-        <v>-10420.15136970176</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>156.36</v>
       </c>
       <c r="G63" t="n">
-        <v>-10420.15136970176</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>443</v>
       </c>
       <c r="G64" t="n">
-        <v>-10420.15136970176</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>806.0431</v>
       </c>
       <c r="G65" t="n">
-        <v>-10420.15136970176</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1967.411</v>
       </c>
       <c r="G66" t="n">
-        <v>-10420.15136970176</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1089.4647</v>
       </c>
       <c r="G67" t="n">
-        <v>-9330.686669701761</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-9331.686669701761</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10120.4</v>
       </c>
       <c r="G69" t="n">
-        <v>788.7133302982384</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>77900.9679</v>
       </c>
       <c r="G70" t="n">
-        <v>788.7133302982384</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>103.8325</v>
       </c>
       <c r="G71" t="n">
-        <v>788.7133302982384</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2666.6969</v>
       </c>
       <c r="G72" t="n">
-        <v>-1877.983569701762</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>535</v>
       </c>
       <c r="G73" t="n">
-        <v>-1877.983569701762</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>251.3268</v>
       </c>
       <c r="G74" t="n">
-        <v>-1877.983569701762</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>803.9476</v>
       </c>
       <c r="G75" t="n">
-        <v>-1877.983569701762</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>32665.5785</v>
       </c>
       <c r="G76" t="n">
-        <v>-34543.56206970176</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>68.9661</v>
       </c>
       <c r="G77" t="n">
-        <v>-34474.59596970176</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>27.3029</v>
       </c>
       <c r="G78" t="n">
-        <v>-34447.29306970176</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2025.138</v>
       </c>
       <c r="G79" t="n">
-        <v>-32422.15506970176</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2164.6844</v>
       </c>
       <c r="G80" t="n">
-        <v>-34586.83946970176</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>14912.9653</v>
       </c>
       <c r="G81" t="n">
-        <v>-49499.80476970176</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>16684.3174</v>
       </c>
       <c r="G82" t="n">
-        <v>-32815.48736970176</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>6788.3536</v>
       </c>
       <c r="G83" t="n">
-        <v>-26027.13376970176</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>400</v>
       </c>
       <c r="G84" t="n">
-        <v>-25627.13376970176</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>4687.005</v>
       </c>
       <c r="G85" t="n">
-        <v>-30314.13876970176</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>14841.4312</v>
       </c>
       <c r="G86" t="n">
-        <v>-45155.56996970176</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>7566.0324</v>
       </c>
       <c r="G87" t="n">
-        <v>-37589.53756970176</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>19534.2349</v>
       </c>
       <c r="G88" t="n">
-        <v>-57123.77246970175</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>13571.7594</v>
       </c>
       <c r="G89" t="n">
-        <v>-57123.77246970175</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1181.4237</v>
       </c>
       <c r="G90" t="n">
-        <v>-55942.34876970176</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>34.01360544217687</v>
       </c>
       <c r="G91" t="n">
-        <v>-55976.36237514393</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-55986.36237514393</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>16405.2201</v>
       </c>
       <c r="G93" t="n">
-        <v>-39581.14227514393</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>7478.7454</v>
       </c>
       <c r="G94" t="n">
-        <v>-39581.14227514393</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>3706.6032</v>
       </c>
       <c r="G95" t="n">
-        <v>-35874.53907514393</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>9766.528399999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-26108.01067514393</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>3553.2533</v>
       </c>
       <c r="G97" t="n">
-        <v>-26108.01067514393</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>6666.6666</v>
       </c>
       <c r="G98" t="n">
-        <v>-26108.01067514393</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3800.075</v>
       </c>
       <c r="G99" t="n">
-        <v>-22307.93567514393</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>201.6726</v>
       </c>
       <c r="G100" t="n">
-        <v>-22509.60827514394</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>817.1909000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-21692.41737514393</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>6763.8247</v>
       </c>
       <c r="G102" t="n">
-        <v>-14928.59267514393</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>10.9403</v>
       </c>
       <c r="G103" t="n">
-        <v>-14939.53297514393</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>880.9017</v>
       </c>
       <c r="G104" t="n">
-        <v>-15820.43467514393</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2654.3417</v>
       </c>
       <c r="G105" t="n">
-        <v>-13166.09297514393</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>449</v>
       </c>
       <c r="G106" t="n">
-        <v>-12717.09297514393</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>10138.2316</v>
       </c>
       <c r="G107" t="n">
-        <v>-2578.861375143933</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>38813.8172</v>
       </c>
       <c r="G108" t="n">
-        <v>36234.95582485606</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>25319.9686</v>
       </c>
       <c r="G109" t="n">
-        <v>36234.95582485606</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>400</v>
       </c>
       <c r="G110" t="n">
-        <v>35834.95582485606</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2560.87</v>
       </c>
       <c r="G111" t="n">
-        <v>33274.08582485606</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>3744.4816</v>
       </c>
       <c r="G112" t="n">
-        <v>29529.60422485606</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>10215.5183</v>
       </c>
       <c r="G113" t="n">
-        <v>39745.12252485607</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>14.23</v>
       </c>
       <c r="G114" t="n">
-        <v>39759.35252485607</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>39749.35252485607</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2011.3045</v>
       </c>
       <c r="G116" t="n">
-        <v>37738.04802485607</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>520.4607999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>38258.50882485607</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>243.5495</v>
       </c>
       <c r="G118" t="n">
-        <v>38258.50882485607</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>7.317</v>
       </c>
       <c r="G119" t="n">
-        <v>38265.82582485607</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>2664.239914935065</v>
       </c>
       <c r="G120" t="n">
-        <v>40930.06573979114</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1495.778558441559</v>
       </c>
       <c r="G121" t="n">
-        <v>39434.28718134958</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1643.5017</v>
       </c>
       <c r="G122" t="n">
-        <v>37790.78548134958</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>18852.2284</v>
       </c>
       <c r="G123" t="n">
-        <v>37790.78548134958</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>376.4051</v>
       </c>
       <c r="G124" t="n">
-        <v>37790.78548134958</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1094.5991</v>
       </c>
       <c r="G125" t="n">
-        <v>37790.78548134958</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>57562.2581</v>
       </c>
       <c r="G126" t="n">
-        <v>37790.78548134958</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>8622.1229</v>
       </c>
       <c r="G127" t="n">
-        <v>29168.66258134958</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>22.2296</v>
       </c>
       <c r="G128" t="n">
-        <v>29146.43298134958</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>10496.9081</v>
       </c>
       <c r="G129" t="n">
-        <v>18649.52488134958</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>1096.270433557047</v>
       </c>
       <c r="G130" t="n">
-        <v>19745.79531490662</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>14</v>
       </c>
       <c r="G131" t="n">
-        <v>19731.79531490662</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>2344.3335</v>
       </c>
       <c r="G132" t="n">
-        <v>22076.12881490662</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>3342.495</v>
       </c>
       <c r="G133" t="n">
-        <v>18733.63381490663</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>717.9697</v>
       </c>
       <c r="G134" t="n">
-        <v>19451.60351490663</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>32700</v>
       </c>
       <c r="G135" t="n">
-        <v>-13248.39648509337</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>10177.7679</v>
       </c>
       <c r="G136" t="n">
-        <v>-13248.39648509337</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>5038</v>
       </c>
       <c r="G137" t="n">
-        <v>-8210.396485093373</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>437.2662</v>
       </c>
       <c r="G138" t="n">
-        <v>-8210.396485093373</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2749.1751</v>
       </c>
       <c r="G139" t="n">
-        <v>-8210.396485093373</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>637.6767676767677</v>
       </c>
       <c r="G140" t="n">
-        <v>-7572.719717416606</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>6275.5008</v>
       </c>
       <c r="G141" t="n">
-        <v>-7572.719717416606</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>4398.264932323233</v>
       </c>
       <c r="G142" t="n">
-        <v>-7572.719717416606</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>5175.2767</v>
       </c>
       <c r="G143" t="n">
-        <v>-12747.99641741661</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>13.8779</v>
       </c>
       <c r="G144" t="n">
-        <v>-12747.99641741661</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>3471.4688</v>
       </c>
       <c r="G145" t="n">
-        <v>-12747.99641741661</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1802.4933</v>
       </c>
       <c r="G146" t="n">
-        <v>-12747.99641741661</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>0.0001</v>
       </c>
       <c r="G147" t="n">
-        <v>-12747.99641741661</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>1351.8701</v>
       </c>
       <c r="G148" t="n">
-        <v>-12747.99641741661</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1465</v>
       </c>
       <c r="G149" t="n">
-        <v>-11282.99641741661</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>2040</v>
       </c>
       <c r="G150" t="n">
-        <v>-13322.99641741661</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>2372</v>
       </c>
       <c r="G151" t="n">
-        <v>-10950.99641741661</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>3879.0048</v>
       </c>
       <c r="G152" t="n">
-        <v>-10950.99641741661</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>471.2462</v>
       </c>
       <c r="G153" t="n">
-        <v>-10950.99641741661</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>7080.0318</v>
       </c>
       <c r="G154" t="n">
-        <v>-3870.964617416606</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>400</v>
       </c>
       <c r="G155" t="n">
-        <v>-4270.964617416606</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>560</v>
       </c>
       <c r="G156" t="n">
-        <v>-4270.964617416606</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>30500</v>
       </c>
       <c r="G157" t="n">
-        <v>26229.0353825834</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>29.6799</v>
       </c>
       <c r="G158" t="n">
-        <v>26199.3554825834</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>800</v>
       </c>
       <c r="G159" t="n">
-        <v>25399.3554825834</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>177.9064</v>
       </c>
       <c r="G160" t="n">
-        <v>25577.2618825834</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>209</v>
       </c>
       <c r="G161" t="n">
-        <v>25577.2618825834</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>209</v>
       </c>
       <c r="G162" t="n">
-        <v>25577.2618825834</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>14.9136</v>
       </c>
       <c r="G163" t="n">
-        <v>25592.1754825834</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>105.0864</v>
       </c>
       <c r="G164" t="n">
-        <v>25592.1754825834</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>112</v>
       </c>
       <c r="G165" t="n">
-        <v>25480.1754825834</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>200</v>
       </c>
       <c r="G166" t="n">
-        <v>25680.1754825834</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>1786.4523</v>
       </c>
       <c r="G167" t="n">
-        <v>25680.1754825834</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>14.3167</v>
       </c>
       <c r="G168" t="n">
-        <v>25680.1754825834</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>745</v>
       </c>
       <c r="G169" t="n">
-        <v>25680.1754825834</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>125</v>
       </c>
       <c r="G170" t="n">
-        <v>25805.1754825834</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>213.6181</v>
       </c>
       <c r="G171" t="n">
-        <v>26018.7935825834</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>1142</v>
       </c>
       <c r="G172" t="n">
-        <v>27160.7935825834</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>187</v>
       </c>
       <c r="G173" t="n">
-        <v>26973.7935825834</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>1413.0815</v>
       </c>
       <c r="G174" t="n">
-        <v>28386.8750825834</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>629.7778</v>
       </c>
       <c r="G175" t="n">
-        <v>28386.8750825834</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>14.2338</v>
       </c>
       <c r="G176" t="n">
-        <v>28372.64128258339</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>1735.0727</v>
       </c>
       <c r="G177" t="n">
-        <v>26637.56858258339</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>4</v>
       </c>
       <c r="G178" t="n">
-        <v>26641.56858258339</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>644.3538</v>
       </c>
       <c r="G179" t="n">
-        <v>26641.56858258339</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>200</v>
       </c>
       <c r="G180" t="n">
-        <v>26841.56858258339</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>1697.429</v>
       </c>
       <c r="G181" t="n">
-        <v>26841.56858258339</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>2849.0034</v>
       </c>
       <c r="G182" t="n">
-        <v>23992.56518258339</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>1020.4776</v>
       </c>
       <c r="G183" t="n">
-        <v>25013.04278258339</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>571.8502</v>
       </c>
       <c r="G184" t="n">
-        <v>24441.19258258339</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>110</v>
       </c>
       <c r="G185" t="n">
-        <v>24331.19258258339</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>3890</v>
       </c>
       <c r="G186" t="n">
-        <v>24331.19258258339</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>1900</v>
       </c>
       <c r="G187" t="n">
-        <v>22431.19258258339</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>4738.3554</v>
       </c>
       <c r="G188" t="n">
-        <v>27169.54798258339</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>20</v>
       </c>
       <c r="G189" t="n">
-        <v>27169.54798258339</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>13.463</v>
       </c>
       <c r="G190" t="n">
-        <v>27169.54798258339</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>299</v>
       </c>
       <c r="G191" t="n">
-        <v>26870.54798258339</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>15164.9173</v>
       </c>
       <c r="G192" t="n">
-        <v>11705.63068258339</v>
-      </c>
-      <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>252.202</v>
       </c>
       <c r="G193" t="n">
-        <v>11705.63068258339</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>105</v>
       </c>
       <c r="G194" t="n">
-        <v>11705.63068258339</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>54.189</v>
       </c>
       <c r="G195" t="n">
-        <v>11705.63068258339</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>298.2473</v>
       </c>
       <c r="G196" t="n">
-        <v>11407.38338258339</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>68.99039999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>11338.39298258339</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>33.67003367003367</v>
       </c>
       <c r="G198" t="n">
-        <v>11372.06301625342</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>9.7845</v>
       </c>
       <c r="G199" t="n">
-        <v>11372.06301625342</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>5.037</v>
       </c>
       <c r="G200" t="n">
-        <v>11372.06301625342</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>170.1885</v>
       </c>
       <c r="G201" t="n">
-        <v>11201.87451625342</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>101.694</v>
       </c>
       <c r="G202" t="n">
-        <v>11303.56851625342</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>9.975</v>
       </c>
       <c r="G203" t="n">
-        <v>11293.59351625342</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>9</v>
       </c>
       <c r="G204" t="n">
-        <v>11293.59351625342</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>15321.5642</v>
       </c>
       <c r="G205" t="n">
-        <v>-4027.970683746578</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>1850</v>
       </c>
       <c r="G206" t="n">
-        <v>-4027.970683746578</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>12736.7675</v>
       </c>
       <c r="G207" t="n">
-        <v>-16764.73818374658</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>1502.5797</v>
       </c>
       <c r="G208" t="n">
-        <v>-18267.31788374658</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>208.721</v>
       </c>
       <c r="G209" t="n">
-        <v>-18267.31788374658</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>877.7659</v>
       </c>
       <c r="G210" t="n">
-        <v>-17389.55198374658</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>7142.8266</v>
       </c>
       <c r="G211" t="n">
-        <v>-24532.37858374658</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>787.9294</v>
       </c>
       <c r="G212" t="n">
-        <v>-23744.44918374658</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>706.7408</v>
       </c>
       <c r="G213" t="n">
-        <v>-23037.70838374658</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>3650</v>
       </c>
       <c r="G214" t="n">
-        <v>-23037.70838374658</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>1709.217</v>
       </c>
       <c r="G215" t="n">
-        <v>-23037.70838374658</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>745</v>
       </c>
       <c r="G216" t="n">
-        <v>-23782.70838374658</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>2667.6423</v>
       </c>
       <c r="G217" t="n">
-        <v>-26450.35068374658</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>2922.3385</v>
       </c>
       <c r="G218" t="n">
-        <v>-29372.68918374658</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>337.4123</v>
       </c>
       <c r="G219" t="n">
-        <v>-29710.10148374658</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>3005.8395</v>
       </c>
       <c r="G220" t="n">
-        <v>-32715.94098374658</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>1072.1985</v>
       </c>
       <c r="G221" t="n">
-        <v>-33788.13948374658</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>520.626</v>
       </c>
       <c r="G222" t="n">
-        <v>-33788.13948374658</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>7712.8717</v>
       </c>
       <c r="G223" t="n">
-        <v>-33788.13948374658</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>8236.309999999999</v>
       </c>
       <c r="G224" t="n">
-        <v>-33788.13948374658</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>755.323</v>
       </c>
       <c r="G225" t="n">
-        <v>-33788.13948374658</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>4119.7107</v>
       </c>
       <c r="G226" t="n">
-        <v>-33788.13948374658</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>597.7602000000001</v>
       </c>
       <c r="G227" t="n">
-        <v>-33190.37928374658</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>209.8899</v>
       </c>
       <c r="G228" t="n">
-        <v>-33190.37928374658</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>25.6369</v>
       </c>
       <c r="G229" t="n">
-        <v>-33216.01618374658</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>8149.436</v>
       </c>
       <c r="G230" t="n">
-        <v>-41365.45218374658</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>2172.0737</v>
       </c>
       <c r="G231" t="n">
-        <v>-43537.52588374658</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>24.3945</v>
       </c>
       <c r="G232" t="n">
-        <v>-43537.52588374658</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>1604.6883</v>
       </c>
       <c r="G233" t="n">
-        <v>-43537.52588374658</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>10.7615</v>
       </c>
       <c r="G234" t="n">
-        <v>-43537.52588374658</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>2467.125</v>
       </c>
       <c r="G235" t="n">
-        <v>-43537.52588374658</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>842.736</v>
       </c>
       <c r="G236" t="n">
-        <v>-44380.26188374658</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>9</v>
       </c>
       <c r="G237" t="n">
-        <v>-44389.26188374658</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>2387.5847</v>
       </c>
       <c r="G238" t="n">
-        <v>-44389.26188374658</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>3137.0983</v>
       </c>
       <c r="G239" t="n">
-        <v>-44389.26188374658</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>170.9999</v>
       </c>
       <c r="G240" t="n">
-        <v>-44560.26178374658</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>12226.5914</v>
       </c>
       <c r="G241" t="n">
-        <v>-44560.26178374658</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>179.5035</v>
       </c>
       <c r="G242" t="n">
-        <v>-44739.76528374658</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>1000</v>
       </c>
       <c r="G243" t="n">
-        <v>-45739.76528374658</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>11.2151</v>
       </c>
       <c r="G244" t="n">
-        <v>-45739.76528374658</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,1511 +7733,1435 @@
         <v>1452.8866</v>
       </c>
       <c r="G245" t="n">
-        <v>-47192.65188374658</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>281</v>
+      </c>
+      <c r="C246" t="n">
+        <v>281</v>
+      </c>
+      <c r="D246" t="n">
+        <v>281</v>
+      </c>
+      <c r="E246" t="n">
+        <v>281</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1282.388</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>281</v>
+      </c>
+      <c r="C247" t="n">
+        <v>281</v>
+      </c>
+      <c r="D247" t="n">
+        <v>281</v>
+      </c>
+      <c r="E247" t="n">
+        <v>281</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>280</v>
+      </c>
+      <c r="C248" t="n">
+        <v>280</v>
+      </c>
+      <c r="D248" t="n">
+        <v>280</v>
+      </c>
+      <c r="E248" t="n">
+        <v>280</v>
+      </c>
+      <c r="F248" t="n">
+        <v>846.9215</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="n">
+        <v>281</v>
+      </c>
+      <c r="I248" t="n">
+        <v>281</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>281</v>
+      </c>
+      <c r="C249" t="n">
+        <v>281</v>
+      </c>
+      <c r="D249" t="n">
+        <v>281</v>
+      </c>
+      <c r="E249" t="n">
+        <v>281</v>
+      </c>
+      <c r="F249" t="n">
+        <v>16.0013</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>280</v>
+      </c>
+      <c r="I249" t="n">
+        <v>281</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>281</v>
+      </c>
+      <c r="C250" t="n">
+        <v>281</v>
+      </c>
+      <c r="D250" t="n">
+        <v>281</v>
+      </c>
+      <c r="E250" t="n">
+        <v>281</v>
+      </c>
+      <c r="F250" t="n">
+        <v>8233.975</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>281</v>
+      </c>
+      <c r="I250" t="n">
+        <v>281</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>281</v>
+      </c>
+      <c r="C251" t="n">
+        <v>281</v>
+      </c>
+      <c r="D251" t="n">
+        <v>281</v>
+      </c>
+      <c r="E251" t="n">
+        <v>281</v>
+      </c>
+      <c r="F251" t="n">
+        <v>14.4645</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>281</v>
+      </c>
+      <c r="I251" t="n">
+        <v>281</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>281</v>
+      </c>
+      <c r="C252" t="n">
+        <v>281</v>
+      </c>
+      <c r="D252" t="n">
+        <v>281</v>
+      </c>
+      <c r="E252" t="n">
+        <v>281</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10.473</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>281</v>
+      </c>
+      <c r="I252" t="n">
+        <v>281</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>281</v>
+      </c>
+      <c r="C253" t="n">
+        <v>281</v>
+      </c>
+      <c r="D253" t="n">
+        <v>281</v>
+      </c>
+      <c r="E253" t="n">
+        <v>281</v>
+      </c>
+      <c r="F253" t="n">
+        <v>14.4645</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>281</v>
+      </c>
+      <c r="I253" t="n">
+        <v>281</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>281</v>
+      </c>
+      <c r="C254" t="n">
+        <v>282</v>
+      </c>
+      <c r="D254" t="n">
+        <v>282</v>
+      </c>
+      <c r="E254" t="n">
+        <v>281</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5088.2392</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>281</v>
+      </c>
+      <c r="I254" t="n">
+        <v>281</v>
+      </c>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>281</v>
-      </c>
-      <c r="C246" t="n">
-        <v>281</v>
-      </c>
-      <c r="D246" t="n">
-        <v>281</v>
-      </c>
-      <c r="E246" t="n">
-        <v>281</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1282.388</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-47192.65188374658</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>281</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>282</v>
+      </c>
+      <c r="C255" t="n">
+        <v>283</v>
+      </c>
+      <c r="D255" t="n">
+        <v>283</v>
+      </c>
+      <c r="E255" t="n">
+        <v>282</v>
+      </c>
+      <c r="F255" t="n">
+        <v>41973.5865</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+      <c r="H255" t="n">
+        <v>282</v>
+      </c>
+      <c r="I255" t="n">
+        <v>281</v>
+      </c>
+      <c r="J255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>281</v>
-      </c>
-      <c r="C247" t="n">
-        <v>281</v>
-      </c>
-      <c r="D247" t="n">
-        <v>281</v>
-      </c>
-      <c r="E247" t="n">
-        <v>281</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-47192.65188374658</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>281</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>282</v>
+      </c>
+      <c r="C256" t="n">
+        <v>282</v>
+      </c>
+      <c r="D256" t="n">
+        <v>282</v>
+      </c>
+      <c r="E256" t="n">
+        <v>282</v>
+      </c>
+      <c r="F256" t="n">
+        <v>19.5177</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
+      <c r="H256" t="n">
+        <v>283</v>
+      </c>
+      <c r="I256" t="n">
+        <v>281</v>
+      </c>
+      <c r="J256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>280</v>
-      </c>
-      <c r="C248" t="n">
-        <v>280</v>
-      </c>
-      <c r="D248" t="n">
-        <v>280</v>
-      </c>
-      <c r="E248" t="n">
-        <v>280</v>
-      </c>
-      <c r="F248" t="n">
-        <v>846.9215</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-48039.57338374657</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>281</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>281</v>
+      </c>
+      <c r="C257" t="n">
+        <v>281</v>
+      </c>
+      <c r="D257" t="n">
+        <v>281</v>
+      </c>
+      <c r="E257" t="n">
+        <v>281</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1794.5676</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="n">
+        <v>282</v>
+      </c>
+      <c r="I257" t="n">
+        <v>281</v>
+      </c>
+      <c r="J257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>281</v>
-      </c>
-      <c r="C249" t="n">
-        <v>281</v>
-      </c>
-      <c r="D249" t="n">
-        <v>281</v>
-      </c>
-      <c r="E249" t="n">
-        <v>281</v>
-      </c>
-      <c r="F249" t="n">
-        <v>16.0013</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
         <v>280</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
+      <c r="C258" t="n">
+        <v>279</v>
+      </c>
+      <c r="D258" t="n">
+        <v>280</v>
+      </c>
+      <c r="E258" t="n">
+        <v>279</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2230</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="n">
+        <v>281</v>
+      </c>
+      <c r="I258" t="n">
+        <v>281</v>
+      </c>
+      <c r="J258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>281</v>
-      </c>
-      <c r="C250" t="n">
-        <v>281</v>
-      </c>
-      <c r="D250" t="n">
-        <v>281</v>
-      </c>
-      <c r="E250" t="n">
-        <v>281</v>
-      </c>
-      <c r="F250" t="n">
-        <v>8233.975</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>281</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>280</v>
+      </c>
+      <c r="C259" t="n">
+        <v>280</v>
+      </c>
+      <c r="D259" t="n">
+        <v>280</v>
+      </c>
+      <c r="E259" t="n">
+        <v>280</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1521.1002</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="n">
+        <v>279</v>
+      </c>
+      <c r="I259" t="n">
+        <v>281</v>
+      </c>
+      <c r="J259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>281</v>
-      </c>
-      <c r="C251" t="n">
-        <v>281</v>
-      </c>
-      <c r="D251" t="n">
-        <v>281</v>
-      </c>
-      <c r="E251" t="n">
-        <v>281</v>
-      </c>
-      <c r="F251" t="n">
-        <v>14.4645</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>281</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>280</v>
+      </c>
+      <c r="C260" t="n">
+        <v>280</v>
+      </c>
+      <c r="D260" t="n">
+        <v>280</v>
+      </c>
+      <c r="E260" t="n">
+        <v>280</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1562.4997</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="n">
+        <v>280</v>
+      </c>
+      <c r="I260" t="n">
+        <v>281</v>
+      </c>
+      <c r="J260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>281</v>
-      </c>
-      <c r="C252" t="n">
-        <v>281</v>
-      </c>
-      <c r="D252" t="n">
-        <v>281</v>
-      </c>
-      <c r="E252" t="n">
-        <v>281</v>
-      </c>
-      <c r="F252" t="n">
-        <v>10.473</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>281</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>280</v>
+      </c>
+      <c r="C261" t="n">
+        <v>278</v>
+      </c>
+      <c r="D261" t="n">
+        <v>280</v>
+      </c>
+      <c r="E261" t="n">
+        <v>278</v>
+      </c>
+      <c r="F261" t="n">
+        <v>7101.3637</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
+      <c r="H261" t="n">
+        <v>280</v>
+      </c>
+      <c r="I261" t="n">
+        <v>281</v>
+      </c>
+      <c r="J261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>281</v>
-      </c>
-      <c r="C253" t="n">
-        <v>281</v>
-      </c>
-      <c r="D253" t="n">
-        <v>281</v>
-      </c>
-      <c r="E253" t="n">
-        <v>281</v>
-      </c>
-      <c r="F253" t="n">
-        <v>14.4645</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-48023.57208374657</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>281</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>278</v>
+      </c>
+      <c r="C262" t="n">
+        <v>278</v>
+      </c>
+      <c r="D262" t="n">
+        <v>278</v>
+      </c>
+      <c r="E262" t="n">
+        <v>277</v>
+      </c>
+      <c r="F262" t="n">
+        <v>272.7709</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="n">
+        <v>278</v>
+      </c>
+      <c r="I262" t="n">
+        <v>281</v>
+      </c>
+      <c r="J262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>281</v>
-      </c>
-      <c r="C254" t="n">
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>280</v>
+      </c>
+      <c r="C263" t="n">
         <v>282</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D263" t="n">
         <v>282</v>
       </c>
-      <c r="E254" t="n">
-        <v>281</v>
-      </c>
-      <c r="F254" t="n">
-        <v>5088.2392</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-42935.33288374657</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>281</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
+      <c r="E263" t="n">
+        <v>280</v>
+      </c>
+      <c r="F263" t="n">
+        <v>899.8125</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="n">
+        <v>278</v>
+      </c>
+      <c r="I263" t="n">
+        <v>281</v>
+      </c>
+      <c r="J263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
         <v>282</v>
       </c>
-      <c r="C255" t="n">
-        <v>283</v>
-      </c>
-      <c r="D255" t="n">
-        <v>283</v>
-      </c>
-      <c r="E255" t="n">
+      <c r="C264" t="n">
         <v>282</v>
       </c>
-      <c r="F255" t="n">
-        <v>41973.5865</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-961.7463837465693</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
+      <c r="D264" t="n">
         <v>282</v>
       </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
+      <c r="E264" t="n">
+        <v>282</v>
+      </c>
+      <c r="F264" t="n">
+        <v>25.7949</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+      <c r="H264" t="n">
+        <v>282</v>
+      </c>
+      <c r="I264" t="n">
+        <v>281</v>
+      </c>
+      <c r="J264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
         <v>282</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C265" t="n">
         <v>282</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D265" t="n">
         <v>282</v>
       </c>
-      <c r="E256" t="n">
+      <c r="E265" t="n">
         <v>282</v>
       </c>
-      <c r="F256" t="n">
-        <v>19.5177</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-981.2640837465693</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>283</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
+      <c r="F265" t="n">
+        <v>74.2051</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>282</v>
+      </c>
+      <c r="I265" t="n">
+        <v>281</v>
+      </c>
+      <c r="J265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>281</v>
-      </c>
-      <c r="C257" t="n">
-        <v>281</v>
-      </c>
-      <c r="D257" t="n">
-        <v>281</v>
-      </c>
-      <c r="E257" t="n">
-        <v>281</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1794.5676</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-2775.83168374657</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>283</v>
+      </c>
+      <c r="C266" t="n">
+        <v>283</v>
+      </c>
+      <c r="D266" t="n">
+        <v>283</v>
+      </c>
+      <c r="E266" t="n">
+        <v>283</v>
+      </c>
+      <c r="F266" t="n">
+        <v>25.7949</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>281</v>
+      </c>
+      <c r="J266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>280</v>
-      </c>
-      <c r="C258" t="n">
-        <v>279</v>
-      </c>
-      <c r="D258" t="n">
-        <v>280</v>
-      </c>
-      <c r="E258" t="n">
-        <v>279</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2230</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-5005.83168374657</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>281</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>284</v>
+      </c>
+      <c r="C267" t="n">
+        <v>284</v>
+      </c>
+      <c r="D267" t="n">
+        <v>284</v>
+      </c>
+      <c r="E267" t="n">
+        <v>284</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3019.34</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>281</v>
+      </c>
+      <c r="J267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>280</v>
-      </c>
-      <c r="C259" t="n">
-        <v>280</v>
-      </c>
-      <c r="D259" t="n">
-        <v>280</v>
-      </c>
-      <c r="E259" t="n">
-        <v>280</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1521.1002</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-3484.73148374657</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>279</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>285</v>
+      </c>
+      <c r="C268" t="n">
+        <v>283</v>
+      </c>
+      <c r="D268" t="n">
+        <v>285</v>
+      </c>
+      <c r="E268" t="n">
+        <v>283</v>
+      </c>
+      <c r="F268" t="n">
+        <v>3528.7719</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>281</v>
+      </c>
+      <c r="J268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>280</v>
-      </c>
-      <c r="C260" t="n">
-        <v>280</v>
-      </c>
-      <c r="D260" t="n">
-        <v>280</v>
-      </c>
-      <c r="E260" t="n">
-        <v>280</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1562.4997</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-3484.73148374657</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>280</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>281</v>
+      </c>
+      <c r="C269" t="n">
+        <v>281</v>
+      </c>
+      <c r="D269" t="n">
+        <v>281</v>
+      </c>
+      <c r="E269" t="n">
+        <v>281</v>
+      </c>
+      <c r="F269" t="n">
+        <v>662</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>281</v>
+      </c>
+      <c r="J269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>280</v>
-      </c>
-      <c r="C261" t="n">
-        <v>278</v>
-      </c>
-      <c r="D261" t="n">
-        <v>280</v>
-      </c>
-      <c r="E261" t="n">
-        <v>278</v>
-      </c>
-      <c r="F261" t="n">
-        <v>7101.3637</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-10586.09518374657</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>280</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>281</v>
+      </c>
+      <c r="C270" t="n">
+        <v>282</v>
+      </c>
+      <c r="D270" t="n">
+        <v>282</v>
+      </c>
+      <c r="E270" t="n">
+        <v>281</v>
+      </c>
+      <c r="F270" t="n">
+        <v>8432.3537</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>281</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>278</v>
-      </c>
-      <c r="C262" t="n">
-        <v>278</v>
-      </c>
-      <c r="D262" t="n">
-        <v>278</v>
-      </c>
-      <c r="E262" t="n">
-        <v>277</v>
-      </c>
-      <c r="F262" t="n">
-        <v>272.7709</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-10586.09518374657</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>278</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>282</v>
+      </c>
+      <c r="C271" t="n">
+        <v>282</v>
+      </c>
+      <c r="D271" t="n">
+        <v>282</v>
+      </c>
+      <c r="E271" t="n">
+        <v>282</v>
+      </c>
+      <c r="F271" t="n">
+        <v>6301.6112</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>281</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>280</v>
-      </c>
-      <c r="C263" t="n">
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
         <v>282</v>
       </c>
-      <c r="D263" t="n">
+      <c r="C272" t="n">
+        <v>281</v>
+      </c>
+      <c r="D272" t="n">
         <v>282</v>
       </c>
-      <c r="E263" t="n">
-        <v>280</v>
-      </c>
-      <c r="F263" t="n">
-        <v>899.8125</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-9686.282683746569</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>278</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
+      <c r="E272" t="n">
+        <v>281</v>
+      </c>
+      <c r="F272" t="n">
+        <v>7998.2214</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>281</v>
+      </c>
+      <c r="J272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>282</v>
-      </c>
-      <c r="C264" t="n">
-        <v>282</v>
-      </c>
-      <c r="D264" t="n">
-        <v>282</v>
-      </c>
-      <c r="E264" t="n">
-        <v>282</v>
-      </c>
-      <c r="F264" t="n">
-        <v>25.7949</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-9686.282683746569</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>282</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>281</v>
+      </c>
+      <c r="C273" t="n">
+        <v>281</v>
+      </c>
+      <c r="D273" t="n">
+        <v>281</v>
+      </c>
+      <c r="E273" t="n">
+        <v>281</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2277.0024</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>281</v>
+      </c>
+      <c r="J273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
         <v>282</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C274" t="n">
         <v>282</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D274" t="n">
         <v>282</v>
       </c>
-      <c r="E265" t="n">
+      <c r="E274" t="n">
         <v>282</v>
       </c>
-      <c r="F265" t="n">
-        <v>74.2051</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-9686.282683746569</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>282</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
+      <c r="F274" t="n">
+        <v>30.1554</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>281</v>
+      </c>
+      <c r="J274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
         <v>283</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C275" t="n">
         <v>283</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D275" t="n">
         <v>283</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E275" t="n">
         <v>283</v>
       </c>
-      <c r="F266" t="n">
-        <v>25.7949</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-9660.487783746568</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>282</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
+      <c r="F275" t="n">
+        <v>3386.8518</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>281</v>
+      </c>
+      <c r="J275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>284</v>
-      </c>
-      <c r="C267" t="n">
-        <v>284</v>
-      </c>
-      <c r="D267" t="n">
-        <v>284</v>
-      </c>
-      <c r="E267" t="n">
-        <v>284</v>
-      </c>
-      <c r="F267" t="n">
-        <v>3019.34</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-6641.147783746568</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>285</v>
+      </c>
+      <c r="C276" t="n">
+        <v>285</v>
+      </c>
+      <c r="D276" t="n">
+        <v>285</v>
+      </c>
+      <c r="E276" t="n">
+        <v>285</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3535</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>281</v>
+      </c>
+      <c r="J276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>285</v>
-      </c>
-      <c r="C268" t="n">
-        <v>283</v>
-      </c>
-      <c r="D268" t="n">
-        <v>285</v>
-      </c>
-      <c r="E268" t="n">
-        <v>283</v>
-      </c>
-      <c r="F268" t="n">
-        <v>3528.7719</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-10169.91968374657</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>288</v>
+      </c>
+      <c r="C277" t="n">
+        <v>288</v>
+      </c>
+      <c r="D277" t="n">
+        <v>288</v>
+      </c>
+      <c r="E277" t="n">
+        <v>288</v>
+      </c>
+      <c r="F277" t="n">
+        <v>348.705</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>281</v>
+      </c>
+      <c r="J277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>281</v>
-      </c>
-      <c r="C269" t="n">
-        <v>281</v>
-      </c>
-      <c r="D269" t="n">
-        <v>281</v>
-      </c>
-      <c r="E269" t="n">
-        <v>281</v>
-      </c>
-      <c r="F269" t="n">
-        <v>662</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-10831.91968374657</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>288</v>
+      </c>
+      <c r="C278" t="n">
+        <v>287</v>
+      </c>
+      <c r="D278" t="n">
+        <v>288</v>
+      </c>
+      <c r="E278" t="n">
+        <v>287</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3510.2686</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>281</v>
+      </c>
+      <c r="J278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>281</v>
-      </c>
-      <c r="C270" t="n">
-        <v>282</v>
-      </c>
-      <c r="D270" t="n">
-        <v>282</v>
-      </c>
-      <c r="E270" t="n">
-        <v>281</v>
-      </c>
-      <c r="F270" t="n">
-        <v>8432.3537</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-2399.565983746568</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>281</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>286</v>
+      </c>
+      <c r="C279" t="n">
+        <v>286</v>
+      </c>
+      <c r="D279" t="n">
+        <v>286</v>
+      </c>
+      <c r="E279" t="n">
+        <v>286</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3496.5035</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>281</v>
+      </c>
+      <c r="J279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>282</v>
-      </c>
-      <c r="C271" t="n">
-        <v>282</v>
-      </c>
-      <c r="D271" t="n">
-        <v>282</v>
-      </c>
-      <c r="E271" t="n">
-        <v>282</v>
-      </c>
-      <c r="F271" t="n">
-        <v>6301.6112</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-2399.565983746568</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>282</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>286</v>
+      </c>
+      <c r="C280" t="n">
+        <v>286</v>
+      </c>
+      <c r="D280" t="n">
+        <v>286</v>
+      </c>
+      <c r="E280" t="n">
+        <v>286</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1785.925</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>281</v>
+      </c>
+      <c r="J280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>282</v>
-      </c>
-      <c r="C272" t="n">
-        <v>281</v>
-      </c>
-      <c r="D272" t="n">
-        <v>282</v>
-      </c>
-      <c r="E272" t="n">
-        <v>281</v>
-      </c>
-      <c r="F272" t="n">
-        <v>7998.2214</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-10397.78738374657</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>286</v>
+      </c>
+      <c r="C281" t="n">
+        <v>286</v>
+      </c>
+      <c r="D281" t="n">
+        <v>286</v>
+      </c>
+      <c r="E281" t="n">
+        <v>286</v>
+      </c>
+      <c r="F281" t="n">
+        <v>15.2094</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>281</v>
+      </c>
+      <c r="J281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>281</v>
-      </c>
-      <c r="C273" t="n">
-        <v>281</v>
-      </c>
-      <c r="D273" t="n">
-        <v>281</v>
-      </c>
-      <c r="E273" t="n">
-        <v>281</v>
-      </c>
-      <c r="F273" t="n">
-        <v>2277.0024</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-10397.78738374657</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>285</v>
+      </c>
+      <c r="C282" t="n">
+        <v>285</v>
+      </c>
+      <c r="D282" t="n">
+        <v>285</v>
+      </c>
+      <c r="E282" t="n">
+        <v>285</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1784.3445</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>281</v>
+      </c>
+      <c r="J282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>282</v>
-      </c>
-      <c r="C274" t="n">
-        <v>282</v>
-      </c>
-      <c r="D274" t="n">
-        <v>282</v>
-      </c>
-      <c r="E274" t="n">
-        <v>282</v>
-      </c>
-      <c r="F274" t="n">
-        <v>30.1554</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-10367.63198374657</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>285</v>
+      </c>
+      <c r="C283" t="n">
+        <v>285</v>
+      </c>
+      <c r="D283" t="n">
+        <v>285</v>
+      </c>
+      <c r="E283" t="n">
+        <v>285</v>
+      </c>
+      <c r="F283" t="n">
+        <v>237.6186</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>281</v>
+      </c>
+      <c r="J283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>283</v>
-      </c>
-      <c r="C275" t="n">
-        <v>283</v>
-      </c>
-      <c r="D275" t="n">
-        <v>283</v>
-      </c>
-      <c r="E275" t="n">
-        <v>283</v>
-      </c>
-      <c r="F275" t="n">
-        <v>3386.8518</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-6980.780183746569</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>285</v>
+      </c>
+      <c r="C284" t="n">
+        <v>285</v>
+      </c>
+      <c r="D284" t="n">
+        <v>285</v>
+      </c>
+      <c r="E284" t="n">
+        <v>285</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1158.2223</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>281</v>
+      </c>
+      <c r="J284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>285</v>
-      </c>
-      <c r="C276" t="n">
-        <v>285</v>
-      </c>
-      <c r="D276" t="n">
-        <v>285</v>
-      </c>
-      <c r="E276" t="n">
-        <v>285</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3535</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-3445.780183746569</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>288</v>
-      </c>
-      <c r="C277" t="n">
-        <v>288</v>
-      </c>
-      <c r="D277" t="n">
-        <v>288</v>
-      </c>
-      <c r="E277" t="n">
-        <v>288</v>
-      </c>
-      <c r="F277" t="n">
-        <v>348.705</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-3097.075183746569</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>288</v>
-      </c>
-      <c r="C278" t="n">
-        <v>287</v>
-      </c>
-      <c r="D278" t="n">
-        <v>288</v>
-      </c>
-      <c r="E278" t="n">
-        <v>287</v>
-      </c>
-      <c r="F278" t="n">
-        <v>3510.2686</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-6607.343783746568</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>286</v>
-      </c>
-      <c r="C279" t="n">
-        <v>286</v>
-      </c>
-      <c r="D279" t="n">
-        <v>286</v>
-      </c>
-      <c r="E279" t="n">
-        <v>286</v>
-      </c>
-      <c r="F279" t="n">
-        <v>3496.5035</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-10103.84728374657</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>286</v>
-      </c>
-      <c r="C280" t="n">
-        <v>286</v>
-      </c>
-      <c r="D280" t="n">
-        <v>286</v>
-      </c>
-      <c r="E280" t="n">
-        <v>286</v>
-      </c>
-      <c r="F280" t="n">
-        <v>1785.925</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-10103.84728374657</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>286</v>
-      </c>
-      <c r="C281" t="n">
-        <v>286</v>
-      </c>
-      <c r="D281" t="n">
-        <v>286</v>
-      </c>
-      <c r="E281" t="n">
-        <v>286</v>
-      </c>
-      <c r="F281" t="n">
-        <v>15.2094</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-10103.84728374657</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>285</v>
-      </c>
-      <c r="C282" t="n">
-        <v>285</v>
-      </c>
-      <c r="D282" t="n">
-        <v>285</v>
-      </c>
-      <c r="E282" t="n">
-        <v>285</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1784.3445</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-11888.19178374657</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>285</v>
-      </c>
-      <c r="C283" t="n">
-        <v>285</v>
-      </c>
-      <c r="D283" t="n">
-        <v>285</v>
-      </c>
-      <c r="E283" t="n">
-        <v>285</v>
-      </c>
-      <c r="F283" t="n">
-        <v>237.6186</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-11888.19178374657</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>285</v>
-      </c>
-      <c r="C284" t="n">
-        <v>285</v>
-      </c>
-      <c r="D284" t="n">
-        <v>285</v>
-      </c>
-      <c r="E284" t="n">
-        <v>285</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1158.2223</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-11888.19178374657</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
